--- a/FilterOffersTraining/TrainingEminDataSet.xlsx
+++ b/FilterOffersTraining/TrainingEminDataSet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t xml:space="preserve">Descriptions</t>
   </si>
@@ -365,6 +365,210 @@
   </si>
   <si>
     <t xml:space="preserve">LOOP is a digital-first lead agency, exploring the intersections between design, technology and digital brand building for leading brands. With a team of 400 digital talents and through data driven marketing, we help brave clients to stand out in the digital age. Over the last few years our brilliant team has done remarkable and innovative work for internationally recognised high-profile brands such as Puma, Audi, Breitling, Red Bull and numerous others.    Do you want to work closely with our design and mobile development teams to create and continuously improve upon digital products for our international clients? Are you an excellent communicator and skilled at keeping a clear overview of a complex app, webapp and mobile projects? This is your chance to join the LOOP team and become an integral part of the product management and development process and work closely with our clients.    Requirements:      Profound experience as a Project Manager or Product Owner for digital products and the ownership of their full life cycle.   Skillfully execute client strategies for mobile app projects, meticulously managing budgets and timelines.   In-depth understanding of concept, UX/UI design and development of apps and webapps. Experience on software on smart devices is a plus.   Able to set up and facilitate meetings, workshops and collaborative processes within interdisciplinary stakeholders groups as well as our clients BO and POs in order to create the best product possible.   Profound client consulting expertise to build a strong long-term relationship with our clients and consistently manage client expectations ensuring delivery of highest quality product.   You can clearly summarise client expectations into succinct design and development briefings.   Exceptional project management skills and experience in agile methodologies such as SCRUM.   Excellent Jira &amp; Confluence skills.   Be a team-centric player, advocating for collaborative, objective, and respectful dialogue.   Be a strong and proactive communicator, both written and verbal.   Stay up-to-date with emerging trends with a relentless sense of curiosity.   Love to work collaboratively and on eye-level with international clients and within an international team.   You have at least 3 years’ digital agency and/or project / product management experience.   Fluent German language and excellent English language skills.   Benefits:      4-day Workweek   At LOOP you can choose between a 5-day or a 4-day workweek – and have the freedom to switch between these models twice a year.      Free Sports and Fitness   Yoga, fitness, climbing, tennis and more. LOOP covers the costs and gives you access to fitness studios and sports facilities across Austria or Germany.      +20% Vacation   We don’t believe there can be enough time to recharge, that’s why all our team members get +20% vacation days per year, we call it Sunny Hours.      4000+ m² Office Space   Our loft space is part of our identity. An ideal environment for working, collaborating and finding inspiration — with an additional 600m² film- and photo studio.      100% Hybrid Work   Home office or LOOP office space? It’s your choice every day, and you don’t even need approval. In addition, most of our jobs are available as remote jobs.      International and Diverse   Team members from 40+ different nationalities in 7 locations, English as main language and a 55% female leadership quota.      And much more   Language Courses, Visa Support, LOOP.Horizon workshops and trainings, Klimaticket Contribution, Audiobook Library, Headspace App Subscription, etc.    So, if you are motivated to join the LOOP Team, we are happy to offer you a position as a Digital Product Owner in Salzburg, Vienna or Berlin. We are looking forward to receiving your online application!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMTensor GmbH is developing novel biomedical imaging modality utilizing RF-technologies at frequency band around 1GHz. EMTensor GmbH is privately owned MedTech located in Vienna, Austria (www.emtensor.com). The primary focus of the Company is on human brain imaging and diagnostic of brain disorders.     The Company is seeking to recruit an experienced RF electronics engineer with a proven track record and preferably a PhD in microwave / radiofrequency electronic engineering to work as part of our team in Vienna, Austria. The ideal candidate must have hands-on experience in electronic RF engineering and R&amp;D of modern RF/MW devices and technologies at frequency band around 1GHz is desirable.     Role and responsibilities:        Architect novel RF-based biomedical imaging systems     R&amp;D, testing and optimization of RF electronics for novel biomedical imaging systems     Breadth of RF design experience     Innovation and effectiveness in designs produced     Ability to act as lead engineer for new RF product design     Strong practical RF design skills (ability to design, make and test circuitry)     EM simulations using state of the art EM simulation tools     Support the experimental and test activities in the lab     Take part in FDA/CE certification and commercialization of novel biomedical imaging technology and scanners     Provide output and results according to EMTensor’s Quality Management       Essential Qualifications and experiences:        Experience in design, testing and optimization of RF electronics     Experience in commercial electromagnetic simulation tools such as HFSS, CST.     Experience in RF and/or communication system development     Practical lab experience in RF system verification (VNA, spectrum analyzer, oscilloscope utilization etc).     Experience working with EMC and safety certification test labs is a plus.     A passion for hardware development, including working in a fast-paced environment and hands-on design and development.     Interpersonal skills and abilities to communicate and work in a team environment across all levels of the organisation.     Understanding of quality standards and FDA/CE Quality System Regulations is a plus.       Education:        MS +10 years of experience or PhD + 5 years of experience in EE and/or RF engineering        Please send your CV along with a cover letter to elke.ebner@emtensor.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of its growth and acceleration plan, Kylii Kids is recruiting a Business Developer for the playground and leisure sector to continue promoting its interactive treasure hunt Kylii Quest in Germany, the Netherlands, Belgium and Nordic countries Kylii Kids is the leader in interactive children's play and spaces. We transform physical spaces into places for families to experience. We support our customers in the design and deployment of interactive games for children to attract, entertain and keep families coming back to their establishments. We have deployed more than 1,100 solutions in 20 countries in the leisure, restaurant, retail and petrol station sectors. YOUR PROFILE :   You have a minimum of 2 years' higher education (BAC + 2) with a commercial/sales background.  You speak German, English and French (not mandatory)  You have good listening and negotiating skills  You enjoy BtoB development and sales  You have professional written and spoken skills  You have a good command of office automation tools (CRM, google suite)  You have good interpersonal skills and are a team player  YOUR MISSION :  You will work under the responsibility of the CEO and will be responsible for the following tasks:   To promote and sell the Kylii Quest interactive treasure hunt to the leisure sector in Northern Europe.  Prospect and win new customers in the leisure sector (indoor and outdoor play parks)  Increase sales with existing and prospective customers by organizing on-site demonstrations with management support  Draw up sales proposals, negotiate contracts and renewals  Carry out regular reporting using CRM  Develop and participate in operational marketing initiatives  Job Type: Full-time Schedule:   Monday to Friday  Language:   English (Required)  German (Required)  Work Location: In person Expected Start Date: 09/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Mango we inspire and we unite through our passion for style and culture. We are present in more than 115 countries and our online presence extends to more than 110 countries. Our team is made up of people of 112 nationalities and 78% of them are women.        We are looking for     ASSISTANT STORE MANAGER (35 hours - Anvers)     WHAT WOULD YOUR DAY TO DAY BE LIKE AT MANGO?        You will support the store manager in the effective running of the shop by delivering improved sales performance, ensuring excellent customer service and ensuring the team performs daily tasks in a positive environment.          We are hiring for our Flagship store in Belgium!              Must be eligible to work in Belgium.          Key Responsibilities:        Plan, implement, and monitor measures required to meet and exceed sales targets     To possess a good product knowledge and fashion awareness.     To know and apply the visual merchandising standards of the brand and of the season.     Ensure and collaborate in the implementation of merchandising standards and optimize sales space to maximize profitability     To act as a role model and promote effective communication within the sales team.     To recruit, train and ensure the seamless integration of new employees.          What are we looking for?        Relevant experience in managing and visual merchandiser in a dynamic shop within the fashion retail industry (At least 1 year)     Customer and image-oriented, having product awareness and commercial orientation     Excellent command of English - written and spoken     Motivation and passion for managing people by example     Sales oriented person organized and tenacious, problem solver, able to work well under pressure and adapt to change.          WHAT MAKES US SPECIAL?      Discount on all our lines (Woman, Man, Kids, Teen &amp; Home).    Uniform per season.    Meal vouchers.    Constant development opportunities with varied challenges that generate on-the-job learning.    Close, inspiring, and ambitious work environment.    You will be part of a leading company in the fashion industry, dynamic and in full innovation.     You got it?   We like you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is Kadonation?        Kadonation was founded in 2016 and is today one of the fastest growing companies in Belgium.  Our scale-up is a dynamic player in the employee and corporate gifts market. Unwrapping the impact of gifting, that’s our motto. And it’s also the reason we built Kadonation Select: an intuitive platform that allows organisations to set up a well-thought-out recognition policy in no time. Our software takes away the administrative burden that comes with employee gift-giving. In short: more appreciation, less hassle!  Want to know more about our story, the core values we strive for and the mission we’re working on with around 40 talented individuals? Read more here.            We’re looking for…        … an Account Executive to approach prospects and convince them of the power of our Kadonation Select platform. You’ll take ownership of the Dutch-speaking market within the Benelux and focus on expanding the pipeline and closing deals.  What are your responsibilities?               You’ll be responsible for lead generation and sales of our B2B platform in Flanders and the Netherlands.       You’ll ensure your own stable flow of outbound leads, follow them up and also be responsible for closing the deals.       Even after the deal is closed, you’ll continue to maintain a relationship with the customers in your portfolio, focusing on up- and cross-selling to increase recurring revenue.  Clear communication and administration in the CRM.  You’ll be an ambassador for Kadonation, which means introducing yourself to the customer with pride!       Focus: B2B sales at companies in Flanders and the Netherlands with 100‑1000+ FTEs.       You’ll work from our office in Ghent (2d/w) and visit customers on site where necessary.                   What is your profile?          You’re a real hunter and get a thrill out of closing deals with new customers.  You’re a go-getter who is not easily discouraged. You know that your strength lies in a consistent approach.  You can tell a story with passion and conviction and have the necessary sales techniques to close a customer.  Strong team spirit, goal-oriented and transparent communication.  You have a proactive attitude and a results-oriented mindset.  You’re a team player and have a positive mindset.  You work independently and use your time efficiently.       You have at least 2 years of experience in B2B sales, preferably with proven successes in cold acquisition. Do you have more experience? That’s certainly something we’re interested in.       Your Dutch is perfect and your English is good.  You have a bachelor’s degree or equivalent experience.       Your experience in sales with HR or marketing as the target group is a big plus.               What can we offer you?             An enthusiastic team and a friendly office environment where even your dog is welcome.              The chance to experience the growth of a scale-up up close and to put your stamp on it.              A 38-hour week with 26 days of leave and, in addition to a competitive salary, a flexible salary package. Including, for example, a company car, meal and eco vouchers, training and workplace budget, plus hospitalisation insurance. And of course, there’s also an extensive gift policy for your professional &amp; personal milestones, but that probably doesn’t come as any surprise!              A good work – life balance, with flexible hours and the option to work from home (up to 3 days a week).               Why join Kadonation?        At Kadonation we connect the energy and ambition of a start-up to the expertise and know-how of a scale-up. You’ll be working in a dynamic tech company with an open feedback culture and space for your own initiative and ideas. And above all: we like to make you feel truly appreciated.  Do you also believe in our product? Apply now to join our sales team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About AppTweak    AppTweak is the trusted app store acquisition partner for mobile leaders worldwide; we provide innovative solutions that help apps and games optimize their app store presence and increase downloads. For 10+ years, companies including Uber, Adobe, and Zynga have trusted our unique metrics, actionable insights, and expertise to make informed decisions and achieve long-term success in the competitive mobile market.    Driven by data science and a human-centered approach, AppTweak is recognized for its innovative features and rapid growth. We have been awarded “ASO Tool of the Year” and “App Data Platform of the Year” by the App Growth Awards, and have been four times recognized as one of the fastest-growing technology companies by Deloitte Belgium.    Today we are a team of +100 people based in 8 offices around the globe (Brussels, San Francisco, Bengaluru, Tokyo, Seoul, London, Montreal and Beijing) supporting more than +2,000 customers worldwide. We’re gearing up for fast growth and are looking for ambitious individuals to join our team!      About the role      We are looking for a passionate and experienced Account Executive to join our second-stage rocket ship!  You’ll be responsible for helping AppTweak grow its customer base and revenue in EMEA, with a focus on Enterprise prospects. As an experienced AE, you will provide direction and perspective to the regional manager and leadership team to increase the business efficiencies, structure, and strategy to ensure team and individual success. If you have what it takes to help us grow, we’d love to hear from you!      Location: London or Paris. Access to co-working space.        What you will do:      Achieve the company’s sales goals for the EMEA market       Close deals consistently to achieve your individual sales target.    Build and grow your pipeline with accurate forecasting.    Conduct product demos to leads with a focus on value and business needs. You will own the full sales cycle from lead to close.    Prospecting ICP customers to generate opportunities, through inbound and outbound. Assess leads requirements, solve their problems and anticipate future needs to increase revenue.    Establish a deep understanding of AppTweak’s business operations, including App Store Optimization, competitive landscape, and internal tools &amp; processes.       Reinforce AppTweak’s presence and reputation in EMEA         Represent and advocate AppTweak’s brand during major mobile marketing conferences throughout the year in various locations such as Berlin, London, Barcelona, etc. (between 4 and 8 events per year).    Connect with C-level and senior executives in the mobile industry to grow AppTweak’s reputation across various verticals such as Gaming, Retail, Finance, Entertainment, etc.    Organize and host ASO-related networking events to increase brand awareness and reputation.      Actively participate in cross-department cooperation         Lead and contribute to team projects to develop and refine our sales processes.    Work with Marketing to ensure consistency in outreach/emailing campaigns and inbound initiatives.    Collaborate with various teams, including the Product and Customer Solutions Team, to better align client-facing efforts by taking the initiative to identify issues and find solutions.     Must-have       2+ years as an Account Executive selling B2B solutions    Perfectly Fluent in English, French or German is a plus!    Knowledge of the mobile marketing industry is mandatory    Consistent track record of (over) achieving targets    A problem-solving approach to the prospect's challenges    Entrepreneurial spirit: your pipeline is your business, you need to own it and embrace it    Bachelor's or Master’s degree in Business, Communication, Marketing, Sales or any relevant field       What's in it for you?         Onboarding journey in our amazing offices in Brussels, then invitation to join the Global meeting in person once every quarter.    Bi-yearly company-wide team building to connect with all your colleagues.    A diverse team within a flat hierarchy: altogether we speak more than 15 languages.    Opportunity to connect with a variety of exciting mobile businesses cross different verticals.    An exciting and fast-growing company with a people-first culture. “Diversity” and “work-life balance” are not just buzzwords at AppTweak.    Flexibility in your work and opportunities for continuous learning and creative thinking.    Regular general team meetings and demo days to make sure everyone is aligned with AppTweak's growth path    Chance to discover new food recipes, because yes, we love food!     ✨Our recruitment process✨         A first video call with Madeleine from the HR team to get to know each other and tell you more about AppTweak.    A video interview with the manager to deep dive into your past experience and learn more about your aspirations    The Assessment part, to test your skills related to the position    Final call with a C-level or the CEO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVABLE VISION: ENABLE INNOVATION THROUGH STARTUP RELATIONS   Novable is a tech startup active in the corporate innovation space, providing a startup scouting solution made of advanced technology software and dedicated analyst reviews. In particular, Novable develops an advanced AI-based technology to scout and match startups.   Startups have the innovation power - We believe that startup ecosystems (entrepreneurs, startups, scaleups, hubs, accelerators, venture capital funds) are a glimpse of the future, as they crystallize the forefront of technology innovation everywhere in the world. They are the crystal ball to anticipate future industry trends.   Corporations have the industrial power - On the other side, we believe that corporations have the necessary resources to get things done and to put the best ideas at work on a global scale. In that sense, it is critical that they collaborate with startups, not only for themselves, not only for their survival but also for the greater good of humanity on this planet.   Bring the best of those two worlds together - We are technology optimists. We believe that tech innovation can contribute to solving major societal issues and world problems, provided that enough industrial power is injected into the process. We envision a world where innovation and industry powers connect seamlessly and globally, to speed up the world’s transformation.   Novable mission is to enable innovation through startup relations, by connecting the brightest minds from the startup ecosystem with the strong industrial ambitions of the business world. We allow corporations and companies to identify the most suitable, enterprise-ready innovations matching their strategic agenda.     Novable is a fast-growing tech startup working in the field of corporate venturing &amp; innovation scouting. We are now looking for a Growth Hacker Intern who is willing and ready to support the team in daily activities for at least 3 months.   Here are the main tasks that you will be involved with      Execute our growth hacking strategy: feed the sales team by building lists of leads through social engagement, SEO hacks, and HubSpot management    Engage in outbound activities: Design, set up, monitor and refine email and social media outbound campaigns    Use data &amp; analytics to support decision-making and growth strategies.    Creation of landing pages     Your Profile      Keen interest in digital selling, conversion, funnels, measures, with a data-driven mindset.    Knowledge of tools such as HubSpot, Lusha, Apollo, LinkedIn Sales Navigator, Google Analytics, etc. will be a strong plus.    Open-minded, eager to learn and try out new things, while also being autonomous.    Fun to work with! We take the sense of humour very seriously.    Fluent in English (C1), any other language is a plus     We'll only consider candidates located in Belgium who can regularly be in Brussels (2 days at the office is a must).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to build a high-quality data platform that will innovate financial markets? Do you want to work for a company that uses modern techniques to achieve the best results for its clients while empowering and supporting you to realize your full potential?    We are an experienced team of Spring committers, Kafka contributors, ex-Pivotal, and ex-Google engineers. If you want to know more, keep reading or reach out for a chat.    About us    We are a VC-backed fintech with a live product in the regulatory trade reporting space and a growing list of institutional clients (B2B). Our product journey has started in the US with a roadmap into Canada, UK, EU, Australia, and Singapore over the next twelve months. We are a start-up on a fast paced journey to scale-up.    KOR is built on leading edge cloud technology by industry domain experts and world class in-house engineering. We're on a mission to innovate B2B trade servicing starting with regulatory reporting in time for a global wave of mandated changes hitting all segments of market participants across OTC derivatives transactions. We’re solving the most challenging problems around by bringing fresh designs and solutions to data utility, quality, and processing inefficiencies. . . while unlocking insane value for clients.    Teamwork and laser focus are central to everything we do at KOR. With the right support, we believe small independent teams with deep expertises achieve better results and encourage skilled people to take responsibility and grow their careers. We live by the mantra of work humble, work smart, and work together.    About you    You have a passion for high-quality, reliable, and maintainable code. You're comfortable working with product managers, designers, and clients, making decisions to deliver valuable working software to clients and their users quickly. You're agile and retrospective and not afraid to identify what we're doing wrong so we can fix it and what we're doing right to improve on it. Above all, you judge your success by the success of your team and the happiness of our customers.    Responsibilities    As a Back End Engineer at KOR, you get to own parts of the KOR Platform. We value your ideas, and you'll play a key role in developing products that our customers will love using. Of course, we don't expect you to know it all, but your natural desire to learn will help you overcome new challenges and prove yourself as a valuable member of the KOR team.    Day to day, you'll be:&gt;      Designing and implementing the streaming data platform engine and SDK.    Implementing new features for our range of web and streaming applications and data reporting capabilities.    Be an active voice in the platform's build-out in regards to the technical choices and implementations.    Working closely with the broader team to embrace new challenges and adapt requirements as we continue to grow and adjust priorities.    Paired programming with a growing team of Back-end, Data, and Front-end Engineers.     Experience and attributes      A minimum of 5+ years of experience as a Back End Engineer.    Experience with Java and Spring Boot Framework.    Experience with building and running applications on public cloud vendors like AWS.    Experience profiling, debugging, and performance tuning complex distributed systems.    A firm reliance on unit testing and mocking frameworks with a TDD (Test Driven Development) mindset.    Knowledge of OOP principles and modern development practices.     Plus to have      Experience with event data modeling in event store/sourcing systems.    Experience with horizontally scalable and highly available system design and implementation, focusing on performance and resiliency.    Bachelor's Degree or higher in Engineering, Computer Science, or Information Technology.     The main tools and frameworks we use daily      K8s    AWS     OSX (Mac)    IntelliJ    Github (Actions)    DataDog    Confluent Cloud    Argo CD      We're still in the build stage, so introducing new tools and approaches are entirely on the table.    At KOR, the company culture is essential to us. Therefore, we are looking for an open-minded, humble, driven, communicative team player to join us.    What we have to offer    Depending on you and your priorities, we offer the following:       Culture of trust, empowerment, and constructive feedback.    Competitive salary, great IT equipment, and expense allowance.    Flexible working times.    Fully Remote    A span of control that matches your ambitions and skills.      Above and beyond this, we will provide a commitment to a genuine, balanced relationship. We will listen to you, take your needs and wishes seriously, and work to help you grow professionally.    So, if you're a Back-End Engineer who wants the chance to grow, maybe it's time to join a company that values what you do and helps you achieve your goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Developer Intern About Staizen At Staizen, we live and breathe transformation. We support and guide our clients through the toughest and nitty-gritty parts of building, modernizing, and running digital products and platforms. Transformation is not easy and to be the best partners, we challenge ourselves to constantly practice what we preach in the way we do, build and lead. The name Staizen is short for “State of Kaizen”, inspired by the Kaizen philosophy of continuous improvement. We are all about getting 1% better every day because sustainable transformation is not about the big bang but manifests in the daily choices that we commit to do every single day. What we offer   Get the chance to work on transformation at scale missions for complex industries such as banking, e-commerce, insurance  Be part of our internal product development and build the next generation of productivity tools for customers  Be part of exciting communities where you can collaborate, grow and learn across the board  We are remote-first with global operations across Belgium, Luxembourg, France, the Philippines, Singapore, and Cyprus, with optional co-working spaces for the team  The winning recipe Social Chameleon - Active Listener - Timely Delivery - Organizational Skills - Team Player - Solution and data Oriented Responsibilities Working in close collaboration with our Business community and you will have the opportunity to:   Identify account names per industry and build a priority list;  Identify leads (contact names, email address, LinkedIn contact);  Propose action plans;  Schedule prospection meetings;  Contribute to the CRM enrichment and data quality;  Support senior business manager in building customer offers;  participate to client meetings and project delivery sync-up;  Part of the business community and contribute to the business process improvement;  Requirements   A minimum internship duration of 6 months is required, and must be in business school.  On top of everything, you love to think, act smart and understand who you are addressing and why.  Strong ability to listen and accompany customers in the smooth deployment of new tools and teams.  Enthusiastic about using innovative technologies, collaborative tools and their possible applications.  Charismatic communicator, willing to be the driving force in sustainable collaborations.  High-level command of English and Dutch is required as you will collaborate closely with Dutch clients within a diverse team.  Dynamic individual with an interest in IT/Digital Transformation.  Previous internship experience in the IT/Digital industry is advantageous.  Benefit   Attractive internship compensation  Be part of a dynamic and senior Business community  Learn digital and IT industry market  Create a long-term lead portfolio  Potential long-term employment after the internship.  So, what do you think? Are you ready to drive impact and grow with us? We’re looking for forward thinkers who thrive in an international environment. We have openings across our various communities - Frontend, Backend, DevOps, UX/UI, Quality Assurance, Data &amp; Analytics, and Engineering Management. We can’t wait to meet you, drop us a message, and let’s chat! Job Type: InternshipContract length: 6 months Pay: Up to €500,00 per month Benefits:   Work from home  Schedule:   Day shift  Supplemental Pay:   Commission pay  Language:   English (Required)  Dutch (Required)  French (Preferred)  Work Location: Hybrid remote in 1050 Brussels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Title: Business Development &amp; Sales Manager          Location: Belgium          Job Type: Full-time                   Looking for an opportunity to channel your inner Business Development ninja?          Look no further. We are seeking a Business Development Manager who is passionate about the latest high-tech innovations in world leading companies, who can drive new business opportunities and manage the sales funnel end to end. Join our team and help shape the future of Caeleste, and beyond.                   Who We Are          Caeleste is a dynamic team of engineers, scientists and enthusiasts who develop exceptional CMOS image sensor solutions. Our collaborations with top global companies in the space, scientific, medical, industrial and life science industries result in extraordinary and innovative solutions that give them a competitive edge in their respective fields. Our expertise in designing and delivering high-speed, ultra-low noise, ultra-high dynamic range and extreme radiation-hard sensors make us a one-stop solution provider for our customers.          Join our team at Caeleste and experience the direct impact of your ideas and actions, regardless of your role or seniority. Our team is not only proud of their achievements, but also knows how to have fun.          Excitement awaits!                   What We Look For          As a Business Development Manager at Caeleste, you are responsible for generating new business by connecting with potential customers and translating their high-tech needs into successful projects. This includes identifying new leads, creating the business case, and driving qualified leads into signed proposals in collaboration with the engineering team. You will also be responsible for defining the go-to-market strategy and driving marketing activities. You will contribute to Caeleste's imaging offering in close collaboration with the engineering teams by mapping research and solution roadmaps to market needs. You will formulate business recommendations for the management team and report directly to the Business Development &amp; Sales Office Leader.                   You Are The Perfect Candidate If You                    have a technical Bachelor or Master's degree, combined with a strong business acumen,           share a customer-centric focus with the ability to identify and meet customer needs,           bring a track record of success in driving sales and business development in a high-tech B2B sector or have similar experience through managing customer facing projects,           show excellent interpersonal and communication skills to build and expand your professional network and confidently represent the company at conferences and trade shows,           demonstrate proficiency in effectively persuading peers on technical, legal and business-related matters,           enjoy traveling globally, to wherever business opportunities arise (between 10-30%),           are fluent in English.                            We'll be blown away if you also have:                    an understanding in the areas of CMOS technology, digital and analog design, test electronics, electro-optical instrumentation, photonics, etc.,           experience in the imaging technology market,           a good understanding of public funding mechanisms (local and European),           have a relevant network in the image sensor industry and/or in any of our target markets (industry, medical, space, life-science)           have experience with Business with Space Industry, e.g. with ESA or New Space.                            We Offer:                    a mandate to have a long-term impact in the successfully growing semiconductor company           competitive compensation and benefits package           a bonus in line with Caeleste's performance,           the opportunity to work on cutting-edge technology projects with world-leading companies,           a technological playground with a mixed-skilled, multi-cultural team of experts,           a flexible and dynamic work environment,           a continuous focus on learning at Caeleste University                            For application and questions, please contact us at jobs@caeleste.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Oxygen         The insurance industry is gasping for breath. The work environment is becoming increasingly digital, legislation is changing, clients expect more and the call for efficiency is getting more prominent. Our passionate team of experts offers an answer. Bringing oxygen and building the insurance industry of tomorrow : that’s what we’re all about!         We make impact by approaching industry challenges from different angles. We fill in project roles, support in day-to-day administration, provide total solutions and offer an answer to complex challenges by offering end-to-end automations.         At Oxygen, it’s all about people. We believe that passionate people with ambition can make the difference. Growth through the growth of people, that’s how it works.         What will you be doing?         As a business analyst you represent Oxygen at our clients. Together with the team you work on various projects, always with the aim of making the insurance sector more efficient and more customer-oriented.         You review existing processes and structures with a critical eye. You detect bottle necks and think about how these can be eliminated. Besides analyzing you also support in implementing new processes or optimizing existing procedures. To do so you form the bridge between business and IT and involve the different stakeholders throughout the process. In addition, you help facilitate changes in the organization and make sure that everyone embraces the transformation.         What can you expect?                  Building the insurance industry of tomorrow : challenging projects with impact          Growth through the growth of people : extensive training and development opportunities, training budget, personal coaching sessions, space to shape your own growth path,…          Join a scale-up in full development and with a strong personal approach          Broaden your horizons and choose a career full of variety : working for different insurers and brokers with a good reputation          Interesting remuneration package: competitive salary supplemented with company car, hospitalization insurance, pension plan, meal vouchers, bonus plan, expense allowances, …                          Who are you?                  A must: You recognize yourself in the Oxygen core values : Collaborative – Positive – Hands-on – Open-minded – Deliver          You have a first experience in a project role in the insurance industry (business analyst, project manager,…)          Analytical mind combined with strong communication skills          Someone who is flexible and can adapt quickly to new environments          Languages. You have good knowledge of Dutch and French                                                  Does this job appeal to you? Then don’t hesitate to apply and send an e-mail with your motivation and your CV to dieter.kennes@oxygen.be.                                                                             APPLY NOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know Club Med?   We have nearly 70 Resorts, open year-round in 26 countries. We offer luxury vacations in both mountain and seaside settings. Our clients seek happiness and freedom.   Why are you reading this job posting? Because you want to become a part of that extra something that sets us apart. You possess sought-after human and professional skills. We offer you the opportunity to develop and grow rapidly by joining our brilliant teams. You'll be able to travel the world.      Your Workspace   Welcome to the Alps, where our Exclusive Collection Chalets offer a unique working environment that blends luxury and practicality. Each chalet, with its elegant spaces and warm atmosphere, creates an unforgettable experience for our clients. Like our Chalet-apartments, these exclusive areas strengthen our relationships with our clients. Every detail is carefully thought out, from personalized welcomes to spaces designed by renowned designers, to enrich your daily life.   Your role is essential in providing memorable experiences, whether it's family moments or exclusive Club Med activities. Meanwhile, our kids' clubs take care of the little ones. Our working environment goes beyond conventional standards by combining luxury, well-being, and a unique experience. Additionally, we provide quality professional equipment for optimal working comfort. Our pioneering spirit encourages us to adopt innovations that enhance our teams' working comfort and allow them to focus on the essentials: the relationship with our clients.      You Are        Curious: You can share interests based on what others like. You are open to new ideas and have good general knowledge.   Attentive: You ask questions and listen carefully. You adjust your energy according to the situation, react sensitively, and show empathy.   Elegant: You communicate well and handle conversations with grace. You are authentic in both your communication and demeanor.   Charismatic: You have a natural and sincere presence. You inspire others by being yourself and remaining simple.   Proactive: You anticipate needs, overcome obstacles, and find solutions proactively. Autonomous: You work independently, make sound decisions without constant supervision, thus enhancing your efficiency and self-confidence.   Unifying: You effectively connect departments, mobilizing teams toward common goals, positioning yourself as a powerful driver for task accomplishment.     You Will        Ensure a worry-free stay in the Chalet and the resort by being the preferred point of contact for the client.   Carefully prepare the client's stay by highlighting included and à la carte services, as well as resort activities.   Facilitate the client's stay by coordinating the various services involved, ensuring the follow-up of all specific client requests, whether related to the Chalet or the Resort.   Ensure the quality of services offered to the client by verifying their compliance with established quality standards for Chalets.     By joining Club Med Exclusive Collection, you will experience a new kind of luxury. One that combines refinement, attention to detail, consideration for each of our clients with the kindness, simplicity, authenticity of relationships, and the legendary conviviality of Club Med. Luxury centered, above all, on humanity and experiences.      Club Med Exclusive Collection includes: 100% Club Med Exclusive Collection Resorts, Club Med Exclusive Collection Spaces in our 4 Trident Resorts, Villas, Chalets, and our legendary 5-masted sailboat.      All our positions are open to individuals with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Accenture     We are a leading partner to the world's major cloud providers, including AWS, Azure, and Google. The formation of Accenture Cloud First, with a $3 billion investment over three years, demonstrates our commitment to deliver greater value to our clients when they need it most. Our Cloud First multi-service group of more than 70,000 cloud professionals delivers a full stack of integrated cloud capabilities across data, edge, integrated infrastructure and applications, deep ecosystem skills, the culture of change along with deep industry expertise to shape, move, build and operate our Client's businesses in the cloud. To accelerate our customer's transformation by leveraging the cloud, we combine world-class learning and talent development expertise; deep experience in cloud change management; and cloud-ready operating models with a commitment to the responsible business by design — with security, data privacy, responsible use of artificial intelligence, sustainability and ethics and compliance built into the fundamental changes Accenture helps companies achieve.     Last year, Accenture acquired Sentia's businesses in the Netherlands, Belgium and Bulgaria to strengthen local infrastructure engineering and public cloud-managed services with 310 cloud specialists. The Sentia group is a leading cloud consulting company that manages private and public cloud migrations and provides digital experience monitoring services.     The Cloud Infrastructure Sales Specialist (Senior Manager) is focused on growing Accenture Cloud First Business in the public and private cloud domain and manages opportunities through all phases, including qualification, sales pursuit and close by applying deep sales process and offering expertise. Develop relationships &amp; engage in content-driven conversation with essential buyers and decision-makers at new and existing clients to solve their problems.     #LI-EU       Your profile      Minimum 5 years selling &amp; closing enterprise deals in the professional services space in one or more of the following areas: Infrastructure Outsourcing, Cloud enablement migration and modernization, Private or Public Cloud managed services    Minimum of 10 years of Sales Pursuit Management experience    Minimum of 5 years experience in direct sales with a quota of $10M+    Experience with C-Level client relationship building and relationship management    Strong understanding of cloud computing technologies and services, as well as the ability to explain complex technical concepts in a clear and straightforward manner to customers    Cloud certification in Azure, AWS or Google    A Degree in Computer Science, Engineering or Technical Science.       Bonus points if you have      Previous experience in conceptualizing, planning, and implementing cloud migration, modernization, cloud-native development, or cloud-managed services.    Industry experience in Banking, Insurance, Utilities, Telecom or Manufacturing.    Proven ability to operate within a team-oriented environment.    High energy level, decisiveness, and ability to work well in demanding environments.    Excellent communication (written and oral) and interpersonal skills.    Strong leadership, problem-solving, and decision-making abilities.       Our offer   At Accenture, we are committed to creating an inclusive and supportive workplace that values diversity and promotes growth for all. As you join our global company with a world-class brand and reputation, we want to assure you that you will be part of a vibrant, diverse workplace culture. We firmly believe in openness and honesty, fairness and equality, and we celebrate the unique contributions of every individual. We are dedicated to getting to know the real you and supporting your personal and professional growth, so you can excel in whatever you're great at. At Accenture, learning is a continuous journey, and we provide numerous learning opportunities, both formal and informal, to enhance your role-specific skills and expertise.   Beyond the impactful work we do for our clients and the nurturing work environment we provide, we offer a range of excellent employee benefits designed to cater to your diverse needs and well-being. These benefits include:      13th month + holiday allowance: Ensuring financial stability and recognition for your hard work.    20 + 12 holidays: Providing ample time to recharge and spend quality moments with loved ones.    Laptop and smartphone: Equipping you with the necessary tools to excel in your role, regardless of location.    Hospitalization insurance and extensive group insurance package: Prioritizing your health and well-being, so you can focus on what matters most.    Bonus program: Recognizing and rewarding your exceptional contributions to the team's success.    Training &amp; learning opportunities: Encouraging continuous growth and skill development to reach your full potential.    Green mobility program: Supporting environmentally-friendly commuting options like e-bikes, public transport, bike 2 work allowance, and more.    Flexrewards: Empowering you to customize your rewards package with our flexible benefits tool to suit your individual needs.    Discount program: Offering discounts at your favorite (online) shops, so you can enjoy life outside of work.    Employee shares purchase plan: Providing an opportunity to become a stakeholder in the company's success.    Eco-cheques: Promoting sustainable living and environmentally-conscious choices.    And many more!       At Accenture, we understand that a diverse and inclusive workplace fosters innovation, creativity, and a sense of belonging. We are committed to building a workforce that reflects the richness of the communities we serve. By offering these inclusive benefits, we aim to attract and retain talent from diverse backgrounds and create an environment where everyone can thrive and succeed together. Your unique experiences, perspectives, and talents are what make Accenture a great place to work, and we look forward to having you join our team and contribute to our shared success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job ID: 239756   Date posted: 22/07/2024 Who you are      '- You have an interest in interior design and the daily life of people's homes.         You already have several years of professional leadership experience and love working with people.    You have already proven to be a real problem solver and able to make decisions in a rapidly changing retail environment.    You are business-minded, results-oriented and focused on the customer.    You involve your colleagues and create commitment for your plans.    You continuously challenge your colleagues and yourself to exceed our customers' expectations and optimize the way we work.    You are energized by the IKEA values and they are a reflection of your own values.    You speak and write (one of) the store's regional languages and English.    You will gladly come to work on Saturdays in exchange for a day off during the week.      Your responsibilities      You will drive the commercial calendar both online and throughout the store to create vitality, encourage customers to visit us more often and to buy more. You will do all this in close collaboration with your colleagues and the local marketing manager.            You translate the store's business plan into a clear action plan for your department and implement the various actions. In this way you contribute to the positioning of the IKEA store as the leader for interior design in the local market.    You inspire, motivate and engage your team to achieve the goals and thus create long-term growth and profitability.    You motivate your fellow managers to take responsibility in achieving store vitality goals.    You react quickly to commercial opportunities, changes in stock availability and customer feedback.    You will focus on opportunities to drive impulse buying    You analyze the results delivered: identify successful activities, solutions and ideas and use this information in planning future actions.      Our team within IKEA      We are the ones meeting our customers – in our stores, online, in our catalogue and beyond. We have knowledge of the IKEA product range, local markets and customer needs and we constantly find new ways of making real connections with our customers to maximize sales and profitability. Together with thousands of colleagues around the world we’re a diverse team working for the continued global success of the IKEA Concept – a concept that helps millions of customers create a better everyday life!      Apply now!      At IKEA, we like to give you the space to take control of your own development and growth. We believe in entrepreneurship and initiative and want to make it easy for you. In the first few weeks/months, you will be offered a 5-step development plan to get you started, with enough personal space to create the learning moments you need.    We offer this structure and a supportive network of colleagues who will make sure you feel comfortable in this situation and give you time to learn, make mistakes and develop.       In addition to a competitive remuneration, we offer:            Eco-vouchers    End-of-year bonus, holiday pay and sector premiums    A commuting allowance with an additional allowance if you come by bike    Private leasing of an electric bike, we are happy to give you a boost    Comprehensive hospitalization insurance    A private accidents insurance    Pension savings    A leave savings plan: choose how you want your late/early hours (before 7h and as of 19h) to be paid out: a supplement on your salary or in holiday hours    We also offer extralegal holidays, seniority holidays and for full-time colleagues 6 extra days off    A canteen where you can eat delicious food at very democratic prices    IKEA Tack! Loyalty reward, an additional deposit into your retirement savings based on our global results and your loyalty to IKEA    ONE IKEA Bonus: an additional bonus based on your shop's results    IKEA Benefits at work: a portal offer you great discount for well-known stores and brands    IKEA staff discount 15% on all your purchases    Team outings &amp; staff parties, because togetherness is very important to us    A nice extra in case of legal cohabitation/marriage/birth/retirements to celebrate these beautiful moments    We offer you a schedule 6 weeks in advance to better plan your work-life. Our shops close at 8pm (Friday 9pm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Description   Our Mission   At Palo Alto Networks® everything starts and ends with our mission:   Being the cybersecurity partner of choice, protecting our digital way of life.   Our vision is a world where each day is safer and more secure than the one before. We are a company built on the foundation of challenging and disrupting the way things are done, and we’re looking for innovators who are as committed to shaping the future of cybersecurity as we are.   Our Approach to Work   We lead with flexibility and choice in all of our people programs. We have disrupted the traditional view that all employees have the same needs and wants. We offer personalization and offer our employees the opportunity to choose what works best for them as often as possible - from your wellbeing support to your growth and development, and beyond! Job Description   Your Career   Our Commercial Sales Team is an important driver of company revenue and growth. As an experienced and dynamic sales professional, you will be responsible for leading and driving sales engagements into assigned commercial accounts. In this role, you are motivated by the desire to solve critical challenges facing our customer’s secure environment, so you’re prepared to connect them with a solution for every stage of threat prevention.   You will be responsible for meeting and exceeding your quota by crafting and implementing strategic and tactical sales plans targeting deployments of the Palo Alto Networks Next-Generation Security Platform. This is a unique opportunity for a closer with a self-starter mentality to win business and market share by actively displacing competing technologies and further improving the security posture of existing customers. Oh, and did you say you love to sell? Because selling is what gets you out of bed every morning. This is not just a career – it’s a meaningful challenge that impacts our lives in the digital age.   Your Impact      Prospect and sell into assigned commercial accounts, create and execute a robust sales strategy to penetrate into new accounts and expand into existing accounts    Be the primary sales driver, managing a sales pipeline to deliver to quarterly/annual quota    Strong discipline around managing sales stages and SFDC hygiene    Deliver accurate weekly and quarterly forecast    Stay updated on industry news and trends, and how they affect Palo Alto Networks products and services    Communicate value propositions to clients and partners that speak intimately to their needs and requirements    Generate velocity to deliver a predictable book of business and drive forecast accuracy utilizing channel ecosystem    Develop and deploy marketing activities and plans to end users through our channel sales partners    Engage a programmatic approach to demand, to generate, develop, and expand your territory    Work collaboratively with all cross-functional resources to achieve your quota - inside sales, channel systems engineering, field marketing, cybersecurity sales specialists, the services team, sales ops (including deal desk and the response team), and others      Qualifications   Your Experience      Proven track record of success in achieving sales quotas    Experience working with channel partners and understanding of a channel-centric go-to-market strategy    Have and able to lead all aspects of the sales cycle with the ability to uncover, qualify, develop, and close new, white-space territories and accounts    Technical aptitude for understanding how technology products and solutions solve business problems    Excellent time management skills, and work with high levels of autonomy and self-direction    Proficiency in French and/or Dutch language skills      Additional Information   The Team   Our sales team members work hand-in-hand with large organizations around the world to keep their digital environments protected. We educate, inspire, and empower our potential clients in their journey to security.   As part of our sales team, you are empowered with unmatched systems and tools, constantly updated research and sales libraries, and a team built on joint success. You won’t find someone at Palo Alto Networks that isn’t committed to your success – with everyone pitching in to assist when it comes to solutions selling, learning, and development. As a member of our sales team, you are motivated by a solutions-focused sales environment and find fulfillment in working with clients to resolve incredibly complex cyberthreats.   Our Commitment  We’re trailblazers that dream big, take risks, and challenge cybersecurity’s status quo. It’s simple: we can’t accomplish our mission without diverse teams innovating, together.  We are committed to providing reasonable accommodations for all qualified individuals with a disability. If you require assistance or accommodation due to a disability or special need, please contact us at accommodations@paloaltonetworks.com.  Palo Alto Networks is an equal opportunity employer. We celebrate diversity in our workplace, and all qualified applicants will receive consideration for employment without regard to age, ancestry, color, family or medical care leave, gender identity or expression, genetic information, marital status, medical condition, national origin, physical or mental disability, political affiliation, protected veteran status, race, religion, sex (including pregnancy), sexual orientation, or other legally protected characteristics.   All your information will be kept confidential according to EEO guidelines.     Please note that we will not sponsor applicants for work visas for this position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Wintercircus:Wintercircus is a dynamic tech hub and innovation ecosystem located in the iconic building in Ghent. Home to over 300 residents, including early-stage tech startups, Wintercircus offers a vibrant space where work, collaboration, and creativity thrive. With its startup campus, cool bars, cozy eating spaces, and art experiences, Wintercircus is a place to connect, unwind, and recharge. Job description:We are seeking a talented and creative designer to join our team. As a Designer, you will create visually compelling designs that convey our brand's vision and values to different audiences. Your responsibilities include developing graphics for digital, print media, and on-site assets. You'll collaborate with various teams to ensure our visual communications are consistent and engaging. Key responsibilities: Visual design:   Create visually appealing graphics for digital platforms, including websites, social media, and email campaigns.  Design print materials such as brochures, flyers, posters, and event collateral.  Brand identity:   Ensure consistency in Wintercircus' visual identity across all design projects.  Develop and maintain brand guidelines to support a cohesive look and feel.  Collaborative projects:   Work closely with the marketing, events, and startup teams to understand project requirements and deliver high-quality designs.  Participate in brainstorming sessions to generate creative ideas and concepts.  UI design:   Assist our dev team in creating intuitive and user-friendly interfaces for web and mobile applications.  Conduct user research and gather feedback to improve design solutions.  New media and installations:   Create custom illustrations and multimedia content to enhance visual storytelling.  Assist the team in producing &amp; editing videos, animations, and interactive content as needed.  Community engagement:   Create engaging designs to support the social media team in promoting Wintercircus activities.  Develop visual content for music, art, and technology events to enhance community interaction.  Qualifications and skills:   Proven experience as an interactive designer, preferably in a similar setting.  Strong portfolio showcasing a variety of design projects and styles.  Proficiency in design software such as Adobe Creative Suite (Illustrator, Photoshop, InDesign, etc.), Figma, and Canva.  Excellent understanding of typography, color theory, and layout design.  Strong communication and interpersonal skills, with the ability to collaborate effectively with diverse teams.  Creative thinker with a keen eye for detail and a problem-solving mindset.  Ability to manage multiple projects simultaneously and meet deadlines.  Knowledge of print production processes and requirements.  3D design, editing, and film capabilities are nice to have.  An interest in music, art, AI, technology, and urban culture is a big plus.  Why join Wintercircus?Wintercircus provides a unique opportunity to work in an iconic building filled with rich history that triggers inspiration. Backed by top entrepreneurs and renowned knowledge institutions, Wintercircus offers you an exciting network, personal development, and lots of fun. It’s a spot where your creative talents and ambitions are encouraged and nurtured. Join us in our mission to create a vibrant, interdisciplinary community for changemakers. To apply, please submit your resume and a portfolio of your work, and send us a short message detailing how you can contribute to our creative team. Dienstverband: Voltijds Werklocatie: Fysiek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About us    The Interchain Foundation stewards a vast ecosystem of decentralized technologies. We develop and maintain foundational protocols, and fund organizations to create an internet of shared resources, security, and value creation. Through our grants, investments, and ecosystem stewardship, we are shaping a new technological paradigm that is open-source, interoperable, and community-owned.    About the role    As Managing Director of the Interchain Foundation, you will step into the heart of a vibrant and innovative environment, using your influence and vision to guide the strategic direction and culture of our cutting-edge open-source ecosystem.  The Interchain Foundation is a dynamic organization, leveraging a distributed development environment to deliver state-of-the-art open-source software for building blockchains while fostering a thriving community of builders.  Our core mission is to support the development and adoption of the Interchain Stack. You will lead a Board of Management composed (today) of a Chief Product Officer and Chief Marketing Officer, and report to a Board of Directors. You will oversee the operations of the ICF and its subsidiaries, Interchain AG and Interchain GmbH, which together consist of 25 employees across key functions such as Finance, Marketing, Product, Developer Relations, and Operations.  In addition to our internal teams, you will collaborate closely with external development teams responsible for maintaining different components of the Interchain Stack. These teams, which we refer to as stewards, manage specific parts of the software stack such as IBC, CometBFT, the SDK, and CosmWasm, while also operating their own businesses within the crypto space.  The Interchain Foundation has an annual operating budget of approximately $40 million and a total treasury of roughly $300 million. This is an exciting opportunity for a visionary leader who thrives in innovative environments and is eager to take on the challenge of steering an impactful organization at the cutting edge. We are looking for someone with a proven ability to navigate complexity, forge strategies from diverse viewpoints and inputs, and make a significant long-term impact.  This person excels at recognizing opportunities that others may miss and securing buy-in from a wide range of stakeholders. They are committed to maximizing value for the organization and the ecosystem, knowing when to empower others and when to take the lead themselves. They understand that their legacy will be defined by creating sustainable and resilient structures.  This transformative leader will enhance good teams by recognizing and building on their strengths. Ultimately, this person is comfortable being the face of the organization, leading by example and embodying the values that will shape our culture.     Your responsibilities will be:       With guidance and support of the Foundation Council, set the strategic direction for the Interchain Foundation, ensuring alignment with the broader goals of the ecosystem.    Lead and manage the Interchain Foundation, executing on the strategy you set above, fostering a culture of collaboration, innovation, and impact.    Work within the interchain beyond the Interchain Foundation, interfacing and collaborating with diverse, distributed participants in the ecosystem and beyond.    Cultivate and expand the interchain community, attracting developers, builders, and users.    Drive the growth and adoption of the interchain.    Build strong narrative and strategic alignment through public appearances — with a consistent focus on the strategy you’ve set     Ideal but not prerequisite qualifications:       Deep experience in complex environments (dynamism of open source, and coordinating across diverse &amp; distributed stakeholders).    Comfortable with soft influence (not a BDFL type).    Proven experience fostering strategic alignment with a board.      Who you are:       Proven experience in leadership roles at an organization that successfully delivered a product to market, preferably within open-source software, or a similar environment managing multiple engineering projects in parallel with varied, complex dependencies.    Interest (and understanding) of the crypto industry at large.    Embody the values of free and open source software.    Able to see the big picture and deftly understand the interplay of a complex ecosystem.    Strong interpersonal and communication skills, committed to collaboration and community engagement.    Capable of articulating a compelling long-term vision and inspiring others to rally around it.    Capable of making tough decisions, and knowing when and how to decide; capable of disagreeing but committing when compromise is necessary.    Puts the mission and the team first, and oneself second.    Located in or able to relocate to Switzerland.     Is a plus:      Already domiciled in Switzerland, or admission to an EU country via residency.      Not sure if you're a fit? Please feel free to apply anyways, and we'll take it from there.  Interchain believes that great people come from a broad range of backgrounds, and that the diversity of our team is one of our strengths. Discriminatory behavior has no place at Interchain—we do not discriminate on the basis of race, colour, gender, gender identity, national origin, age, religion, disability, or sexual orientation. We are committed to fighting bias in our workplace and our communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapsch TrafficCom develops smart solutions to make mobility safer, more sustainable and efficient for everybody. We design, build and operate traffic management systems including connected vehicles technology and mobility demand management as well as tolling services for cities, roads, tunnels and bridges around the world. We develop data and video analytics platforms, building on state-of-the-art technologies including AI, machine learning, big data and cloud services to enable the digitalization of mobility.                    Your Responsibilities              You translate complex requirements into functional, secure, reliable, serviceable and cost-effective architectures and designs.        Design a System Architecture for data centers (DC), LAN and WAN for specific projects be it on premises or in the cloud        Support international bids with the elaboration of operational concepts and cost calculation        Interact with our system integrators for ascertaining that your system architecture intention is fully understood, check and release their low level designs        You work closely with supply chain to get optimized commercial offers from vendors, integrators and operational partners        Control the project implementation costs for DC &amp; WAN and interact with our other solution specialists to build a large and complex system        Support the operations teams of production systems with your knowledge of the systems architecture        You build and lead a community of practice by driving active knowledge and best-practice sharing             Your profile              You bring a high sense of commercial awareness, balancing between technological rich and commercially feasible architectures and designs        You know your way around all architecture patterns, be these RPO=0 systems or lambda architectures or cloud implementation (SaaS and PaaS) of current software stacks        You have a profound knowledge of current IT technologies, be this virtualization, heterogenous database landscapes, microservice architectures or SaaS strategies or what else is currently in vogue        You know the existing vendor landscape well and keep monitoring their current and future offerings and products        You have a passion for mentoring and sharing your knowledge and passion with others        You have the ability to talk to C-level and engineers alike.        A structured and independent way of working with excellent communication skills        Willingness to travel (up to 25%) and work in international teams        Fluent in English verbally and writing             Our offer:              You you will be part of an exciting endeavor in an international company with European roots        We have a unique corporate culture, driven by family tradition since 1892. We strive to create a work environment conducive to personal growth, satisfaction and achievement.        A hands-on onboarding with an experienced team to get familiar with the business and domain-related processes        Possibility to participate in regular trainings (technical and personal development)        Space for creating innovative solutions and ideas within a professional team practicing Agile methodologies        Social benefits of a modern company, e.g. Homeoffice, mobile devices, flexible working hours, operating restaurants, meal discount, bridge day regulation etc.        Working in our Global Services ambitioned team, brave to try out new technologies        A market-compatible gross salary of € 70.000 p.a. – which can be adapted according to your qualification and relevant experience             Kapsch is proud to be an equal opportunity employer. We attach great importance to a balance in the diversity of our employees. Therefore we welcome all applications without regard to gender, age, religious beliefs/ideology, sexual orientation, ethnicity or national origin.       Your contact person for this position: Tatiana Rezan-Sirotinskis. T: +43 50 811 1906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terma is a leading provider of mission-critical solutions for the defense and aerospace industry, dedicated to delivering security for nations, allies, and individuals. We operate across various sectors, with security being a central focus. Our advanced technologies are designed to ensure the safety of people during both peaceful and conflict situations. Our systems offer security on land, at sea, and in the air. Terma places a strong emphasis on diversity, fostering an environment that brings together individuals with different cultural and professional backgrounds who are passionate about what they do. Your new Role Join our dynamic team responsible for the Manufacturing, Assembly, Integration, and Test (MAIT) of satellite test equipment. As a Warehouse Operations Specialist, you will play a pivotal role in logistical support and front office reception. Key Responsibilities:   Manage warehouse operations including booking in and out, replenishment, and reorders.  Conduct incoming inspections, verifying ordered components and document scanning.  Handle shipping of packages and containers, including parts list creation and coordinating delivery notes and transport.  Provide reception support, welcoming guests, managing check-ins and check-outs, and maintaining access control.  Requirements:   Apprenticeship qualification in work areas like logistics, warehouse management, office administration, or related fields.  Proficiency in any warehouse management systems is beneficial;  experience in parcel delivery is advantageous.  Excellent problem-solving skills and adaptability to new challenges.    Fluent in both German and English, with good verbal and written communication skills.  Strong team player with excellent communication skills.What We Offer:    A collaborative and innovative work environment that encourages creativity and personal growth.  Opportunities for professional development and continuous learning.  Competitive salary and comprehensive benefits package.  Why Terma? We are an international company representing world class expertise, delivering complex and high-tech products. We value our colleagues and our meaningful contributions to securing people through advanced technology. During your onboarding in Terma you can expect a thorough introduction and training in our systems and processes, as well as a strong focus on teaching you useful new competences and further strengthening current ones, both professionally and personally. Our company culture is autonomous and engaging, and we acknowledge the importance of flexibility in a great working environment. On our different locations, we offer various social activities to bring all our colleagues together. For further information, please contact Mrs. Raluca Moise by telephone [+49 6151 860050] or by email [ta.space@terma.com]. We look forward receiving your application and CV. To ensure that your application reaches us and is properly processed, please upload your application and CV via our recruitment system. Please use the Apply-button below. Based on full employment we offer you a yearly gross salary of 37.000 Euro (collectively agreed minimum salary - overpayment possible) depending on your qualification and experience. The high-tech and innovative Terma Group develops products and systems for defense, non-defense and security applications, including command and control systems, radar systems, self-protection systems for aircraft and vessels, space technology, and aerostructures for the aircraft industry. Terma is headquartered at Aarhus, Denmark. Internationally, Terma has subsidiaries and operations in The Netherlands, Germany, France, United Kingdom, Austria, Czech Republic, Romania United Arab Emirates, India, Singapore, and the U.S. The Space Business Area contributes with mission-customized software and hardware products including power systems and star trackers as well as services to support several in-orbit pioneering European scientific and Earth observation satellite missions. Additionally, Terma is contracted for the development and delivery of software and hardware systems and services for numerous ongoing and future European, and international missions. Terma Space operates out of Denmark, The Netherlands, Germany, France, the UK, Austria, Czech Republic, and Romania. Lager Logistiker (M/W/D), Österreich, Wien Terma ist spezialisiert auf die Bereitstellung missionskritischer Lösungen für die Verteidigungs- und Luft- und Raumfahrtindustrie. Unser Hauptziel ist es, Sicherheit für Länder, Verbündete und Einzelpersonen zu gewährleisten. Wir sind branchenübergreifend tätig, wobei Sicherheit im Mittelpunkt steht. Unsere fortschrittlichen Technologien sind darauf ausgelegt, die Sicherheit der Menschen sowohl in friedlichen als auch in Konfliktsituationen zu gewährleisten. Unsere Systeme bieten Sicherheit an Land, auf See und in der Luft. Terma legt großen Wert auf Vielfalt und fördert ein Umfeld, das Menschen mit unterschiedlichem kulturellen und beruflichen Hintergrund zusammenbringt, die mit Leidenschaft bei der Sache sind. Ihre neue Rolle Sie sind hauptsächlich für logistische Belange und die Unterstützung in unserem Frontoffice/Rezeption zuständig. Sie werden Teil des hochdynamischen Teams, das für MAIT (Herstellung, Montage, Integration und Test) von Satellitentestgeräten verantwortlich ist. Hauptverantwortlichkeiten:   Verwaltung des Lagers (Ein- und Ausbuchungen, Auffüllen des Lagers sowie eventuelle Nachbestellungen etc.)  Eingangskontrolle (Prüfung bestellter Bauteile, Scannen von Dokumenten)  Versand von Paketen und Containern (Erstellen von Stücklisten, Anfordern von Lieferscheinen und Transport)  Rezeptionsunterstützung (Begrüßung, Check-in und Check-out der Gäste, Zugangskontrolle usw.)  Anforderungen:   Lehrabschluss in einem der Bereiche Logistik, Lager, Büro, Verwaltung o. ä.  Kenntnisse in der Lagerverwaltung wären von Vorteil.  Hervorragende Fähigkeiten zur Problemlösung, flexible Herangehensweise an unerwartete Situationen und Herausforderungen.  Fließende Deutsch- und Englischkenntnisse in Wort und Schrift  Starke Kommunikationsfähigkeiten und die Fähigkeit, in einer teamorientierten Umgebung zusammenzuarbeiten  Was wir anbieten:   Ein kollaboratives und innovatives Arbeitsumfeld, das Kreativität und persönliches Wachstum fördert.  Möglichkeiten zur beruflichen Weiterentwicklung und zum kontinuierlichen Lernen.  Wettbewerbsfähiges Gehalt und umfassendes Leistungspaket.  Warum Terma? Wir sind ein internationales Unternehmen, das erstklassiges Fachwissen vertritt und komplexe und hochtechnologische Produkte liefert. Wir schätzen unsere Kollegen und unseren sinnvollen Beitrag zur Sicherheit von Menschen durch fortschrittliche Technologie. Während Ihres Onboardings bei Terma erwartet Sie eine gründliche Einführung und Schulung in unsere Systeme und Prozesse sowie ein starker Fokus darauf, Ihnen nützliche neue Kompetenzen zu vermitteln und bestehende Kompetenzen weiter zu stärken, sowohl beruflich als auch persönlich. Unsere Unternehmenskultur ist autonom und engagiert und wir wissen, wie wichtig Flexibilität in einem großartigen Arbeitsumfeld ist. An unseren verschiedenen Standorten bieten wir verschiedene soziale Aktivitäten an, um alle unsere Kollegen zusammenzubringen. Für weitere Informationen kontaktieren Sie bitte Frau Raluca Moise telefonisch [+49 6151 860050] oder per E-Mail [ta.space@terma.com]. Wir freuen uns auf Ihre Bewerbung und Ihren Lebenslauf. Um sicherzustellen, dass Ihre Bewerbung uns erreicht und ordnungsgemäß bearbeitet wird, laden Sie bitte Ihre Bewerbung und Ihren Lebenslauf über unser Rekrutierungssystem hoch. Bitte nutzen Sie den unten stehenden „Bewerben“-Button. Bei Vollbeschäftigung bieten wir Ihnen abhängig von Ihrer Qualifikation und Erfahrung ein Jahresbruttogehalt von 37.000 Euro (kollektivvertragliches Mindestgehalt – Überzahlung möglich). Die hochtechnologische und innovative Terma-Gruppe entwickelt Produkte und Systeme für Verteidigungs-, Nichtverteidigungs- und Sicherheitsanwendungen, darunter Befehls- und Kontrollsysteme, Radarsysteme, Selbstschutzsysteme für Flugzeuge und Schiffe, Raumfahrttechnik und Flugzeugstrukturen für die Flugzeugindustrie. Terma hat seinen Hauptsitz in Aarhus, Dänemark. International verfügt Terma über Tochtergesellschaften und Niederlassungen in den Niederlanden, Deutschland, Frankreich, Großbritannien, Österreich, der Tschechischen Republik, Rumänien, den Vereinigten Arabischen Emiraten, Indien, Singapur und den USA. Der Geschäftsbereich Raumfahrt trägt mit auf Missionen zugeschnittenen Software- und Hardwareprodukten, einschließlich Stromversorgungssystemen und Sternverfolgungssystemen, sowie Dienstleistungen zur Unterstützung mehrerer wegweisender europäischer wissenschaftlicher und Erdbeobachtungssatellitenmissionen im Orbit bei. Darüber hinaus ist Terma mit der Entwicklung und Lieferung von Software- und Hardwaresystemen und Dienstleistungen für zahlreiche laufende und zukünftige europäische und internationale Missionen beauftragt. Terma Space operiert von Dänemark, den Niederlanden, Deutschland, Frankreich, Großbritannien, Österreich, der Tschechischen Republik und Rumänien aus. Application deadline:As soon as possible Job Type: Full-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your assignment:      You ensure that our space instruments can be assembled, aligned and tested according to the specifications.    You are responsible for the test- &amp; assembly procedures and consult with the design office for the development of tools (hard-&amp; software) for our space projects.    You take care of the Assembly, Integration and Tests of our space projects (ao in the cleanroom).    You support quality reviews and Root Cause Analysis.    You participate in test campaigns, responsible for all assembly related issues during the test campaign.    You document and Report progress with internal and external partners.    You ensure that test instruments and facilities are in accordance to requirements for existing and upcoming projects.    You standardize maintenance and calibration routines and document equipment and facilities.     Your profile:      You have a degree in Industrial Engineering, Aerospace Engineering,… and/or relevant technical experience in aerospace sector.    You are familiar with a high-tech working environment.    You are quality minded and work very accurately.    You fluently speak and write English.     We offer you:      The possibility to take part in the development of high technological products.    Employment in an enthusiastic team driven by new technology.    A competitive salary, supplemented with interesting extra-legal benefits (group and hospitalisation insurance, meal vouchers, internet allowance, and lots of learning possibilities).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our cities are changing. The shift towards sustainable mobility coupled with an ever increasing density is shaping the new urban landscape. Key challenges are arising such as:      How can we free-up space in our streets and give it back to pedestrians and cyclists without ignoring the impact on drivers?    How can we enable the electrification of vehicles with the suitable charging infrastructure?    Where should all the bicycles, cargo bikes, and scooters go at the end of the ride?     BePark aims to provide a better mobility experience to this generation and the next. In short, we hunt for unused private parkings and open them to the crowd for various uses: car park (keeping cars off-street), bicycles, EV charging, Last-mile delivery...   Our goal is ultimately to generate a network of mobility hubs throughout cities in France, Belgium and Luxembourg.   Today we are a team of 25 delivering mobility services across 500 parking lots for our community of 16k active users. Let's grow this network together !   Requirements   As a Sales Development Representative, you will integrate the B2B sales team focused on corporate users. Parking can be a real headache for companies, and your job is to find the right solution fitting their specific challenge. BePark can provide corporates with external parking solutions, flexible contracts and software solutions to better manage their parking usage and implement their own mobility policy at the parking level.   Your main responsibility is to hunt for new prospects in pain, understand their situation and bring them to a discussion with an Account Executive with whom you work in perfect pairs!   About you      You are fluent in French and proficient in Dutch ( mandatory)    You enjoy social contact and meeting new people    You are solution-oriented and proactive, with an entrepreneurial mindset    You are customer-centric, obsessed with your clients’ pains to generate leads    You show resilience in your contacts with prospects and be extremely attentive    You are organized, rigorous and independent in your work     Benefits      Competitive package, in line with your sales performance (we do not cap commissions)    Work with top-tier tools (CRM, Automated prospection, Project Management tools)    Build/Develop a deep knowledge of Mobility and Real Estate sectors    Be a part of a young, innovative and fast growing SME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITO develops technology to facilitate the transition to a more sustainable society and economy. One of the key technologies applied in this context is Remote Sensing. With the increasing number of satellites, drones, processing facilities and technologies like artificial intelligence, the opportunities with remote sensing are larger than ever.             Meanwhile the Remote Sensing team of VITO counts more than 100 motivated scientists, IT engineers and project managers. To facilitate the growth of our ambitions we are looking for an extra colleague, more specifically a Business Developer with focus on the institutional market.             Your tasks:              You will be full time employed as Business Developer in VITO’s Remote Sensing team. This means that you will scout opportunities in the institutional market. The main clients will be European Institutes like the European Commission, EC’s Joint Research Institute, the European Space Agency, the European Centre for Medium-Range Weather Forecasts, the European Environment Agency, etc. While the focus will be on these European clients, also international Clients like the United Nations might be targeted.        You will scout interesting opportunities that fit our strategy and goals and manage the entire bid process.        You don’t have to be an expert in remote sensing, GIS or data science. But a sound understanding of these domains and knowledge of the ecosystem in which we operate is a strong asset.        Outside VITO you will communicate frequently with clients and partners. Hence, excellent writing and presenting skills are key.                                                 You hold a Master or PhD degree related to bioscience engineering, engineering science, or environmental sciences;       You have proven knowledge and expertise in the management of large tenders, involving many partners. Experience in all core bid duties like consortium building, financial negotiation, strategy development, and coordination of the writing;       Knowledge of the European funding landscape is key;       A project management certificate is an asset but not a strict requirement;       You have strong customer focus and you are a born negotiator;       You have the ability to make decisions, act on your own initiative and operate in a pro-active way;       You have excellent writing and presentation skills in English.                Offer            We work 'activity-based', our activities bring us to our location. Our headquarter is in Mol. Hybrid work arrangements and/or working in a satellite office in Antwerp-Berchem, Ghent, Ostend or Genk is possible.       A competitive salary with a range of benefits, including allowances, insurance and a modular package of holidays.       Innovation is our asset, so it goes without saying that we give our employees the opportunity to take additional training courses and stay up-to-date in their field. You will always have the opportunity to broaden your knowledge and discover new technologies.       You will have the opportunity to be part of an organization with an international reputation, known for its cutting-edge technological research and scientific consultancy.       With us, you will contribute directly to sustainable developments at local, national and global level through your innovative applications. You provide answers to contemporary societal challenges.       Moreover, we highly value a good work-life balance at VITO! This is achieved by adopting a flexible attitude depending on your specific needs.            Are you the experienced, highly motivated candidate we are looking for? Don't hesitate and apply now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Antwerp Space    Antwerp Space is a leading Belgian space engineering company and an industrial player well-recognized by the European Space Agency and the European Commission. Antwerp Space has an established presence in the European space market and in several cases is taking the lead in technically complex space projects, supported by a consortium of partners from all over Europe.    The company employs around 50 highly skilled engineers and technicians from all over the world, the majority of whom hold an engineering degree, with strong expertise in the areas of digital signal processing, hardware and software design, as well as in project management and technical leadership.    OHB SE Group    Antwerp Space is part of the OHB SE group, one of Europe’s success stories in the field of contemporary space. Today it can call itself the third largest space group in Europe.    The OHB SE group has been growing at a steady pace over the last three decades and its footprint in Europe has continuously expanded. Nowadays, there are subsidiaries in Austria, Germany, Italy, Sweden, Luxembourg, Greece, the Czech Republic and Belgium. Despite its size, OHB SE is still a family business, run by the Fuchs family.    Who are we looking for?   Required technical competences      Master’s degree in Electronics, Space Engineering, or equivalent expertise.    At least 2 years of relevant work experience in the aerospace sector.    Eligible to obtain a National and EU security clearance is mandatory.    Proficiency in LabVIEW and Python development is essential.    Basic understanding and a high interest in digital communications theory and signal processing in the RF communications domain.    Basic understanding and a high interest in Global Navigation Satellite Systems (GNSS).    Basic knowledge of electronics (schematics, EMI, testability)    Ideally some experience with RF test equipment such as a spectrum analyzer, signal generator, power meter, etc.    Your home base location allows working on a regular basis at the Hoboken office and sporadic at the Leuven office.    Occasional business trips mean a welcome change from your daily work.     Expected soft skills      Open-minded towards new ideas and willing to learn    Effective interpersonal and teamwork skills    Strong analysis and problem-solving skills    Good verbal and written communication skills in English (mandatory)     Where do you fit in?    The AIT team is responsible for assembly, integration and verification of the challenging communication and navigation products of Antwerp Space. Within the AIT team, you are mainly responsible for the verification of the RF products. Product testability starts with the requirements definition followed by model philosophy, test bench design, AIV plan and procedures and finally the performance and compatibility verification. You will work closely with all the engineering teams, product assurance, and our international customers. As a member of the Antwerp Space AIT team, you will contribute to the many fascinating international satellite communication and navigation projects.  Your main responsibilities will be:       Developing test benches for RF communication and navigation products    Work closely with all the engineering teams to design an efficient system architecture and bring new products from prototype to production, with a strong focus on testability.    Shape the technical requirements and define the test strategy for our projects.    Take ownership of all test related documents, test execution and post processing of the results.    Conduct environmental compatibility verification (Thermal vacuum, EMC, Vibration, Shock) of the RF products, including testing at external facilities in Europe.    Verify interfaces typical to space products, such as MIL-STD-1533, Space Wire, SPI, RS422.    Engage in hands-on debugging and testing within our labs.    Utilize high-end RF test equipment, such as a spectrum analyzer, signal generator, power meter, and constellation simulator.     What we can offer you?       A multicultural environment. You’ll be working in an international environment with colleagues from all over the world.    A strong corporate culture. Our company is based on strong values: respect, trust, personal development and well-being.    Professional development. You’ll get the chance to learn, to share your expertise, to develop your skills and contribute to high-level, international projects in a high-tech environment.    Salary package. A very attractive salary package including numerous fringe benefits. The main job location is Hoboken, though, short-term missions abroad are part of this challenging job environment.     Come and explore Antwerp Space    At Antwerp Space we treasure our human capital. From the moment you get on board until retirement, we will be at your side to make sure you feel at home and you get the chance to travel all the way through Antwerp Space, developing yourself and growing together.    As a company with a passion for innovation we want to create a dynamic, open and enriching environment for people, where people are passionate about their work and exchange ideas &amp; expertise.    Moreover, we understand the need for a healthy working environment and we focus on the employee’s well-being, offering amongst others fruit@work, ergonomic advice and many other initiatives. We also focus on a good work-life balance, offering flexible working hours and additional holidays. Each year a number of events are organized to emphasize that it is important to have fun, relax and create a good team spirit.    Eager to join us? Get in touch!    Apply now by clicking the Apply button below and send us your motivation letter and CV. We will be get back to you soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Joint Venture between Thales (67%) and Leonardo (33%), Thales Alenia Space is a global space manufacturer delivering, for more than 40 years, high-tech solutions for telecommunications, navigation, Earth Observation, environmental management, exploration, science and orbital infrastructures. Thanks to our diversity of skills, talents and cultures, our customers (governments, institutions, space agencies, telecommunications operators), therefore have Space to Connect, Secure &amp; Defend, Observe &amp; Protect, Explore, Travel &amp; Navigate.     We say HI* ̶ Welcome to the Thales team!     Human Intelligence     Thales in Switzerland is part of a world-leading technology group in the area of Defense &amp; Security, Training &amp; Simulation, Space and Digital Identity &amp; Security. In a world full of uncertainties, we ensure that our customers, partners and employees can break new ground with confidence and in security. For a future we can all trust.     Say HI* to your career as a   PCB Layouter/Hardware Solution Engineer 80-100% (m/f/d)   in Zürich #LI-HYBRID (Ref. Nr. R0231121)     In Zurich awaits you a center of excellence for optical, quantum-based communications and opto-electronic observation and communication systems used in satellite and space technology. This is the place for you if you don't just dream of space travel, but want to work on the development, operation and deployment of satellite-based systems that help position and connect everything and everyone everywhere, observe our planet and optimize the use of Earth's resources - and of our solar system. Join the team of experts at Thales Alenia Space, a key partner for governments, institutions and businesses. We look forward to meeting you!     Your mission     As PCB Layouter/Hardware Solution Engineer role at Thales Alenia Space, you will:      Layout of printed circuit boards (PCB) including component placement and signal routing for space applications, prototypes and test equipment    Layout of printed circuit board (PCB) for circuit card assemblies (CCA) according to ECSS/MIL/IPC standards    Close collaboration with design engineers    Maintenance of component library    Capture schematics symbols and footprints for EEE components    Documentation of the activities and results    Generation and release of manufacturing files including assembly drawings, Gerber files and parts lists    Participation in internal and external design reviews    Interdisciplinary collaboration with mechanical, thermal and test engineering    Ability to follow internal design guidelines and contribution for continuous improvement       We look forward to that      Technical education (university degree) in electrical engineering or similar    Practical experience in PCB layout for electronics hardware (minimum 5 years industry experience)    Experience with PCB layout of rigid, flex, rigid-flex and similar PCB technologies    Experience in PCB design for analog, digital, mixed-signal and power conversion (applications like control boards, power converters, communication electronics)    Experience in Design for Testing (DfT) and Design for Manufacturing (DfM)    Good knowledge of eCAD design tools like Mentor Graphics Xpedition    Experience with RF design, signal and power integrity simulation is an advantage    Fluent in English, German (spoken) and/or French is an advantage    Experience with SAP is an advantage    Good team player also within interdisciplinary teams    Strong communication and collaboration skills    A structured, methodical working method    Ability to proactively find solutions       What awaits you at our location in Zurich   For our 77,000 employees in 68 countries, we open up forward-looking perspectives, realize individual career paths and enable creative freedom. We achieve this through courage, diversity, and the determination to make the demanding challenges of our time safer and more inclusive. With our sustainable, value-oriented employee management, we actively advocate diversity.     Say HI* – Your way to us   When the writing is on the wall, our international teams are there to tackle today's complexity with tomorrow's industry-leading technologies. Are you in? Your contact Frederic Martin is looking forward to receiving your online application via our career portal.     Frederic Martin   Talent Acquisition Partner   #LI-FM1     Notice for recruitment agencies:   Unfortunately, due to unforeseen circumstances, we regret to inform you that the CVs submitted by recruitment agencies are not processed. We will take into consideration only the CVs submitted by the candidates.   We appreciate your understanding to Thales recruitment processes.   At Thales Alenia Space we provide CAREERS and not only jobs. With Thales Alenia Space employing around 8,900 employees in 10 countries with 17 sites in Europe and a plant in the US, our mobility policy enables employees each year to develop their careers at home and abroad. Thales Alenia Space sees space as a new horizon, helping to build a better, more sustainable life on Earth #SpaceForLife. Great journeys start here, apply now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLM PROJECT MANAGER (f/m/d)  PLM PROJECT MANAGER (f/m/d) : CAx/ custom engineering tools/ international matrix organization/Stakeholder Management / Communication skills / English/German/French  Project: For our customer based in Zurich we are looking for a highly qualified PLM PROJECT MANAGER (f/m/d).  Background: Our Client, headquartered in Zurich, Switzerland, is the first startup to combine agility, speed and innovation with decades of experience and p ro v e n q u a l i t y . Around 1600 e m p l o y e e s at 12 locations in six countries (Switzerland,Sweden, Austria, Germany, USA and Finland) develop and manufacture products for satellites and launch vehicles with the goal of advancing humankind and enabling the exploration of the world and beyond. Our Client is the preferredsupplier of structures for all types of launch vehicles and a leader in selected satellite products and for constellationsin the New Space sector. Our Client also uses its space knowledge for applications outside of space technology:The high-precision products have already been used in the semiconductor industry for more than 20 years. Job description: We have recently launched a major PLM and engineering transformation initiative, taking the company to the next generation, and are looking for the right person to drive the project. A person with key skills in project management and operations of complex PLM projects including system introduction and support as well as being able to drive change – to bring our colleges along on the journey. Focus of your work is change management and the management of the PLM implementation, external partners collaboration, engineering application landscape simplification, related projects, and introduction/ consolidation of new/existing processes.  The Perfect Candidate: As project manager, you are responsible for the planning, implementation, and documentation of related initiatives. You will guide the project team in the creation of requirements and functional specifications, be responsible for solution design and the implementation. You further ensure that the project targets are achieved within time, budget, and quality.  Tasks &amp; Responsibilities: * Partner to business for successful implementation and organization change management * Lead PLM system (Teamcenter) implementation and participate in end-to-end Digital transformation * Define strategies for Data migration, Design data management, BOM management, Change Management, MES, ERP &amp; downstream system integration * Developing architectural blueprints for PLM, CAD, PLM-ERP interfaces &amp; downstream systems * Further optimization of applications landscape for Multi-PLM, MES, M-CAD, E-CAD, FEM systems and future R&amp;D tools * Evaluating business problems, their financial impacts, proposing solutions and driving change for key results * Own decommissioning strategies for PLM / CAD systems * Manage and train the Power User organization and create, review, and validate work instructions and training materials  Must Haves: * Min. 7-10 years of working experience in a similar role and proven strengths in PLM and CAx technologies * Operational experience in CAx and custom engineering tools e.g. Siemens Teamcenter, NX, CATIA, SAP, IFS, Windchill, 3D experience. * Very good functional understanding and usage of various Teamcenter modules like BMIDE, Structure Manager, Workflow Designer, Change Management, BOM Configuration methodologies, Active Workspace, ERP interfaces ( e.g T4S) , OpsCenter and MES * Ability to work in an international matrix organization and manage stakeholders and facilitate decision making in an international group organization * Strong communications skills in English; French nice to have  Reference Nr.: 923402SDA Role: PLM PROJECT MANAGER (f/m/d) Industrie: Space Research Workplace: Zurich Pensum: 100% Start: ASAP Duration: 3++  Job Type: 100%  Schedule:  8 Hour Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About us:       One team. Global challenges. Infinite opportunities. At Viasat, we’re on a mission to deliver connections with the capacity to change the world. For more than 35 years, Viasat has helped shape how consumers, businesses, governments and militaries around the globe communicate. We’re looking for people who think big, act fearlessly, and create an inclusive environment that drives positive impact to join our team.   What you'll do:    As a Payload Systems Engineer, you will join a team focused on the forefront of technology for innovative satcom architectures. You have hands-on experience in designing sophisticated communication space payloads. This also includes knowledge of communication chains, transponders, onboard processing units for digital regenerative applications, beam forming, distribution units and power management.   You thrive in an R&amp;D framework environment and are passionate about continuous improvements. The ideal candidate will enjoy working on a variety of workflows from system definition to requirements downflow, reviewing subsystem design/co-design. Additionally, experience of manufacturing, integration, testing, and qualification is also a plus! The day-to-day:    Together with the team, you will lead the mission analysis for communication space system requirements and down-flows. You will being responsible for the SWaPC analysis and defining interfaces (digital, electrical, RF, optical, mechanical/thermal, etc.) and help to drive and facilitate discussions with subcontractors/partners as needed.   As the SME, you will work and challenge external contractors on technical matters. Together with the team, you will assist with reliability analysis including simulations and design choices with supporting space qualification activities such as bus selection and components. You will also assist with program management and B&amp;P, including collaborating with customers on programmatic and schedule matters. Finally, you will help to support test procedures, participate in the integration, launch, and in-orbit commissioning, and be involved in preparing presentations and reports for the full development (design reviews, test activities, manufacturing, qualifications, progress review, etc.) What you'll need:       The successful candidate should meet the following requirements:          MS/PhD in Engineering (SatCom system, Telecommunications, Electronics, Digital Systems, Automation, etc.)      8-10 years of proven experience in the following areas:      SatCom and communication Payload architectures for LEO/MEO/GEO/HEO      HW/SW design, development, and integration for space applications      Digital design for space communications and Digital regenerative payloads      Inter-satellite links and digital phased array antennas      Experience with orbital analysis tools, Telemetry, Tracking, and Control (TT&amp;C) platform, and Ansys Systems Tool Kit (STK).      Experience with operations, including satellite TT&amp;C operations, payload operations, users, and network management facilities      Swiss or EU (27) Citizenship or valid Swiss working permit       What will help you on the job:      Previous experience working with ESA/NASA in Telecoms programs is a plus!    A proactive person who enjoys working being challenged and working as part of a diverse international team.     ___________   #LI-EMEA : At Viasat, we consider many factors when it comes to compensation, including the scope of the position as well as your background and experience. Base pay may vary depending on job-related knowledge, skills, and experience. Additional cash or stock incentives may be provided as part of the compensation package, in addition to a range of medical, financial, and/or other benefits, dependent on the position offered. Learn more about Viasat’s comprehensive benefit offerings that are focused on your holistic health and wellness at https://careers.viasat.com/benefits. EEO statement:       Viasat is proud to be an equal opportunity employer, seeking to create a welcoming and diverse environment. All qualified applicants will receive consideration for employment without regard to race, color, religion, gender, gender identity or expression, sexual orientation, national origin, ancestry, physical or mental disability, medical condition, marital status, genetics, age, or veteran status or any other applicable legally protected status or characteristic. If you would like to request an accommodation on the basis of disability for completing this on-line application, please click here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good food, healthy environment    The 'Digital Production' Research Group makes use of information and communication technologies to solve a wide variety of challenges in the agricultural sector. The Group develops new data-based solutions for improving the efficiency and sustainability of production systems. In addition to the understanding of agricultural production processes, our core competencies lie in computer vision, demanding data analyses and modelling.        Nitrogen fertilisation can be made more efficient with site-specific technologies. This project aims to optimise the individual fertiliser applications by taking into account soil mineralisation. Mineralisation models and innovative nitrate sensors will be evaluated for their suitability for practical application.                 Your tasks            Validate and further develop existing mineralisation models with regard to their practical suitability       Analysing data sets from field experiments and linking them with other data sources (e.g. weather data, satellite data).       Planning and conducting field experiments on N-mineralisation in soil       Writing scientific publications       Participation in scientific conferences and earning the required ECTS credits                             Your profile            University degree in agricultural sciences, biology, environmental sciences or equivalent qualification       Interest in mechanistic and statistical modelling of the soil-plant system       Good knowledge of R or Python       Experience in analysing spatial data with ArcGIS or QGIS is an advantage       Knowledge of two official Swiss languages and a very good command of written and spoken English                    Additional information    If this position interests you and you meet the requirements profile, we look forward to receiving your online application.    (English is not an official Swiss language, please choose German, French or Italian as correspondence language).        Additional information can be obtained from Thomas, Anken, in charge of the Group Digital Production by e-mail at or by phone on N° +41 58 480 33 52 (please do not send applications to this e-mail address).        Starting date: 01.10.2024 or by agreement. The position is limited until 30.09.2027.        Reference number: JRQ$540-11538           Apply now           About us    The 'Sustainability Assessment and Agricultural Management' Research Division develops decision-making bases to help policy-makers create optimal framework conditions for a competitive and multifunctional Swiss agricultural sector. The analysis of a wide range of data from the agriculture and food sector enables the identification of promising operating strategies and policy measures. The Research Division deals with issues concerning digitalisation in agriculture.        Agroscope is the Swiss federal centre of excellence for research in the agriculture and food sector. Its researchers work at a number of sites in Switzerland. Headquartered in Bern-Liebefeld (as of 2026: Posieux), Agroscope is attached to the Swiss Federal Department of Economic Affairs, Education and Research EAER.        We offer you a varied job in an interesting work environment as well as thorough training and a modern research infrastructure. Flexible working hours and good employee benefits are additional perks of the job.        + more           The Federal Administration is attentive to the different needs and backgrounds of its employees and promotes diversity. Equal treatment is a top priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Space Research and Planetology Division at the University of Bern is seeking a highly motivated PhD student to join its esteemed Space Science Group. Our group specializes in studying the composition of tenuous gases near solar system objects using time-of-flight mass spectrometers and determining surface compositions with advanced laser ablation techniques. Notably, we developed and built the mass spectrometer for ESA's JUICE mission and are responsible for the preparation and analysis of the measurements it will conduct once the mission arrives in the Jupiter system in July 2031. To support the missions we are involved in, we have developed a sophisticated computer model for simulating planetary atmospheres, which has been successfully applied to various solar system bodies, including Mercury, the Moon, Venus, Titan, Europa, Callisto, Ganymede, and comet 67P/Churyumov-Gerasimenko.   This research project focuses on preparing measurements by the mass spectrometers on board ESA's JUICE and NASA's Europa Clipper missions to study the plumes tentatively observed on Europa, one of Jupiter's icy moons. Investigating Europa's plumes is particularly exciting because these geysers offer a rare opportunity to sample subsurface liquid reservoirs that might harbor life, without needing to drill through kilometers of ice. Analyzing these plumes could provide unprecedented insights into the moon's oceanic environment, its chemical composition, and its potential habitability.  Research Project: This PhD project will focus on modeling the complete gas phase of Europa's plumes, a critical component in determining the habitability of this ocean world in the Jupiter system. The project involves developing a physical simulation model to quantify changes in the chemical composition of Europa's plumes from their liquid reservoirs to their gas phase. The successful candidate will work with existing Monte Carlo models and newly acquired DSMC models, aiming to provide valuable insights for ESA's JUICE and NASA's Europa Clipper missions. This research is poised to significantly enhance our understanding of Europa's potential to support life and will be an integral part of the science preparation for the measurements conducted by the mass spectrometers on the JUICE mission (JUICE / NIM) and the Europa Clipper mission (Europa Clipper / MASPEX). The selected PhD student will work closely with the JUICE / NIM team and the Europa Clipper / MASPEX team, including the potential for a research visit with our US counterparts to foster collaboration and share expertise.      Key Responsibilities:        Develop and extend existing Monte Carlo and DSMC models to simulate Europa's plumes.   Analyze the chemical modifications occurring within the plume's gas phase.   Work closely with senior geochemists and DSMC modelers to integrate new chemical reaction modules into the models.   Collaborate with the JUICE/NIM and Europa Clipper/MASPEX teams to optimize plume detection and maximize the scientific return of plume measurements.   Prepare and publish at least three scientific papers based on the research findings.   Present research results at international conferences and workshops.     Qualifications:      MSc in Physics, Astrophysics, or a field related to the research project.   Proficient English language skills, both written and spoken; German language skills are a plus.   Experience in programming is highly desirable.   Strong motivation and ability to work independently as well as in a collaborative research environment.     Why Join Us:      The University of Bern offers a vibrant research environment with a rich history of contributions to space missions, including ESA's JUICE, ExoMars, CHEOPS, BepiColombo, Rosetta, Comet Interceptor, and NASA's IBEX and Artemis missions. Our Space Science Group provides an excellent opportunity to work on cutting-edge research projects with a team of experienced scientists and engineers.     Position Details and Application Instructions:      Starting Date: Flexible, but not before September 2024   Location: University of Bern, Switzerland   Salary: In accordance with the personnel regulations of the Canton of Bern   Application Deadline: 31 July 2024     Application Instructions: Submit your application as a single PDF file consisting of: 1. Cover letter describing your motivation and qualifications for the position 2. Curriculum Vitae (CV) 3. List of publications (if applicable) 4. Names and contact information of three references  Please send your application to the contact given below by 31 July 2024. For further information, visit our website: www.space.unibe.ch  Applicants should contact: PD Dr. Audrey Vorburger +41 31 684 44 16 audrey.vorburger@unibe.ch                   www.karriere.unibe.ch              Rechtliche Hinweise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications are invited for one research assistant position (Postdoctoral fellow) at the University of Bern (Dept. of Space and Planetary Sciences) to work under the supervision of Prof. Jonas Kühn on novel instrumentation techniques for direct imaging of exoplanets. The successful applicant is expected to lead the implementation of new exoplanet imaging techniques using pixelated “Spatial Light Modulators” (SLMs) display panels. The latter can be used as “programmable focal-plane phase mask coronagraphs”, to mask the unwanted light from the host star, in order to reveal faint off-axis astrophysical sources of interest (exoplanets, circumstellar disks).   This position is part of the ERC Consolidator “RACE-GO” project (Rapid Adaptive Coronagraphy of Exoplanets from a Ground-based Observatory), which aims at investigating how SLMs could be used as “active coronagraphs” to adapt to various observing conditions, target types (binary stars, giant stars) or to implement coherent differential imaging (CDI) techniques at high-speed. The RACE-GO project team will be allocated 60 Guaranteed Time Observing (GTO) nights spread over 2 years on the new Turkish 4-m DAG Telescope, to implement, validate and scientifically exploit the approach on-sky, and the applicant is expected to technically prepare and lead the initial phase of the observing campaign.        In particular, the postdoctoral fellow will work both on instrumental aspects of adaptive coronagraphy and CDI in the optical laboratory (high-contrast imaging testbed), and will participate in the installation and on-sky commissioning of the new Programmable Liquid-crystal Active Coronagraphic exoplanet Imager for the 4-m Turkish DAG telescope (PLACID) instrument. In consequence, the applicant is expected to travel to Turkey (Erzurum province) a few times per year, and spend at least a dozen nights observing at the summit (3,100m ASL). The candidate will be able to set up his own observation program towards the end of the position, if conditions allow. Overall, she/he will also play a key role in a small team of four people, notably helping to supervise and mentor two PhD candidates in their 2nd thesis year, but also running a practical lab experiment for Physics MSc students; hence team player and teaching qualities are crucial to this position.     Requirements      A PhD degree in Physics, Astrophysics or Engineering (with specialization in astronomical instrumentation or adaptive optics), obtained within the last 2 years. Prior experience in astronomical instrumentation, observational astronomy, Python programming and/or benchtop optics is a plus.     We offer      This is initially a 1-year position, with a 2nd year extension available upon mutual agreement.        The salary starts at 90'000.- CHF/year gross salary, commensurate with experience and with 5-week paid holidays per year, according to rules of the University and Canton of Bern. Childcare allowance is available.        The University of Bern is an equal opportunity employer committed to diversity in its workplace, and applications from under-represented minorities are strongly encouraged.        The University of Bern is a vibrant center of space and (exo)planetary research. It leads the National Center for Competence in Research PlanetS (www.nccr-planets.ch), a Swiss research network focused on planetary science, which includes more than 130 scientists from the Universities of Bern, Geneva , Zurich and ETH Zurich. The University of Bern also hosts the Center of Space and Habitability (www.csh.unibe.ch), and is the leading house of the ESA exoplanet transit satellite CHEOPS. The city of Bern offers an excellent living environment, with its 12th-century UNESCO world heritage old town within close vicinity of the Swiss Alps, and is consistently ranked as one of the world's best city for quality of living (e.g. Top 15 in Mercer survey).     Applications      The following application materials should be sent as a single pdf file to jonas.kuehn@unibe.ch:               A motivation letter including contact details, information on skills and previous experience, and the names of 2-3 references/referees (max. 3 pages).    Curriculum vitae (max. 2 pages), plus a list of publications (not included in page count).    Academic transcripts of PhD and MSc grades.       Two to three letters of recommendation should be sent directly to Prof. Kuhn by the referees themselves, and it is the responsibility of the applicant to ensure that the letters are sent on due date.        Deadline to apply: August 15, 2024, for full consideration, then until the position is filled.        www.space.unibe.ch                         www.karriere.unibe.ch              Rechtliche Hinweise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGENTEC is a young, dynamic and strongly growing company, headquartered in Lausanne, Switzerland, near EPFL, close to the shore of Lake Geneva. We are developing Photonic Integrated Circuits (PICs) to world-leading performance with our customers for applications in Quantum Technologies, LiDAR, Space, Biosensors and more.    To support our growth, we are looking for a:  Process Engineer  Heterogeneous Integration    Tasks    Within LIGENTEC’s engineering team, our mission is to bring our integrated photonics platform to the next level, building on its world-class passive photonics and extending the functionality with active component integration.    Role and Responsibilities    You are part of an interdisciplinary project team that integrates active functionalities such as modulators, photodiodes and amplifiers onto LIGENTEC’s state-of-the art passives platform.        Develop new processes for new electro-optic modulators, including thin-film lithium niobate integration or other materials on SiN. To this end, you:   Define and execute Design of Experiments at the clean-room facilities.   Contribute to the project technology roadmap from a process development perspective.   Stay up to date with state-of-the art process technology development on active components.   Increase the maturity level of developed processes in order to release them for early customer engagements. To this end, you:   Implement statistical process control and physical model fitting of opto-electrical device properties.   Execute fabrication runs for photonic integrated circuits for internal and external customers.   Documentation of results with strong emphasis on correlations between optical and electrical properties of integrated actives.   Contribute to the R&amp;D and Process teams in all aspects, especially process integration topics.   Requirements        Master’s degree in electrical, chemical, physical or nano engineering.   Min of 3 years experience in relevant environments (MEMS, Semiconductors, Nano-Optics) with hands-on experience on clean room processes such as wafer bonding, lithography, etching, metallization, different material deposition and characterisation techniques.   Experience with heterogeneous integration techniques like wafer bonding, micro-transfer printing or flip-chip assembly is a plus.   Understanding of photonic devices like modulators, photodiodes and lasers is a plus.   Knowledge of python for statistical data analysis is a plus.   Excellent technical problem-solving skills   Open minded, critical, and innovative.   Ability to work independently and with remote teams.   Working proficiency in English.   Benefits        A flexible and dynamic start-up work environment.   Be a member of an international, diverse, customer-focused and highly motivated team.   Personal responsibility in your job and the chance to grow with us   Our passion to bring PICs to everyday life.   We look forward to receiving your full application, including 1) your CV, 2) a statement of interest (relating the position to your skills) and 3) grade or work certificates. Non-complete applications may not be considered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Introduction    Serco has made significant contributions at ESA's European Space Research and Technology Centre (ESTEC) in the Netherlands, supporting a wide range of space missions and projects. Serco has provided essential engineering, technical, and management services, playing a key role in logistics and operational support for missions. Serco's expertise in spacecraft management, ground systems and data processing has earned them recognition, including 'Best in Domain' awards from ESA. Their long-standing partnership with ESA reflects their commitment to excellence and innovation in the space sector.   On behalf of our client, the European Space Agency, we are looking for a Microsoft Software Engineer to join our team in the Netherlands.   We are looking for someone skilled with Microsoft tools such as Power User, Power Pivot and Power Query to provide maintenance support and assist the ESA Cyber Internal Audit team in conducting Cybersecurity for the Galileo Program. Main Responsibilities    As Microsoft Software Engineer you will concentrate your activities on the following:      Upgrade and maintain the current ESA GNSS CAATS (computer-assisted Audit techniques) a set of MS excel based applications using Macros and MS Virtual Basic    Develop a new set of tools to improve the current ESA GNSS CAATS.    Support for the maintenance of the ESA GNSS CIA Evidence Database, currently based on Microsoft Excel.    Integrate the inputs provided by the industry into the ESA GNSS CAATS and develop the associated tools to perform this integration. Note that some of these inputs are classified.    Develop and maintain a database with all the data inputs as the main repository of the Auditor knowledge base.    Develop the tools to validate and verify the data provided by ESA.    Develop the tools to maintain records of software Audit activities (evaluation logs, status reports) provided by ESA.    Support to the ESA GNSS CIA team for the development of specific software and scripts during the execution of the Audits.   Successful Candidate    Do you think you are the person we are looking for? See below what experience or knowledge you should bring:      Minimum a Bachelor´s degree or equivalent, preferably in the field of software engineering.    Expertise, at least, 2 years in software development    Experience in conducting projects reviews (document and SW development processes).    Experience on Generalised Audit software (GAS) or Business Intelligence tools.    Knowledge about add-ins, plugins and apps for Microsoft Office as Power User, Power Pivot, Power Query, ParallelDots, Office Tab, Tableau or other similar tools to increase the productivity of the Microsoft Office products.    Comfortable with working in a diverse and multinational team environment.    Excellent interpersonal skills are needed, together with a high degree organizational and communication abilities.    Proficient in the English language, both written and spoken.    Knowledge of another EU member state language is an asset.    Candidates must be eligible to work in the EU.   About The Company   Why should you join Serco ?   At Serco not only is the nature of the work we do important, everyone has an important role to play.   Meaningful and vital work - You’ll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated.   A world of opportunity - You’ll be wholeheartedly supported with development and career progression   Great people - You’ll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion.   About Serco   Serco Europe has operated in the Netherlands and Spain over the past 30 years, mainly in the field of Space. Serco Netherlands and Spain have a long history of partnership and trust with the European Space Agency (ESA).   In both countries, Serco is proud to deliver the highest calibre of people and services at ESTEC (ESA’s technology and engineering hub) and ESAC (ESA’s Astronomy and Science centre).   At the heart of its business, Serco Netherlands and Spain source, train, care and support employees, enabling them to better pursue their dreams of working in the Space industry in excelling in the delivery of essential public services.        We are diverse and inclusive organisation.   At Serco, we see people first and foremost for their performance and potential and we are committed to supporting the needs of all our colleagues. It’s a mix of people from different backgrounds, experiences and opinion that keeps our culture strong and vibrant.   We believe in equity so we strongly encourage applications from a diverse range of candidates. Disabled applicants who meet the minimum criteria for the job are encouraged to apply and demonstrate their abilities in an interview. We also welcome a conversation about any adjustments that would make the interview process more accessible for you. Wherever possible we are open to discussions around flexible working and we operate a hybrid work structure in many of our business areas.   In the UK we are proud to be a Disability Confident Leader in the government’s scheme and hold the Gold Inclusive Employer Standard; in Belgium we are partner of Diversicom and member of Charter der Vielfalt in Germany.   If you have any questions please do not hesitate to reach out to The Serco Europe Recruitment Team        Important:   Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law.   Applicants are reminded that they will be requested to produce such documentation during the recruitment process.   Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization.   Data Protection:   For more information on how the personal data in your application is process, please see the link Data Protection policy here. Package Description    What we offer if you join our amazing team:      Flexible working policy (hybrid working)    Comprehensive and competitive benefits plan    A range of wellness activities and employee assistance programs    Casual dress code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Description        Fugro Norway AS - Satellite Positioning Service Line is looking for a Senior Project Lead GNSS          Fugro Satellite Positioning manages a global network of reference stations, monitoring signals from GNSS (GPS, GLONASS, BeiDou and Galileo) satellites and generating corrections to significantly improve the accuracy of unaugmented GNSS signals.          Correction messages are transmitted via a robust, fault-tolerant broadcast infrastructure, providing precise, reliable, real-time satellite positioning that is accurate worldwide, 24/7 availability and full redundancy under demanding conditions.        As the leading company in our market, we offers an interesting, international and inspiring career opportunity.          What we offer:                 International work environment                 Flexible work hours                 Subsidized meals in our canteen                 On-site parking                 In-house exercise room                 Company-covered mobile phone and internet expenses                 Secure bike storage and changing/shower facilities                 Great pension and insurance benefits              Essential Duties &amp; Responsibilities:        Contribute with defining scope, goals and deliverables for projects    Manage own projects and coordinate with other project managers to deliver on business roadmap    Take initiative for and contribute to the improvement of existing Fugro Satellite Positioning products and tools    Contribute to research, development and testing of new solutions for precise GNSS applications    Stay oriented about new research and leading-edge developments in GNSS and other relevant technologies    Create and maintain good relations with suppliers, partners and clients          Desired background and preferred skills:        Deep understanding of GNSS principles like Precise Orbit Determination and Precise Point Positioning technology    Have an ability to see new possibilities and solutions and a desire to undertake challenging tasks    Familiar with Agile project management principles and the Scrum methodology    Be able to work independently, as well as being a good team member and have an open personality    Experience in multi-site multinational development organizations with matrix management          Qualifications required:        MSc candidate with education within GNSS / Geodesy    At least 3 years relevant work experience within the GNSS/Space industry    Good communication skills in both written and spoken English          Ready to take your career to the next level? Join us at Fugro Satellite Positioning and be part of something extraordinary! If you're passionate about GNSS technology and want to make a real impact in a dynamic global environment we encourage you to apply!          Disclaimer for recruitment agencies:        Fugro does not accept any unsolicited applications from recruitment agencies. Acquisition to Fugro Recruitment or any Fugro employee is not appreciated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you searching for a Postdoc position at an internationally important geodetic fundamental station and work for the benefit of the scientific community as well as your own research and society at large? At Onsala Space Observatory we are now looking for a highly motivated colleague to work with us as a Postdoctoral researcher on GNSS-related research in geodesy and geodynamics.    Project description Possible GNSS-related research topics can include, e.g., reference frames, crustal motion, glacial isostatic adjustment, atmospheric signal delays, ionospheric research, LEO-augmented GNSS, new space missions, etc. The Postdoc position is in the research group for Space Geodesy and Geodynamics. It is restricted to three years (2+1) with a review after the second year. Together we work to increase knowledge on how to best achieve a long-term sustainable planet. Our main working places are the Onsala Space Observatory, 40 km south of Gothenburg, and Chalmers University of Technology in Gothenburg.    Information about the department At the department of Space, Earth and Environment we search for answers to the really big questions. In a long time perspective, the lifecycles of stars and galaxies provide an insight into the origin and future of the universe, earth and life. We also observe our planet and the interaction between society, technology and nature in order to develop technologies, models and tools that can meet global challenges regarding natural resources, climate impact and energy supply.      Major responsibilities Your major responsibilities as a Postdoc is to perform your own and innovative research in the field of GNSS for geodesy and geodynamics. You are expected to develop and conduct your own research in close collaboration with your colleagues in the Space Geodesy and Geodynamics research group. In addition it might be beneficial for your future career to participate in teaching and outreach activities on a level of 10 per cent.    Qualifications      Relevant PhD degree in Geodesy/Geophysics/Geodynamics/Aerospace/Physics or an equivalent education, including a GNSS-related PhD thesis and experience.        Fluency in both written and spoken English.        Experience in/knowledge of computer programming in e.g. C/C++, Python, Matlab, Fortran        To qualify for the position of postdoc, you must hold a doctoral degree awarded no more than three years prior to the application deadline (according to the current agreement with the Swedish Agency for Government Employers). Exceptions from the 3-year limit can be made for longer periods resulting from parental leave, sick leave or military service. The date shown in your doctoral degree certificate is the date we use, as this is the date you have met all requirements for the doctoral degree.      Meritorious      Educational background in space geodesy, geodynamics, atmospheric sciences, computer sciences, statistics and probability        Experience in/knowledge of data analysis, computer science, parallel programming, statistics         Swedish is not a requirement but Chalmers offers Swedish courses.        Contract terms    This postdoc position is a full-time temporary employment for two/three years.        We offer     Chalmers offers a cultivating and inspiring working environment in the coastal city of Gothenburg.    Read more about working at Chalmers and our benefits for employees.        Chalmers aims to actively improve our gender balance. We work broadly with equality projects, for example the GENIE Initiative on gender equality for excellence. Equality and diversity are substantial foundations in all activities at Chalmers.        Application procedure    The application should be marked with 20240433 and written in English. The application should be sent electronically and be attached as PDF-files, as below. Maximum size for each file is 40 MB. Please note that the system does not support Zip files.        CV: (Please name the document as: CV, Surname, Ref. number) including:           CV, include complete list of publications    Previous teaching and pedagogical experiences    Two references that we can contact.        Personal letter: (Please name the document as: Personal letter, Family name, Ref. number)    1-3 pages where you:           Introduce yourself     Describe your previous research fields and main research results    Describe your future goals and future research focus, including a detailed reserch plan for the Postdoc position        Other documents:           Please provide a digital copy of your PhD thesis, as well as attested copies and transcripts of completed education, grades, etc.       Use the button at the foot of the page to reach the application form.      Please note: The applicant is responsible for ensuring that the application is complete. Incomplete applications and applications sent by email will not be considered.  Application deadline: 2024-09-30   For questions regarding the recruitment process and research, please contact: Prof. Dr. Rüdiger Haas, rudiger.haas@chalmers.se    *** Chalmers declines to consider all offers of further announcement publishing or other types of support for the recruiting process in connection with this position. ***         Chalmers University of Technology in Gothenburg conducts research and education in technology and natural sciences at a high international level. The university has 3100 employees and 10,000 students, and offers education in engineering, science, shipping and architecture. With scientific excellence as a basis, Chalmers promotes knowledge and technical solutions for a sustainable world. Through global commitment and entrepreneurship, we foster an innovative spirit, in close collaboration with wider society. Chalmers was founded in 1829 and has the same motto today as it did then: Avancez – forward.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satellite Navigation      We are looking for a person who is excellent in understanding technical requirements and developing and improving software products, considering the existing technology stack within OHB Digital Solutions.      Your Challenge:          Perform research and development for interdisciplinary projects in the field of satellite navigation and related      Design and implement algorithms for specific problems related to GNSS      Prototype software components and modules for concept demonstration      Define and execute test plans to ensure compliance with the requirements      Document research and development results      Comply with project plans, industry standards and OHB Digital Solutions design principles and workfloww      Work within an interdisciplinary and diverse development team         Your Qualification:          Formal education (graduated or in final semesters) in Geodesy, Telematics, Physics, Software engineering, Informatics, or similar, or equivalent work experience      Experience in research related to the field of positioning, navigation and/or timing      Ability to work with cross-function and geographically distributed teams      Soft skills such as analytic thinking and result orientation      Fluent in German and/or English         …and nice to have:      Good communication skills           Experience in project management and/or working on projects with the European Space Agency      Technically proficient / conversant in GNSS Technologies      Good communication skills         We offer:          A friendly and pleasant working environment in a varied and exciting field of work in the area of precise positioning and navigation      The opportunity to learn new skills and face new challenges every day      A permanent contract in a young, well-coordinated team with flexible working hours and the opportunity to partially work in home-office      Thorough induction phase      For legal reasons, we refer to a minimum salary according to the current Collective Agreement. The actual payment is of course higher and depends on your qualifications and experience          Location: Graz or Vienna      We are looking forward to receive your application (cover letter, resume, references and certificates) including your availability and salary expectations either in German or in English.      office@ohb-digital.at            We are hiring:          Research Engineer (full-stack)      Software Engineer (full-stack)      Software Engineer (C++)      Product Manager (GNSS Signal Simulation)                   TOGETHER AGAINST JAMMING + SPOOFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURITY CLEARANCE: You will be subject to a BPSS check (including a criminal record check) TRAVEL REQUIRED: Occasional travel within UK and international LOCATION: Site (Typically 3 days a week in the office, 2 days remote) TYPE: Full time / Part time WHAT'S IN IT FOR YOU Financial Reward: Competitive salary, annual profit share, contributory pension, share options, car leasing scheme, free onsite parking, season ticket loan, tax-free technology scheme, discounted shopping and much more Work / Life Balance: 37 hour week, flexible working around core hours and Friday afternoons off, hybrid working, up to 2 additional days per month as TOIL, option to buy/sell holiday Personal Development: Personalised development plan, Airbus Leadership University and unlimited access to 10,000+ E-learning courses, internal mobility including international opportunities Health &amp; Wellbeing: Wellbeing benefits (including 24/7 online GP and mental health support), Employee Assistance Programme, discounted family health / dental insurance / eye tests, cycle-to-work scheme, on-site canteen and coffee shop, lunchtime pilates Family and Caregiving: Life assurance, enhanced pay for maternity, paternity, adoption and shared parental leave and caregiving Inclusive Environment: Wellbeing room, Multi-faith room, Employee Representative Groups (Gender, LGBTQ+, International, Generational, Disability, Social &amp; Cultural Diversity, Neurodiversity) Our world is changing. And so are we. From our commitment to zero-carbon flight (#ZEROe) to cleaning up space, sustainability is at the heart of our purpose. So what's your next change? Within the new Digital Payload Centre of Competence of Space Systems Engineering organization, we are currently seeking an Equipment Specialist for active equipment. Joining the Digital Payload Delivery group, you will be the technical focal point for active (procured or internally produced) equipment; you will be an integral part of our team, helping to ensure the success of space missions; including contributing directly to the flagship product line "OneSat". This role presents an opportunity to work on cutting-edge space projects, collaborate with a diverse team of experts, and contribute directly to the advancement of satellite products. You will work closely with multiple engineering teams, supply chain managers and also externally with frequent interactions with suppliers and customers. HOW YOU WILL CONTRIBUTE TO THE TEAM Act as the technical focal point for radio-frequency telecommunication space active equipment, working with suppliers all around the world; throughout the project lifecycle. Example equipment may include Low Noise Amplifiers, Receivers, Frequency converters, Solid State Power Amplifiers (SSPAs), Microwave Power Models (MPMs) and Travelling Wave Tubes (TWTs). Provide technical support and recommendations into the bid proposal, consultation and supplier selection process Make recommendations in terms of design, performance, risk, product policy and design to cost requirements. Generation of equipment specifications, negotiation and sign-off of statements of compliance from suppliers. Assure the equipment quality and delivery through a robust review process; technically support reviews such as Equipment Qualification Status Review (EQSR), Critical Design Reviews (CDR), Manufacturing Readiness Review (MRR), Test Readiness Review (TRR) and Test Review Board (TRB) ABOUT YOU Demonstrated competence and knowledge of relevant RF Equipment with experience in a design, development or production environment. Experience of working directly with customers/suppliers Demonstrated competence and knowledge of relevant RF Equipment with experience in a design, development or production environment. Not a 100% match? No worries! Airbus supports your personal growth with customised development solutions. HOW WE CAN SUPPORT YOU Many of our staff work flexibly in many different ways, including part-time. Please talk to us at interview about the flexibility you need and we'll always do our best to accommodate your request. Please let us know if you need us to make any adjustments for the selection process - you can share this with your Talent Acquisition Partner if you are invited to interview. Examples may include (but not exclusive to) accessible facilities; auxiliary aids; room layout, etc. Any information disclosed will be treated in the strictest confidence. #LI-WG1 This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURITY CLEARANCE: You will be subject to a BPSS check (including a criminal record check) TRAVEL REQUIRED: Occasional travel within UK LOCATION: Portsmouth (Typically 3 days a week in the office, 2 days remote) TYPE: Full time WHAT'S IN IT FOR YOU Financial Reward: Competitive salary, annual profit share, contributory pension, share options, car leasing scheme, free onsite parking, season ticket loan, tax-free technology scheme, discounted shopping and much more Work / Life Balance: 37 hour week, flexible working around core hours and Friday afternoons off, hybrid working, up to 2 additional days per month as TOIL, option to buy/sell holiday Personal Development: Personalised development plan, Airbus Leadership University and unlimited access to 10,000+ E-learning courses, internal mobility including international opportunities Health &amp; Wellbeing: Wellbeing benefits (including 24/7 online GP and mental health support), Employee Assistance Programme, discounted family health / dental insurance / eye tests, cycle-to-work scheme, on-site canteen and coffee shop, lunchtime pilates Family and Caregiving: Life assurance, enhanced pay for maternity, paternity, adoption and shared parental leave and caregiving Inclusive Environment: Wellbeing room, Multi-faith room, Employee Representative Groups (Gender, LGBTQ+, International, Generational, Disability, Social &amp; Cultural Diversity, Neurodiversity) Our world is changing. And so are we. From our commitment to zero-carbon flight (#ZEROe) to cleaning up space, sustainability is at the heart of our purpose. So what's your next change? The EMC Systems Engineer will join our Earth Observation, Science and Exploration business line and be part of the development of new microwave, radar and optical payload systems. HOW YOU WILL CONTRIBUTE TO THE TEAM Ensuring that the EMC and ESD aspects of customer requirements are met in our designs. Analyse the EMC performance and be responsible for establishing EMC compliant designs, to the satisfaction of the project engineering and the end customer. Presenting the EMC Design Control Techniques, Analysis, Test Verification Methods and Results. Managing the EMC testing throughout test campaigns and supporting the Satellite EMC prime contractor as needed. Signatory for all equipment level EMC aspects. ABOUT YOU Able to analyse Equipment, Sub-systems and Systems for their contribution/response to the defined Electromagnetic environment. Application of EMC/ESD design techniques Knowledge of ESA ECSS standards and requirements with emphasis on those relating to EMC, ESD and Electrical aspects would be desirable. Experience of EMC Testing [e.g. Mil Std 461/462; ECSS-E-ST-20-07C] would be desirable. Some knowledge of EMC Test Equipment Hands on capability, Spectrum Analysers, Oscilloscopes, Receivers and Field Generation Systems would be desirable. Not a 100% match? No worries! Airbus supports your personal growth with customized development solutions. HOW WE CAN SUPPORT YOU Many of our staff work flexibly in many different ways, including part-time. Please talk to us at interview about the flexibility you need and we'll always do our best to accommodate your request. Please let us know if you need us to make any adjustments for the selection process - you can share this with your Talent Acquisition Partner if you are invited to interview. Examples may include (but not exclusive to) accessible facilities; auxiliary aids; room layout, etc. Any information disclosed will be treated in the strictest confidence. #LI-LS1 This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical &amp; Functional Test Engineering - Satellite LOCATION: Stevenage - Required to work on site SECURITY CLEARANCE: Eligibility to gain UK SC Security Clearance TRAVEL REQUIRED: Frequent travel within UK and international - this will be for test campaigns, training and team meets. WHAT'S IN IT FOR YOU Financial Reward: competitive salary, annual profit share, pension enhancements up to 8%, shopping discounts, car leasing scheme, share options, long service and exceptional performance awards, technology scheme; Buy the latest technology and spread the cost tax free over 24 months, discounted shopping and much more Personal Development: Personalised development plan, Airbus Leadership University and unlimited access to 10,000+ E-learning courses, internal mobility including international opportunities Health &amp; Wellbeing: Life Assurance, income protection, wellbeing benefits (including 24/7 online GP and mental health support), cycle-to-work scheme, discounted family health and dental insurance and eye tests. Family and Caregiving: Enhanced pay for maternity, paternity, adoption and shared parental leave and caregiving Inclusive Environment: Wellbeing room, Multi-faith room, Employee Representative Groups (Gender, LGBTQ+, International, Generational, Disability, Social &amp; Cultural Diversity, Neurodiversity) Our world is changing. And so are we. From our commitment to zero-carbon flight (#ZEROe) to cleaning up space, sustainability is at the heart of our purpose. So what's your next change? Supporting Earth, Navigation and Science missions and Military Telecomm projects, the team we are recruiting within are responsible for the electrical and functional test of the full spacecraft including environmental test and launch campaigns. HOW YOU WILL CONTRIBUTE TO THE TEAM Interpretation of electrical and functional test requirements from test specifications Provide test solutions to meet the test specification requirements, including test sequence coding, procedure preparation, debug and execution on the Flight Model spacecraft or test bench. To provide technical inputs to project test reviews (Test Readiness Reviews, Post Test Reviews, Test Review Boards and Non Conformance Review Boards) Development and debug of Automatic Test procedures (ATP) using a bespoke high level Software language (currently Open Center checkout system based on the Elisa language) to test the spacecraft systems Preparing and executing spacecraft system investigations in line with actions from Non Conformance Review Boards (NRBs). Support Spacecraft systems functional and performance tests during environmental test in Europe (Reference test, TVAC, Magnetic, EMC, functional and performance tests) and launch campaigns. ABOUT YOU Complex electronic systems testing experience Knowledge and experience of spacecraft systems and subsystem testing is preferred, e.g. Data Handling, Packet Utilisation Standard, Data Bus Communications - 1553, SpaceWire, CAN bus, Power systems, FDIR. Programming and scripting languages, in particularly writing and debugging Linux/Unix bash scripts is an advantage. Knowledge of a programming language such as C, Java, python, UDMS, TCL and VBA would be useful. Competent in writing and debugging test sequences, preparing test procedures and reports and supporting test reviews. Competent in the use of various test equipment used for electrical measurements, e.g. DMM, oscilloscope, current probes, Data acquisition unit, data bus monitors (1553 MilBus probes/analysers) would be an advantage. Not a 100% match? No worries! Airbus supports your personal growth with customised development solutions. HOW WE CAN SUPPORT YOU Many of our staff work flexibly in many different ways, including part-time. Please talk to us at interview about the flexibility you need and we'll always do our best to accommodate your request. Please let us know if you need us to make any reasonable adjustments for the selection process - you can share this with your Talent Acquisition Partner if you are invited to interview. Examples may include (but not exclusive to) accessible facilities; auxiliary aids; room layout, etc. Any information disclosed will be treated in the strictest confidence. #LI-LB1 This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICAL TEST ENGINEER SECURITY CLEARANCE: Eligibility to gain UK SC Security Clearance TRAVEL REQUIRED: Frequent / Extensive travel within UK and international for selected test campaigns LOCATION: Stevenage - this role requires you to work on site 5 days a week TYPE: Full time / STEM returner WHAT'S IN IT FOR YOU Financial Reward: Competitive salary, annual profit share, contributory pension, share options, car leasing scheme, free onsite parking, season ticket loan, tax-free technology scheme, discounted shopping and much more Work / Life Balance: 37 hour week, flexible working around core hours and Friday afternoons off, up to 2 additional days per month as TOIL, option to buy/sell holiday Personal Development: Personalised development plan, Airbus Leadership University and unlimited access to 10,000+ E-learning courses, internal mobility including international opportunities Health &amp; Wellbeing: Wellbeing benefits (including 24/7 online GP and mental health support), Employee Assistance Programme, discounted family health / dental insurance / eye tests, cycle-to-work scheme, on-site canteen and coffee shop Family and Caregiving: Life assurance, enhanced pay for maternity, paternity, adoption and shared parental leave and caregiving Inclusive Environment: Wellbeing room, Multi-faith room, Employee Representative Groups (Gender, LGBTQ+, International, Generational, Disability, Social &amp; Cultural Diversity, Neurodiversity) Our world is changing. And so are we. From our commitment to zero-carbon flight (#ZEROe) to cleaning up space, sustainability is at the heart of our purpose. So what's your next change? Supporting Earth, Navigation and Science missions and Military Telecom projects, this team prepare and perform electrical integration of the spacecraft units, subsystem and system spacecraft functional tests, during both ambient and environmental test campaigns. This role sits within Satellite Assembly Integration and Test team based at Stevenage. HOW YOU WILL CONTRIBUTE TO THE TEAM Work within the Satellite Assembly Integration and Test team at Stevenage supporting the design, manufacture and commissioning of test systems. Contribute to the team for the electrical and functional test of the full spacecraft including environmental test and launch campaigns, for Earth Observation and Navigation, Science and Military Telecoms missions. Interpreting test specifications, preparing and scripting test solutions as well as debugging and formally executing these tests. Performing of electrical and functional testing of complex spacecraft systems Working hands -on with a mix of office, lab and clean-room based activities. Overseeing procurement and day to day support of the electrical test racks used during spacecraft build and test ABOUT YOU Competent in writing and debugging test sequences, preparing test procedures and reports and supporting test reviews. Good documentation and communication skills are essential, as is the ability to use a wide variety of general purpose lab test equipment. Have good theoretical and or practical knowledge of one or more spacecraft subsystems (Power, RF Comms, AOCS, DHS, Scientific Instruments, and System FDIR etc.) Experience and knowledge in any of the following would also be beneficial; interfaces such as Mil-1553, SpaceWire, CAN bus, RS232/422; simulation environments; programming and scripting languages such as C, Java, Python, UDMS, TCL and bash scripting. Not a 100% match? No worries! Airbus supports your personal growth with customized development solutions. HOW WE CAN SUPPORT YOU Many of our staff work flexibly in many different ways, including part-time. Please talk to us at interview about the flexibility you need and we'll always do our best to accommodate your request. Please let us know if you need us to make any adjustments for the selection process - you can share this with your Talent Acquisition Partner if you are invited to interview. Examples may include (but not exclusive to) accessible facilities; auxiliary aids; room layout, etc. Any information disclosed will be treated in the strictest confidence. #LI-LB1 This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURITY CLEARANCE: Eligibility to gain UK SC Security Clearance TRAVEL REQUIRED: Occasional LOCATION: Portsmouth Site (Typically 3 days a week in the office, 2 days remote) TYPE: Full time WHAT'S IN IT FOR YOU Financial Reward: Competitive salary, annual profit share, contributory pension, share options, car leasing scheme, free onsite parking, season ticket loan, tax-free technology scheme, discounted shopping and much more Work / Life Balance: 37 hour week, flexible working around core hours and Friday afternoons off, hybrid working, up to 2 additional days per month as TOIL, option to buy/sell holiday Personal Development: Personalised development plan, Airbus Leadership University and unlimited access to 10,000+ E-learning courses, internal mobility including international opportunities Health &amp; Wellbeing: Wellbeing benefits (including 24/7 online GP and mental health support), Employee Assistance Programme, discounted family health / dental insurance / eye tests, cycle-to-work scheme, on-site canteen and coffee shop. Family and Caregiving: Life assurance, enhanced pay for maternity, paternity, adoption and shared parental leave and caregiving Inclusive Environment: Wellbeing room, Multi-faith room, Employee Representative Groups (Gender, LGBTQ+, International, Generational, Disability, Social &amp; Cultural Diversity, Neurodiversity) Our world is changing. And so are we. From our commitment to zero-carbon flight (#ZEROe) to cleaning up space, sustainability is at the heart of our purpose. So what's your next change? We are looking for a Satellite Electronic Hardware Engineer to join a multi-disciplinary team with access to experts in all disciplines, and be responsible for developing some of the highest performing digital communication payload equipment available anywhere in the world as part of the rapidly expanding UK space sector. Reporting directly to the RF Product Implementation Team Lead you will have the opportunity to get involved in all phases of hardware design and development, but with a focus on hardware bring-up and supporting our Portsmouth based production facility. The Communication Products group is responsible for the development of Digital Processors and RF equipment for use in telecommunication Satellites. The processor functionality ranges from high capacity channelisers, supporting inter-satellite optical data links, to implementing cryptographic algorithms to protect the spacecraft. The Engineering team are developing world-leading digital signal processors and cryptographic equipment for modern communications satellites. Our products fly in a range of missions from Low Earth Orbit satellite constellations to space observatories beyond Earth orbit. We are currently expanding to meet increasing demand for more advanced technologies both on national programmes and for customers globally. HOW YOU WILL CONTRIBUTE TO THE TEAM Support design and validation of interfaces , considering switching speeds, pulses, rise and fall times, feedback and interference, impedance of devices, signal transmission. Support production activities of flight grade equipment through test and verification phases Support product assurance, being a proactive member of the team looking into quality issues, non-conformances, and investigations. Define performance criteria and define how to prove validation and verification of performance with test strategy. Understand circuit diagrams, iterating design where necessary due to circuit analysis outputs and PCB layout constraints. ABOUT YOU Ability to provide sufficient detailed data and information about system elements to enable consistent hardware implementation in accordance with the allocated requirements. Ability to master the design and analysis of RF &amp; digital electronic circuits using the latest digital design tools, including the design of printed circuit boards, logic circuits, schematic capture, signal integrity, timing analysis, worst case analysis, and environmental constraints. Knowledge of test and measurement techniques for RF &amp; digital circuits. Ability to verify and report on the compliance of a detailed design solution toward the baseline of validated requirements. Not a 100% match? No worries! Airbus supports your personal growth with customised development solutions. HOW WE CAN SUPPORT YOU Many of our staff work flexibly in many different ways, including part-time. Please talk to us at the interview about the flexibility you need and we'll always do our best to accommodate your request. Please let us know if you need us to make any adjustments for the selection process - you can share this with your Talent Acquisition Partner if you are invited to interview. Examples may include (but not exclusive to) accessible facilities; auxiliary aids; room layout, etc. Any information disclosed will be treated in the strictest confidence. #LI:MF1 This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A position of Export Control Officer (m/f) has just opened within Airbus Defence &amp; Space in Orléans, France. Context &amp; Environment: You will join the Export Control France organization (LOETF) as taking part of the France perimeter activities, reporting to AD HO Export Control France and local Export Control coordinator in Orléans. LOETF is covering Airbus Defence and Space SAS legal entities. You will be endorse the responsibility of Export Control Officer for the Military Air Systems activities, programs and contracts involving Airbus Defence and Space SAS You will be accountable as Export Control Officer of Export Control and French controlled domain compliance on the Military Air Systems' activities, addressing National/Domestic and International regulations wrt controlled activities, as Licenses or authorizations management, legal reports and monitoring You will be accountable representing Export Control organization in interface w/internal AD Business and Authorities (eg. MoD, Customs, ...) and engage company responsibility in its compliance w/laws and regulations in your scope of responsibility Especially you will be in charge to organize and act as focal point, as Export Control Officer of Military Air Systems, with the Business, Program and Services functions and the Group Export Compliance Network. You will also act in combination w/LOETF team members to support the integration and harmonization of the Compliance system within the LOETF. You will support any audit or control involving LOETF and act as a focal point for Military Air Systems in France. You will contribute to implement compliance with regards to controlled domain laws &amp; regulations within the French Services contracts and Programs ; you will interface with the French Air Force for any common topic in the frame of the Military Aircraft Services. Your Impact: You will have in charge to organize/follow the operational activities of the Export Control France organization in your perimeter of responsibilities, structure activities, set up processes and define objectives, aligned with AD HO Export Control France and the different Business organisations you will support. As a formal point of contact with the different Business organisations you will be also responsible for ensuring sound relations and proper information exchange with the different stakeholders to foster lean and competitivity and secure the Military Aircraft Services' Operations in ever tighter regulatory framework You will support Business program and activities, ensuring control wrt Go-Export/Go-Import, Classification, risk assessments induct synergies targeting operational gain introducing better Business regulation adoption, including trainings/pedagogic approach, and positioning Export Control France as a Business enabler. You will advise the Business on Export compliance and support any new Business' deployment, from the negotiation phase to the entry-into-service and the operational activities. You will be responsible of the common activities in France, developed and aligned with your counterparts in Germany, Spain and UK. You will present regular progress reviews to the HO Export Control France and have the duty to escalate any critical topics as needed wrt company compliance and undertake corrective actions at your level. You will be fully key contributor to the successful execution of ACE Program remediation activities to facilitate transverse activities in multi-functional team work (Export Control, Operations, Engineering, DTO/IM ...). To support the Export Control operational activities, you will use, maintain and update Information Systems including Export Control Information Specific: You will be declared as legal company officer, engaging AD France legal entity responsibility in your acts, decision and mission. This position requires French nationality and a security clearance or require being eligible for clearance by the recognized authorities. You will be work at a French Air Force Air Base and will also travel to MoD premises ; you will comply with their internal rules. Additional details and responsibilities about the mission: You will facilitate daily activities as contributing to LOET/LOETF team development in integrated way, whose members are located on the different AD sites in core countries. You will support AD strategy set-up, leading deployment and associated road maps with the key stakeholders You will drive and consolidate Risks &amp; Opportunities management, establishing industrial standards &amp; solutions when relevant This position will require a security clearance or will require being eligible for clearance by the recognized authorities. Required skills and Experience: Knowledge in Export Control, French regulations and Data Compliance Highly motivated and knowledgeable with military aeronautics and In-Service Support Work in a multifunctional/multicultural team and be embedded in Services' Operations Capable to deal with complex or stressed situations Knowledge in Information Technologies (IT), in particular in SAP, digitalization environments is an asset ; Well organized, good communication skills, autonomous and proactive. High degree of initiative, credibility, integrity, confidentiality and trust High Mobility required Negotiation level in English. This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. Airbus pioneers sustainable aerospace for a safe and united world. The Company constantly innovates to provide efficient and technologically-advanced solutions in aerospace, defence, and connected services. In commercial aircraft, Airbus offers modern and fuel-efficient airliners and associated services. Airbus is also a European leader in defence and security and one of the world's leading space businesses. In helicopters, Airbus provides the most efficient civil and military rotorcraft solutions and services worldwide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spaceopal (SPO) Ground Segment Engineer GMS (Galileo Mission Segment) is a member of the SPO Evolutions Team in the domain of Evolution and Engineering, under the Technical Direction. The main responsibility is to support the harmonized and coordinated System Engineering processes and activities related to the Galileo Mission Segment spanning over all Galileo infrastructure, sites and teams, in accordance with the indications of the Evolution Manager to whom he/she will report on the matter. The role requires liaising effectively across all SPO teams and with other GSOp teams, Design Authority teams (ESA and Industry) and Customer representatives (EUSPA). Processes and activities to be managed and overseen are primarily, but not limited to, the following:Managing the operations preparation and operational validation of new infrastructure deployments and related operational scenarios and products ensuring these can be declared fit for providing servicesPromoting and following-up engineering specifications and developments for ground infrastructure and service evolutions as originated directly from SPO or from GSOp partnersCoordinating GSOp teams’ support and synergies during System/Service verification / qualification campaigns as led by the Design Authority and/or final Customer.The above shall be ensured for the entire Ground Segment, but with specific focus on both the UNCLA and CLA Galileo Mission Services domains.The main tasks are:Oversee key ground infrastructure issues and configuration changes, promoting the related information transfer and awareness across all GSOp teams, up to the follow-on fix or change validation and related implementation into serviceIn the context of a Galileo Ground Infrastructure Release cycle, mainly pertaining to the UNCLA and CLA mission services domains:Coordinate the GSOp support to ground HW/SW infrastructure Segment/Element Design, Development and Verification and Qualification milestone reviews and campaigns prior to and as these reach deployment to Galileo sitesContribute to operational products’ development and validation planning for System and Service operations spanning across more sites and entitiesMonitor and steer the development and operational readiness of procedures and processesAct as lead technical interface towards the Customer and other stakeholders in the preparation and chairing of the related GSOp milestone reviewsManage the development and maintenance of the associated SPO deliverablesAccount on the readiness for service provision of the infrastructure releases In the context of System/Service Evolutions, manage the engineering specifications, monitor the follow-on development, lead the formal iterations with Customer and Design Authority for detailed Service Improvement Proposals by SPO or other GSOp partners’ operational and service teams, primarily in the UNCLA and CLA mission services domains Monitor closely and coordinate planning and support to System and Segment on-site I&amp;V campaigns (UNCLA and CLA) ensuring adequate monitoring and contribution by GSOp teams to the related outcomes for the benefit of Service provision Coordinate closely within the SPO Evolution team and with other SPO teams (e.g. Services, ILS, Security) while liaising in strict cooperation also with other GSOp partners as required Develop technical notes, plans and other documentation as required plus regular reports on status of activities Occasionally contribute, as and when required:to SPO technical proposal preparation processes liaising with SPO legal and contractsto the execution of other ongoing SPO contracts beyond the scope of GSOp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serco is a leading Space Services Provider with thousands of skilled resources that has supported over 50 space missions on behalf of more than 10 Space or Government agencies around the globe, including the ESA and NASA. Serco offers space capability across the full space lifecycle from satellite testing to Launch services, LEOP to spacecraft operations, space surveillance to data management, and supporting downstream application development. With over 55 years history in the space sector Serco is well placed to contribute to National strategies and New Space ventures who want to scale their businesses/organizations with skilled talent. For our client, European Union Agency for the Space Programme (EUSPA), we are looking for multiple Ground System Engineers for multiple locations in Europe: Prague (Czech Republic), Madrid (Spain), Noordwijk (the Netherlands), Fucino (Italy) and Toulouse (France). The activities below will include frequent access to EUSPA classified security areas and systems and will require the candidate to have a Security Clearance. Meetings to other EUSPA premises in Europe are foreseen. Package DescriptionWhat we offer if you join our amazing team: - Competitive Salary - Corporate Benefits Package - Company events - Access to training Main ResponsibilitiesAs Ground System Engineer you will concentrate your activities on the following: Support to design and development of Ground segment evolutions. Review of the technical documentation for the ground segment level activities and ensure consistency with system level documentation. Interface with industrial and/or institutional player and service operator for aspects related to operability improvements to be injected in future industrial contract amendments. Participate to the ground segment evolutions development reviews and CCB relevant to the tasks under her/his responsibility. Participate to the segment evolutions development reviews and CCB relevant to the tasks under her/his responsibility. Review of the technical documentation generated by technical assistance (SETA) team for aspects related to segment. Support the qualification/acceptance reviews of new releases of the Ground Segment up to services roll-out. Analyse CR/CCN relevant to ground segment and support CCBs. Contribute to the analysis of anomalies raised by the service operator and participate to the relevant anomaly review boards (UNCLA and CLA) for aspects related to ground segment. Support the preparation of requirements, launch, and management of the procurements for the ground infrastructure. Support the assessment of the performance of the ground infrastructure industrial contractors, through the review of the relevant KPIs and deliverables, and propose actions and improvements to address issues and opportunities. Prepare and support the development and deployment of ground infrastructure related to additional EU space programme components. Support requirements engineering performed at system level. Support maintenance of system architecture diagrams managed at system level. Successful CandidateDo you think you are the person we are looking for? See below what experience or knowledge you should bring: Master degree in Space Engineering. MANDATORY EXPERIENCE REQUIRED From 2 to 10 years of relevant experience in ground segment design and development in the space industry . Experience in GNSS in particular on Galileo and EGNOS is a strong asset. Experience with COMSEC items and PRS information is a strong asset. Experience with DOORS is a Plus. Availability to go on missions. ADDITIONAL NOTES Fluent in English, both written and spoken. SECRET UE/EU SECRET Security Clearance is mandatory. Candidates must be eligible to work in the EU. About The CompanyWhy should you join Serco ? At Serco not only is the nature of the work we do important, everyone has an important role to play. Meaningful and vital work - You'll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated. A world of opportunity - You'll be wholeheartedly supported with development and career progression Great people - You'll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion. About Serco Serco Europe has operated in the Netherlands and Spain over the past 30 years, mainly in the field of Space. Serco Netherlands and Spain have a long history of partnership and trust with the European Space Agency (ESA). In both countries, Serco is proud to deliver the highest calibre of people and services at ESTEC (ESA's technology and engineering hub) and ESAC (ESA's Astronomy and Science centre). At the heart of its business, Serco Netherlands and Spain source, train, care and support employees, enabling them to better pursue their dreams of working in the Space industry in excelling in the delivery of essential public services. Important: Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law. Applicants are reminded that they will be requested to produce such documentation during the recruitment process. Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization. Data Protection: For more information on how the personal data in your application is process, please see the link Data Protection policy here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DescriptionHead of the Navigation Support Office, Flight Dynamics Division, Ground Systems Engineering and Innovation Department, Directorate of Operations. You will report to the Head of the Flight Dynamics Division. The Navigation Support Office develops and runs satellite-based precise navigation facilities, while providing support to projects requiring precise navigation expertise from an operational point of view in the ESA matrix organisation, as well as services to internal ESA and third-party customers. It also promotes innovation in this field for ground segment precise navigation applications by participating in scientific and technical networks, both in Europe and worldwide, and conducts leading-edge activities. The Office operates a state-of-the-art Precise Navigation Facility located at the ESA European Space Operations Centre (ESOC). The Navigation Support Office carries out the following tasks: Management of a range of projects in the field of satellite-based precise navigation including reference frames and time reference, carried out on behalf of internal and external (third party) customers; Precise orbit determination to support navigation missions and third party customers; Maintenance and operation of the ESA IGS (International GNSS Service - Global Navigation Satellite Systems) Analysis Centre and the associated GNSS ground station network, along with participation in the management of the IGS and its research projects and working groups, as well as related international committees; Precise orbit determination and modelling in support of ESA and European missions ranging from LEO up to the Moon and involving on-board GNSS and other advanced tracking systems; Provision of leading ESA expertise in the field of space geodesy, including participation in the Global Geodetic Observing System (GGOS); Architecting the solutions needed to perform the above tasks and management of the Office's industrial services; Definition and management of R&amp;D under the relevant ESA technology programmes; Cooperation and interfacing with the other organisational areas, with the aim of fostering collaboration and collectively increasing overall benefits and ROI. DutiesYour tasks and responsibilities will include: managing the permanent staff of the Navigation Support Office (as line manager); managing the industrial service delivery contracts for both on-site services and procurement contracts; managing the third-party support contracts, ensuring user satisfaction, the fulfilment of contractual obligations and cost coverage; leading the definition, implementation, and maintenance of the Navigation Support infrastructure (hardware and software systems); consolidating matrix support for internal customers in different ESA directorates; increasing the Office's customer base. Technical competencies Precise navigation Precise orbit determination Space geodesy Reference frames and time reference Orbital dynamics Advanced estimation techniques Software engineering and configuration management Development of mission critical software systems Behavioural competenciesResult Orientation Operational Efficiency Fostering Cooperation Relationship Management Continuous Improvement Forward ThinkingEducationA master's degree in engineering, geodesy, physics or mathematics is required for this post, a doctorate is preferred.Additional requirementsYou should also have: the demonstrated capability to manage individuals or a team; the ability to organise their activities and ensure a motivating work environment; the demonstrated capability to execute technical leadership of a team of experts in a service contract, project or R&amp;D setting and also within international forums; strong leadership capabilities, with proven relationship management and communication skills; the ability to drive your team's performance, developing your people by encouraging learning, delegating responsibility and giving regular and constructive feedback; strong problem-solving skills to deal with day-to-day operational challenges, together with demonstrated planning and organisational skills; strong result orientation with the ability to set priorities and present practical solutions both orally and in writing; the ability to manage challenging situations proactively and constructively and to be customer focused; people management experience would be an asset, as would international experience, i.e. outside your home country, as well as experience in diverse functional areas relevant to ESA activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DescriptionMarket Analysis and Business Intelligence Engineer in the Future Programmes Office, Future Navigation Department, Directorate of Navigation (D/NAV). The satellite navigation sector has been evolving at an increasing pace over the last few years, largely triggered by the emergence of the many Global Navigation Satellite Systems (GNSS) providers from around the world, including Galileo, GPS, Beidou and Glonass, along with a surge of investment in the downstream application sector for location-based services. In order to define the strategy for the future programmes of the ESA Directorate of Navigation, clear market information and insightful business intelligence are essential to fully understand the underlying movements, trends, initiatives, players, and technology developments in competition between the global players. You will support the Directorate of Navigation in acquiring business intelligence and developing market analyses across the institutional, research and commercial space Positioning Navigation and Timing (PNT) activities worldwide, including socioeconomic impact analysis.DutiesReporting to the Head of the Future Programmes Office, your tasks and responsibilities will include: monitoring and assessing the navigation market evolution and changes expected in the coming years and decades, gathering data on trends and behaviours to help ESA define Europe's PNT strategy; following developments amongst GNSS providers, including satellite manufacturers and satellite service providers, and in satellite navigation markets on a daily basis; managing internal business intelligence tools to support the analysis of the changing environment, exploiting innovative ways to extract insights from large volumes of data that may be available from the collection, analysis, and dissemination of socioeconomic impact data; analysing navigation business trends and the needs of internal and external stakeholders through the systematic collection of information; producing concise, timely market intelligence products to inform ESA management and representatives of ESA's Member States, recommending business intelligence and programmatic solutions, both on a regular and ad hoc basis as required; building and maintaining a portfolio of European industries with relevant expertise in GNSS and future trends; managing socioeconomic impact studies in a harmonised and coordinated manner across the Directorate in support of Navigation programme proposals and reporting on the studies to the key stakeholders; managing technical, financial and business plan analysis of market opportunities for navigation in new vertical markets, including transport, energy and security; evaluating potential Future NAV programme actions and making recommendations for the purpose of ensuring the long-term growth of Future NAV and related ESA programmes; fostering close cooperation across the Directorate for the creation of future strategic programme lines, next generation navigation systems and innovative financing solutions; supporting the initiation of new NAV programme proposals in their market assessment; participating in ESA working groups and the preparation of strategic documents and coordinated programme proposals in collaboration with other directorates. Technical competencies Experience in market analysis and business intelligence in the European and global space and navigation sectors Strong analytical skills Experience in producing relevant products to meet stakeholder needs and deliver information Strong understanding of financial markets Behavioural competenciesResult Orientation Operational Efficiency Fostering Cooperation Relationship Management Continuous Improvement Forward ThinkingEducationA master's degree in a relevant domain is required for this post.Additional requirements Strong problem-solving skills, together with demonstrated planning and organisational skills; A strong result orientation with the ability to set priorities and present practical solutions both orally and in writing; Interpersonal and communication skills with the ability to work in a multicultural environment, both independently and as part of a team; Strong ability to work autonomously, effectively and cooperatively in a diverse, international team environment; Proactive attitude to solving problems and an interest in innovative technologies and methodologies. Direct experience of working within satellite navigation in particular and PNT in general would be of additional value. Extensive system engineering experience in Galileo, EGNOS or LEO-PNT and detailed Galileo system knowledge is an asset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our team and missionThe Radio Frequency Systems Division is responsible for space instrumentation and end-to-end communication systems, subsystems, and equipment and technologies, covering the following: Telecommunications system and subsystem design and validation. Radio navigation system and subsystem design and validation. Commercial ground and user segment products for navigation, telecommunications and remote sensing. Systems for tracking, telemetry and command (TT&amp;C) and payload data transmission (PDT) for communication, navigation, remote sensing and scientific applications. Security engineering, research and development in all of the above areas, and in general for any space applications, projects and missions. Systems testing for performance evaluation and validation. Laboratories to test/prove the soundness of concepts and validate them. This position will be shared between the Systems Security Engineering Section (TEC-ESS) and the Telecom Systems Section (TEC-ESC). TEC-ESS is responsible for the security engineering processes, techniques and technologies dealing with the security of systems from the end-to-end point of view, as well as the subsystems, the elements and equipment contributing or implementing specific detection/mitigation and protection measures, and the analysis and methodology for vulnerability assessments and standards, including system design tools and equipment. TEC-ESS provides functional support to ESA projects in the area of system security engineering and cyber security and carries out technological research and development (R&amp;D) in the field of security for space systems and missions. TEC-ESC is responsible for satcom system architectures and end-to-end communication systems, subsystems, equipment and technologies, covering in particular the following fields of technical competence: End-to-end performance analysis and follow-up of equipment design for critical communication aspects of satellite missions. Satellite access techniques. Networking, traffic engineering, protocol design and verification. Modulation, coding, synchronisation and signal processing techniques. Wideband digital techniques required by next generation satcom. Software tools for system and subsystem theoretical analysis and simulation. Economic evaluation and risk hedging of communications satellite missions. You are encouraged to visit the ESA website: https://www.esa.int/Field(s) of activity/research for the traineeshipThe rollout and adoption of fifth generation (5G) mobile networks has dominated the telecommunications sector in recent years. New advances in 5G standards are creating opportunities to integrate non-terrestrial networks (NTN) into an interoperable, standardised wireless experience across the globe. 5G technology is expected to benefit IRIS� (Infrastructure for Resilience, Interconnectivity and Security by Satellite), the new EU secure satellite constellation that aims to offer enhanced communication capacities to governmental users and businesses, while ensuring high-speed internet broadband to cope with connectivity dead zones. While 5G NTN standardisation is still evolving, various aspects related to secure development and deployment still need to be explored. As an Internal Research Fellow at the Radio Frequency Systems Division/Systems Security Engineering Section, you will have the unique opportunity to work on cutting-edge research on 5G/6G systems in general and 5G/6G NTN in particular, contributing to the related ongoing standardisation efforts and helping shape the future of modern, space satellite communications. In particular, your research activities will be to: monitor the latest standards on 5G/6G NTN and the relevant R&amp;D to assess the related security across all layers, while identifying and proposing solutions. perform, in a laboratory setting, experimentation and testing of various implementations to confirm the exploitation of identified security issues, identify their impact, and verify the effectiveness of the proposed security countermeasures. contribute to proposals for standardisation to the relevant forums. monitor current developments and implementations on the topic. Technical competencies Knowledge relevant to the field of research Research/publication record Ability to conduct research autonomously Breadth of exposure coming from past and/or current research/activities Ability to gather and share relevant information Behavioural competenciesResult Orientation Operational Efficiency Fostering Cooperation Relationship Management Continuous Improvement Forward Thinking EducationYou should have recently completed or be close to completing a PhD in telecommunications (preferably on 5G). Preference will be given to applications submitted by candidates who have received their PhD within the past five years.Additional requirements Good knowledge and understanding of security aspects, potential attacks and countermeasures in modern telecommunication systems Knowledge of modern applied cryptography Programming capabilities General interest in space and space research The working languages of the Agency are English and French. A good knowledge of one of these is required. Knowledge of another Member State language would be an asset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have an exciting (and challenging) opening for a cSOC - Security System Administrator in Darmstadt. Dynamic, Energetic, Entrepreneurial, Highly Motivated, Resilient ... If this describes you then we would love to hear from you :) Come and join talented diverse Serco team at the European Organisation for the European Space Operations Centre (ESOC) based in Darmstadt, Germany. European Space Operations Centre (ESOC), Darmstadt, Germany, tracks and controls European spacecraft, and develops and manages ground systems. As Europe's centre of excellence for satellite operations, ESOC is home to the engineering teams that control spacecraft in orbit and build the systems on the ground that support missions in space. More here Discover the offer below and click on 'Apply' if you know that your skillset and talents are a suitable match for this opportunity. Serco - The employer of choice for a career within the Space Sector. Serco are a trusted provider of services to National Space Agencies and the European Space Agency (ESA), we have over 40 years' experience supporting the space sector and providing services for all stages of our customer's space missions. Join our community of space specialists across Europe We are proud to support the European institutional Space landscape: Serco boasts an extensive network of Space professionals located at our offices in Darmstadt, Noordwijk, Frascati, Paris and Madrid, all within close proximity of our two largest space sector customers, European Space Agency/European Space Operations Centre (ESA/ESOC) and European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT). Supporting Women in Aerospace Diversity and Inclusion is extremely important to us. Supporting women's opportunities, development and visibility in the space sector is key and that is why we are proud members and supporters of Women in Aerospace Europe, a dynamic and global network supporting women's careers in Aerospace. Women in Aerospace Europe (WIA-E) - Supporting women in STEM (wia-europe.org) Package DescriptionWhat we offer if you join our amazing team: - Competitive Salary - Corporate Benefits Package - Support provided to EU Nationals requiring relocation - Information available upon request - Company events Main ResponsibilitiesFor our activities at the European Space Security and Education Centre (ESEC) in Belgium and the European Space Operations Centre (ESOC) in Germany, we are currently seeking to employ a highly motivated and enthusiastic Security System Administrator to work in an exciting innovative international environment. The role will be part of the ESA Cyber Security Operations Centre (cSOC), a new centre for cyber-security which will safeguard all ESA systems against malicious interference. As cSOC - Security System Administrator you will concentrate your activities on the following: Deploy and manage ICT solutions in the operational environment; Coordinate L1 maintenance of ICT infrastructure (servers, clients, network elements); Insert root password of system elements in case of NCR/CCR; Update root password of system elements after their single use; Admin CSOC assets; Manage the user access rights and contents of the assets Successful CandidateDo you think you are the person we are looking for? See below what experience or knowledge you should bring: Skilled in the use of Microsoft Office products Good knowledge of English both written and spoken Team player with friendly nature and a willingness to learn. ITIL qualifications an advantage. Strong service focus and customer facing skills. About The CompanyWhy should you join Serco ? At Serco not only is the nature of the work we do important, everyone has an important role to play. Meaningful and vital work - You'll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated. A world of opportunity - You'll be wholeheartedly supported with development and career progression Great people - You'll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion. About Serco Serco is responsible for the Network Operations Centre (NOC) services at the European Space Operations Centre (ESOC).The Network Operations Centre provides the 24h/7 remote operations services of the ESTRACK ground station network. As part of this service, Serco provides the first line Operations Control Centre (OCC) maintenance and operations services at ESOC. We manage the Operational Computer and Communications Infrastructure and ESTRACK ground stations for the European Space Agency at European Space Operations Centre (ESOC). This infrastructure supports operational and support systems including Ground stations, Mission Control, Flight Dynamics, Simulators, Mission analysis, general support, Firewalls, Network and systems management facilities and Operational communications network for data and voice services Important: Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law. Applicants are reminded that they will be requested to produce such documentation during the recruitment process. Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization. Data Protection: For more information on how the personal data in your application is process, please see the link Data Protection policy here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE DESCRIPTION SUMMARYThe Ground Systems Engineer will efficiently implement the ground systems and TT&amp;C infrastructure for SES GEO/MEO satellites, leading cross departmental teams to design/provide ground systems for the next generation GEO/MEO satellite networks to be implemented and operated for SES.In this position you will need knowledge of all aspects of systems, services, procedures, and any other constraints and experience as pragmatic systems engineer in the Radio Frequency &amp; Satellite Communications domain including TT&amp;C infrastructure, as well as effective and hands-on project implementer, owning all stakeholder relations.Ready to take on this challenge?You will be responsible for (this is not an exhaustive list):Lead the analysis, design and specification of SES’s Next Generation Teleport Communications Systems, Ground Monitoring &amp; Control Systems and any ground system that SES needs to fulfil their mission on a global basisEfficiently own, follow-up and support the implementation of the project, including:  requirements collection/definition (for all system aspects of the final function) project setup incl. budgeting and budget ownership during the project execution project/program management (including design/development or procurement) identifying the required resources (e.g. contractors and suppliers) in an integrated approach towards the internal or external stakeholdersThis includes the successful design and specification of e.g.: fix and mobile earth station and teleport/gateway solutions for video/data transmissions (includes: antenna, HPA, waveguide, switch matrix, converters, modulators, electrical &amp; optical inter-facility links) content/data/IF/RF spectrum measurement and monitoring and control systems site facility infrastructure or IT infrastructure as required for such ground based systemsPerform transmission analysis, in particular link/level budget calculations, block/design drawing and other detailed/complex studies of any SatCom system in support of business development, customer services. It includes the RFP documents generation as well or the preparation and execution of factory and site acceptance testsPerform and participate in ground system integration and test and operational validation of the ground segment, including generation of test plans and procedures and participation in system acceptance testing, ground readiness tests and network readiness testsIn the frame of cross sectional (or external supported) projects, lead expert team about project specific direction/objective setting, prioritization of tasks and technical/financial supervisionDeliver clear, concise, timely and constructive technical guidance and co-operative support to peers/customers in- and outside the company as an established expert in the satellite and terrestrial ground engineering field and act as a trusted representative of the team and the companyYour ProfileMust HaveA recognized Electrical/Telecommunications Engineering degree (BS/MS or similar) with a deep knowledge of RF and telecom theoryMinimum of 5 and no more than 7 years of “hands-on” engineering experience in satellite ground systems and worked successfully as Development or Systems Engineer and as Project ManagerHands-on experience in RF measurement techniques, test, and verification of ground stations, and expertise in auxiliary systems like Network (IP, switching, routing), Monitoring and Control systems, power, HVAC, and civil engineeringExperience with GEO, MEO, and/or LEO Satellite Ground Systems Proven experience with tools like Word, Excel, Excel VBA, Powerpoint, MS Project, Visio, AutoCad, Lotus Notes, Windows and LinuxWillingness to travel internationally up to 20% of the timeFluency in written and verbal EnglishNice to HaveSoftware development skills in Keysight VEE, Postgres SQL, C/C++, MathlabGood negotiations skills with commercial abilities Efficient analytical skills, coordination &amp; priority setting facility, problem solving, project &amp; time management, critical task decision making, as well as the ability to provide practical conclusionsWhat's In It For YouFlexible working policyBonus planComprehensive and competitive benefits planA range of wellness activities and employee assistance programs An employer that values all aspects of Diversity and respects every individual’s storyGOOD TO KNOWSES is an Equal Opportunity Employer, committed to workplace diversity &amp; inclusion. We do not discriminate on the basis of race, religion, color, national origin, gender, sexual orientation, age, marital status, veteran status, disability, or other characteristics protected by local, state, or federal law.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SES is recruiting a (Senior) Engineer, Quantum Communication who will support the preparation of technical proposals in response to international tenders and contribute to developing, implementing, and improving ground- and space-based services and systems.Key activities include the technical aspects of Quantum Key Distribution Networks (QKDN), both terrestrial and space-based, following up on the procurement of terrestrial and satellite units and subsystems from definition to launch and operations, as well as being the prime point of contact for subcontractors and the SES team regarding the technical matters of different Quantum-related projects.The (Senior) Engineer, Quantum Communication will be integrated into an international team of highly skilled engineers and gradually take on more responsibilities. Depending on the projects' nature and scope, he will either be in charge or supporting the below-listed responsibilities. One of the projects in which the (Senior) Engineer, Quantum Communication will work is EAGLE-1. SES is heading a consortium of industrial partners to create a quantum cryptographic communications system (EAGLE-1) under the agreement with ESA, enhancing Europe's leadership in quantum communications. It's a novel platform for distributed networks that provides a global service for next-generation encryption keys.You will be responsible for (this is not an exhaustive list): Deliver proposals, projects, and services to external and internal customers within the agreed budget, specification, and schedule, meaning:Perform technical analysis and design of Quantum Key Distribution Networks (QKDN), encompassing both terrestrial and space-based systems, at both the system and subsystem levels, with a particular focus on optimising interfaces among diverse internal and external entities.Conduct follow-up of procurement of QKDN equipment from specification to operations.Perform technical follow-up of procurement of satellite units or subsystems (e.g. payload) from definition throughout launch and operationsBe the prime point of contact for subcontractors and the SES team regarding the technical matters in various Quantum-related activitiesAnalyse and decompose the higher-level requirements into more detailed ones related to QKDN, with particular focus on space-based systems.Assess deviations from requirements and evaluate their impact at a higher level to ensure that a critical part of the system and mission objectives are achieved.Provide technical reports and analyses for the relevant unit or subsystem (such as design definition, design rationale, ICD, and technical budgets).Review the technical documentation (e.g., design documentation, test methods, reports) and assess the content's validity.Define comprehensive test plans and procedures to ensure the system satisfies its requirements, performs as intended; and assist with test operations. Handle budgets, handle procurements, manage installations and the operational handover of ground segment and communications systems.In the scope of the project, coordinate with other functions (Project Management, Project Control, Legal, Finance) for the transparent and effective realisation of assigned projects. In coordination with the Service Management team, prepare operational procedures and ensure the second Level Customer Support for the delivered system.Interface and engage with external partners (e.g. customers, Consortium partners and suppliers, vendors, etc.).Identify and develop new opportunities focused on the quantum communication infrastructure and other current and planned TechCom technology and service developments.Take an active part in SES TechCom's proposal activities through the provision of Technical Specifications, Statement of Works (SOW's) and Cost Estimations, in response to customer Requests For Information (RFI) and customer Requests For Proposals (RFP), whereby the activities could include the set-up, supervision and coordination of interdisciplinary proposal teams in the function of the technical and commercial proposal preparation and along contract negotiation process.Proactively scopes the technical solution required to address customer requirements, assesses customers' met and unmet needs, and recommends solutions that optimise value for both the customer and the firm.Awareness and evaluation of relevant technological developments, industry trends, emerging technologies, competitive factors, customer requirements, standardisation licensing and regulatory aspects.Your Profile Master’s Degree in Aerospace Engineering, Electrical Engineering, Electronics, or similar field (a combination of experience and education will be considered)Minimum 7-10 years of relevant professional experience Strong knowledge on Quantum Key Distribution Networks, and the security related to it.Good understanding of overall satellite design, operations, and testingGood understanding of space-based electronicsExperience with space systems engineering, including requirements development, system architecture design, and subsystem integration.Experience in requirement-based systems engineering.Experience in ESA projects / ECSS.Expertise in the following fields is considered an asset:Optical communicationsCryptographyTelecommunications networksSecurity domain, especially for space-based systemsMission analysis / STKFluency in English, any other EU language is considered an asset.Eligibility for ESA/EU/NATO SECRET clearances is necessary. Candidate must be willing to undergo a security clearance procedure as this position might require holding security clearance.Willingness to travel internationally.CompetenciesAbility to acquire detailed technical information within pre-defined deadlines and applying it.Strong analytical and problem-solving skills.Ability to integrate into and lead cross-functional, multicultural and/or virtual project teams.Proven communication skills to communicate complex information, concepts, or ideas in a confident and well-organised manner through verbal, written, and/or visual means. This also includes presentations in front of a larger audience, e.g. at conferences.Business-oriented and business proactive towards potential and/or current customers.Innovative spirit, proactive approach towards new technical solutions.Sense of initiative and a can-do attitude.Ability to work independently with minimal supervision and in a team.Embark on a career with us, where diversity isn't just a buzzword – it's our driving force. We are crafting a workplace mosaic that values every hue, background, and perspective. Join a global team where inclusivity sparks innovation, and individuality is not only embraced but celebrated. At SES we are committed to hiring inspiring individuals from all backgrounds. We take great pride in creating safe and inclusive processes and we support the recruitment, retention, and evolution of all employees irrespective of gender, colour, race, ethnicity, religion, sexual orientation, disability, veteran or marital status, background or walk in life.SES is an Equal Opportunity Employer and welcomes diversity!For more information on SES, click here.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join a team that is changing millions of lives.Transforming smiles, changing lives. At Align Technology, we believe a great smile can transform a person’s life, so we create technology that gives people the confidence to take on whatever’s next. We revolutionized the orthodontic industry with the introduction of the Invisalign system, and we have never lost sight of that spirit of innovation. Our diverse and collaborative teams are constantly pushing the boundaries of what’s possible. Ready to join us?About This Opportunity...We are looking for a Algorithm validation developer / SDET in an international company to build and improve proper test automation systems in algorithms team. The perfect match candidate will help to ensure the quality of our software products by designing, developing, and executing automated tests in Python, C++.In this role, you will…Develop and execute automated tests in Python and C++ for 3D modeling, computational geometry, machine learning based algorithms.Research and analyze the underlying problemsIdentify, research and track defects and issues Integrate test automation to CI/CD pipelineMaintain and update existing automated tests and testing toolsWork closely with other algorithm team members and other groups members such as software, firmware.In this role, you’ll need …5+ years of experience in developing and debugging autotests in C++ and Python (pytest)3+ years of experience in one or more of the following fields: 3D, Computer Graphics, Computer Vision, Machine Leaning, Image processing, etc.Experience of working with Git/BitBucket, Jenkins/BambooSc./BSc. in one of: Computer Science, Mathematics, Physics, Electrical engineering – advantageInquisitive fast self-learner.Good team player, open to new ideas.Sound like a good fit?   Great! Click the "Apply" link to let us know you are interested. Not the right fit? Don’t worry, Align is quickly growing so we are creating more opportunities to expand our Align family. Please consider joining our Talent Network to receive notifications about future jobs or sharing this opportunity with others in your network.     About Align  Align Technology is a publicly traded medical device company that is transforming smiles and changing lives. Our global team of talented employees develop innovative technology, tools and treatment options to help dental professionals worldwide achieve the clinical results they expect. Our digital ecosystem combines the power of technology to create beautiful smiles through the integration of AI and machine learning, digital imaging and visualization, biomechanics and material science to develop the Invisalign system, the most advanced clear aligner system in the world; iTero Intraoral Scanners and OrthoCAD digital services. Did you know? Align is the world’s largest manufacturer of custom 3D-printed materials.     By joining Align, you will be part of a global, fast-growing company in one of the most dynamic industries. Great people, innovative technologies, and meaningful work – these are just some of the things employees say make Align Technology a great place to work.     We respect your privacy. Please review our Applicant Privacy Policies for additional information.   Global Diversity StatementAt Align, we believe in the power of a smile, and we know that every smile is as unique as our employees. As we grow, we will continue building a workforce of diverse cultural backgrounds and life experiences and fostering a culture of open-mindedness and compassion for all our employees. We live our company values by promoting healthy people and healthy communities. All with the intent of changing millions of lives, one unique smile at a time.Equal Opportunity StatementIt is our policy to provide equal employment opportunity in all of our employment practices without regard to race, color, religion, sex, national origin, ancestry, marital status, protected veteran status, age, individuals with disabilities, sexual orientation or gender identity or expression or any other legally protected category. Applicants for positions with Align must be legally authorized to work in the country which they are applying for and verification of employment eligibility will be required as a condition of hire.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About PasqalPASQAL designs and develops Quantum Processing Units (QPUs) and associated software tools.Our innovative technology enables us to address use cases that are currently beyond the reach of the most powerful supercomputers; these cases can concern industrial application challenges as well as fundamental science needs.In addition to the exceptional computing power they provide, QPUs are highly energy efficient and will contribute to a significant reduction in the carbon footprint of the HPC industry.At the Quantum Register team, we push the limits of the performance of the QPU’s register enabling scalability and high repetition rate.Job DescriptionAs part of our strong growth, we are recruiting a Algorithm Developer to reinforce our Register team. In this context, your main missions will be :Lead the work on algorithmic solutions for various applications and systemsDesign, implement and optimize complex algorithms.Ensure the efficiency, reliability, and scalability of algorithmsCollaborate with software and hardware engineers to integrate algorithms into larger systemsBibliography work on the many classes of algorithms implemented – stay updated with advancements in the technologyTesting algorithms for effectivenessEffective documentation and presentation of the algorithmic solutions and methodologiesMaintain and improve algorithms coded in our softwareWork with other members of the team and with other teams to design algorithms to meet a needOptimize the speed performance of algorithms and softwareAbout YouTechnical skills:Proven experience as algorithm developer; machine learning knowledge is highly appreciatedProficiency in Python; C++ in a plusStrong knowledge on math, physics, engineeringVersion controlReporting resultsWorkplace skills:Autonomy and organization are highly appreciatedAnalytical thinkingTime management - meet deadlinesExcellent problem-solving skills and logical reasoningCommunication and listening skillsProven ability to collaborate with multi-disciplinary teams – teamworkProficiency in written and spoken English. French is a plus.What We OfferBeautiful brand new offices in MassyA flexible rhythm of face-to-face work (2-3 days of telecommuting per week)Type of contract : CDI A dynamic and close-knit international teamA key role in a growing start-upFree time to train and go to conferences/meetupsRecruitment processAn interview with our talent acquisition of 30'.An exchange with Bruno, Engineering managerA meeting with the team in our beautiful officesAn offer !PASQAL is an equal opportunity employer. We are committed to creating a diverse and inclusive workplace, as inclusion and diversity are essential to achieving our mission. We encourage applications from all qualified candidates, regardless of gender, ethnicity, age, religion or sexual orientation.About us:Full stack, Neutral Atom, Quantum Technology, global leaderEnabled by Nobel Prize-winning technologyFrench Tech 2030 LaureateGrowing global team made of Quantum experts and scientists, quantum software and hardware engineers and deeptech enthusiastsIn direct competition with the world's biggest players (Google - Microsoft - IBM - Amazon)Privately owned140 million Euros raised (equity) to dateOur business:PASQAL designs quantum processors (QPUs: Quantum Processing Units), manufactures the hardware, and develops the associated softwareQPUs are highly energy-efficient which will help to significantly reduce the carbon footprint of the HPC industryWe manage use cases for our customers currently beyond the reach of the most powerful supercomputers                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices, Inc. (NASDAQ: ADI) is a global semiconductor leader that bridges the physical and digital worlds to enable breakthroughs at the Intelligent Edge. ADI combines analog, digital, and software technologies into solutions that help drive advancements in digitized factories, mobility, and digital healthcare, combat climate change, and reliably connect humans and the world. With revenue of more than $12 billion in FY22 and approximately 25,000 people globally working alongside 125,000 global customers, ADI ensures today’s innovators stay Ahead of What’s Possible.Analog Devices (NASDAQ: ADI) designs and manufactures semiconductor products and solutions. We enable our customers to interpret the world around us by intelligently bridging the physical and digital worlds with unmatched technologies that sense, measure, and connect.The Digital Healthcare business group seeks an Algorithms Software Engineer to support the development of novel biosensor systems. These biosensor systems combine electrochemical/optical sensors, microfluidic components, measurement electronics, and software to perform highly accurate and reliable biomarker measurement for diagnostic and therapeutic applications. Data processing and sensor fusion algorithms are a key component of these systems.The successful candidate will participate in the development of a novel algorithm for a key biosensor project. This algorithm will ultimately be deployed in a healthcare application. They will have a key role in supporting sensor data analytics and developing automated scripts to run sensor performance analysis on large datasets. They will have an active role in sensor development, providing key insights from new sensor data to support sensor design team. They will prototype algorithms for a biosensor, exploring new techniques for improving measurement performance and reliability.Roles &amp; ResponsibilitiesEssential:Engage with project stakeholders to define requirements for data analytics and algorithm scripts.Develop python scripts for postprocessing raw sensor data collected from sensor experiments and perform data analysis which generates insights required for optimizing sensor design.Engage with sensor design team to understand sensor operation and how the data should be interpreted.Investigate new signal processing and algorithm techniques for improving sensor reliability and performance.Develop scripts for implementing real time sensor algorithm prototype in python.Support software team with porting algorithms to the target embedded system.Desirable:Articulate analysis progress and results verbally and in writing – establish document control and traceability of the software in development and production.Participate in lab processes and procedures including lab and tool maintenance, and data/control systems.Qualifications &amp; Requirements.Required:BEng or Higher in Electrical Engineering, Software Engineering, Computer Science, physics, mathematics, or a related discipline.Experience developing production algorithms for sensing applications.Proficiency using Python Libs for data analysis (e.g. Pandas, NumPy, scikit Learn).Knowledge of using signal processing techniques for transforming/optimizing raw sensor data.Strong software development aptitude.Knowledge of software version control (GIT) and software test methodology and tools.Some basic knowledge &amp; interest in learning the physics underpinning sensor operation.Strong teamwork, interpersonal and communication skills coupled with a demonstrated ability to work at a high level of performance both independently and in teams.Dependable and willingness to learn new skills.Practical experience working in an engineering or scientific laboratory.Advantageous:Experience running data analytics on medical data sets.Experience developing software or algorithms for a highly regulated market. (e.g. automotive, aerospace, healthcare).Knowledge of Machine learning algorithm.Embedded development knowledge For positions requiring access to technical data, Analog Devices, Inc. may have to obtain export licensing approval from the U.S. Department of Commerce - Bureau of Industry and Security and/or the U.S. Department of State - Directorate of Defense Trade Controls. As such, applicants for this position – except US Citizens, US Permanent Residents, and protected individuals as defined by 8 U.S.C. 1324b(a)(3) – may have to go through an export licensing review process.Analog Devices is an equal opportunity employer. We foster a culture where everyone has an opportunity to succeed regardless of their race, color, religion, age, ancestry, national origin, social or ethnic origin, sex, sexual orientation, gender, gender identity, gender expression, marital status, pregnancy, parental status, disability, medical condition, genetic information, military or veteran status, union membership, and political affiliation, or any other legally protected group.Job Req Type: ExperiencedRequired Travel: Yes, 10% of the timeShift Type: 1st Shift/Days                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OverviewThe Algorithm Engineer is responsible for the design evaluation and implementation of complex algorithms for product development.What You Will Be DoingWork with product management, program management, and/or application engineering to understand product requirementDevelop and document more routine algorithm ideasDesign, implement, and evaluate routine algorithms for product developmentAssist with creating cost effective scalable systems and develop innovative algorithm solutionsResearch algorithm improvements for speed and/or accuracy and implement into product designTest and assists in the verification and validation processWork with development teams to integrate algorithms into final release of softwareWhat Will Make You SuccessfulGraduate degrees in Computer Science, Mathematics, Electrical Engineering, or Physics3 or more years of experience in developing analysis algorithms, demonstrating creativity and ability to translate algorithm ideas into production quality codeExperience with full software test and release process, including some issue tracking system and some source control systemAble to thrive in a fast paced, deadline driven environmentGood collaboration skills, applied successfully within team as well as with other areasDriven to learn and stay current professionallySpecialization desired in one or more of segmentation, machine learning, mesh algorithms, GPGPUExperience with code optimization and impact of algorithm variation on performanceGood communication skills, can explain algorithms wellGood working knowledge of multiple coding languagesKnowledge of data structures, algorithms and design patternsHighly organized and experienced at successfully multi-taskingSelf-motivated with the ability to manage projects to completion with minimal oversightUp to 5% travel time requiredOr an equivalent combination of education and experience sufficient to successfully perform the principal duties of the job                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortil is an engineering company founded in 2009. We support our partners in the success of their technical projects in various fields such as Industry, IT or Healthcare.Today we are more than 2,100 employees spread over 13 countries. Working with us means working in an ambitious team, within a multicultural and international context!Our ambition is to contribute to building a more responsible, communal and inclusive world for our employees and clients.We are currently looking for a Analogic Designer to support one of our project in Bologna.Responsibilities: The Candidate inserted in the Electronics design department will be responsible for the design, development, testing and validation of electronic air conditioning cards (managed by microcontroller/microprocessor) for data acquisition mainly coming from sensors. He will also have to deal with the design, development, testing and validation of power distribution boards and modules (50÷ 500W low voltage DC).About you: Master's degree in Electronic Engineering or similar; Experience in the architectural definition of components; Drafting of electrical diagrams and selection of components; Knowledge and use of laboratory instruments for electronic tests (oscilloscope, power supply, etc.); Experience testing and debugging electronic boards; Good knowledge of the English language;Next StepsSomeone from the Talent Acquisition department will contact you to schedule an initial HR interview. If successful, a second interview will be conducted to validate your technical knowledge.In case of a positive outcome from the technical interview, there will be a last qualification meeting with the Client.If the final outcome is positive, we will discuss our proposal with you. Alternatively, if the outcome is negative, we will share our sincere feedback! Why Fortil?Although we currently find ourselves in a significant phase of expansion, the high standards of our projects and recruitments remain as demanding as ever. Quality will always take precedence over quantity, as we prefer excellence to ease!We hope to become the largest independent engineering group in Europe, working to serve future generations. To do so, our operational model is based on four fundamental aspects:Profitable performanceExpert engineersEfficient organisation Social responsibilityApply and join us to become part of a model that is out of the ordinary!                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elympics is at the forefront of revolutionizing the gaming industry with our innovative Web3 Competitive Gaming Protocol. We are dedicated to bringing a new type of game experience to blockchain ecosystems by focusing on social games with token competitions. Our mission is to decentralize esports, making it easily accessible to both players and developers alike.By introducing the Compete-to-Earn model, Elympics allows players to earn rewards through skill-based competition in zero-sum economies, where one player's gain is another player's loss. This groundbreaking approach not only enhances the gaming experience but also creates new opportunities for monetization.Elympics offers a comprehensive toolkit (SDK) that empowers developers to seamlessly create web3 games with on-chain security and competitive-to-money features. Our platform ensures multiple levels of security, including server-side architecture and Proof-of-Game files stored on the blockchain, providing a secure and fair gaming environment.Join us in shaping the future of gaming with Elympics, where innovation and competition meet on the blockchain.The Animator/Designer role requires an independent, versatile specialist capable of creating videos, animations, and graphics for Elympics social media. This mission is centered around the Elympics platform, a dynamic arena for competitive, skill-based multiplayer games designed to captivate a diverse audience across different demographics. You'll collaborate closely with our tech geniuses and business experts to ensure your art not only looks great but also aligns perfectly with our marketing strategies. Supported by our innovative marketing team, this role offers excellent conditions for developing creative ideas.We offer a B2B contract with a competitive salary range of 6 600 - 10 000 net + vat PLN or $1 650 - 2 500 monthly, depending on your experience.We are working from our office in Warsaw, which provides the core environment for our work. You have the flexibility to work remotely once a week. 🌍Your Responsibilities IncludeCreate engaging videos, animations, and graphics for social media platforms (LinkedIn, Instagram, X, Facebook).Collaborate with the marketing team to ensure visual content aligns with campaign goals and target audiences.Ensure visual content seamlessly integrates with game mechanics and enhances user experience.Maintain and develop the visual identity of Elympics across all channels, ensuring brand consistency.Keep abreast of the latest design trends, tools, and technologies to bring fresh and innovative ideas.Actively seek and incorporate feedback from team members to refine and improve designs.Manage multiple projects simultaneously, meeting deadlines and maintaining high-quality standards.We're Looking for Someone WithAt least 2+ years of experience as an Animator / Designer or a similar position Knowledge of Adobe After Effects (for the needs of creating short 2D animations for social media and animation elements for video (e.g. opening boards);Very good proficiency in Adobe Premiere ProBasic knowledge of Adobe Lightroom and Adobe After EffectsBasic experience in animation and 3D modellingFilm and foto editing skills Basic knowledge of sound editingExcellent planning and communication skills Communicative English (min.B2)Polish language at a level which allows contact with the team (B1/B2)Nice to Have: 👌Driving licenseExperience in gaming, Web3, or new technologies industries.Keen interest in and ability to quickly learn new technologies.Wondering who you'll have the chance to chat with during the recruitment process?If your resume catches our eye, expect a phone call from our HR team.A meeting with Ula– Recruitment Specialist, Agnieszka – Graphic Designerka, and Marta– Head of Marketing.Either an offer to join us or a phone call with feedback to thank you for participating in the recruitment process.We're excited to chat, get to know you better, and explore the potential for our collaboration! 😊                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job DescriptionSandoz is going through an exciting and transformative period as a global leader and pioneering provider of sustainable Biosimilar and Generic medicines.Now as an independently listed company, Sandoz aims to increase its strategic focus, operate with greater agility, set clearer business objectives, enhance shareholder returns, and strengthen its culture for us, the Sandoz associates. This is an exciting time in our history, and by creating a new and ambitious path, it will provide a unique opportunity for us all, both professionally and personally. Join us as a Founder of our ‘new’ Sandoz!As part of the Security Architecture &amp; Advisory team, the Lead Application Security will play a critical role in ensuring the security and resilience of Sandoz's applications. You will shape and own Application Security process within Sandoz and ensure that robust security measures are adopted throughout the application development lifecycle. You will act as a point of contact for internal community (developers, project managers, application owners etc.) to which you will provide guidance on application security aspects and at the same time you will own relationship with external party providing application security assessments as a service to Sandoz. Your expertise in application security will help us protect sensitive data, identify vulnerabilities, and mitigate security risks.Your Key ResponsibilitiesYour responsibilities include, but not limited to: Work with various stakeholders across the organization to ensure security of applications throughout their lifecycle considering industry best practices, regulatory requirements, and organizational needs. Steer external partner on conducting comprehensive security assessments of applications, identifying vulnerabilities and recommending appropriate remediation strategies. Collaborate with development teams to integrate security controls and measures into the application development process effectively. Define and enforce application security policies, standards, and procedures, ensuring compliance with internal and external security requirements. Stay up to date with emerging security threats, vulnerabilities, and industry trends related to application security and assess their potential impact on Sandoz. Provide guidance and support to development teams on secure coding practices, secure configuration management, and vulnerability remediation. Act as a subject matter expert and provide guidance on application security to stakeholders, management, and executives. Stay abreast of industry standards and frameworks such as OWASP, SANS, and NIST, and incorporate relevant practices into the application security program. Develop and maintain strong relationships with key vendors and strategic external partners.RequirementsWhat you’ll bring to the role:  University degree or equivalent experience in computer science, engineering, information technology or other relevant field(s). Fluent in written and spoken English. Proven experience working as an Application Security Architect or in a similar role, with a focus on securing applications. Strong knowledge of application security principles, including secure coding practices, input validation, authentication, access controls, and encryption. Experience with application security standards and frameworks, such as OWASP Top Ten, SANS CWE Top 25, and secure software development lifecycle (SDLC) methodologies. Hands-on experience with security testing techniques ideally including code review, vulnerability scanning, and penetration testing. Experience working in a global company and designing / deploying solutions at scale. Excellent negotiation, communication, and interpersonal skills, ability to develop influential relationships with different stakeholders across all levels.Desirable Knowledge and experience of industry standards such as ISO 27001, CIS Controls, NIST, Cyber Essentials is a plus. Certification or accreditation in Information Security (CSSLP, CISM, CISA, CISSP, etc.,) and/or relevant vendor specific certifications is a plus.You’ll Receive Monthly pension contribution matching your individual contribution up to 3% of your gross monthly base salary. Risk Life Insurance. 5-week holiday per year (1 week above the Labor Law requirement). Cafeteria employee benefit program – choice of benefits from Benefit Plus CZ in the amount of 12,000 CZK per year. Meal vouchers in amount of 116 CZK for each working day (full tax covered by company). Multisport Card. Car Allowance.Why Sandoz?Generic and Biosimilar medicines are the backbone of the global medicines industry. Sandoz, a leader in this sector, touched the lives of almost 500 million patients last year and while we are proud of this achievement, we have an ambition to do more!With investments in new development capabilities, state-of-the-art production sites, new acquisitions, and partnerships, we have the opportunity to shape the future of Sandoz and help more patients gain access to low-cost, high-quality medicines, sustainably.Our momentum and entrepreneurial spirit is powered by an open, collaborative culture driven by our talented and ambitious colleagues, who, in return for applying their skills experience an agile and collegiate environment with impactful, flexible-hybrid careers, where diversity is welcomed and where personal growth is encouraged!The future is ours to shape!Commitment To Diversity &amp; InclusionWe are committed to building an outstanding, inclusive work environment and diverse teams’ representative of the patients and communities we serve.Join our Sandoz Network: If this role is not suitable to your experience or career goals but you wish to stay connected to hear more about Sandoz and our career opportunities, join the Network here: Sandoz Talentpool (novartis.com)#Sandoz                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Wheely, we're a luxury brand on the outside, but a technology company on the inside, building the world's first Luxury-as-a-Service. We believe that time is the ultimate luxury and that modern engineering and design, combined with the industry's highest standards of service, can unlock an unparalleled experience for our customers. From on-demand chauffeuring, concierge service, to our best-in-class app, we exist to help our clients reclaim their time by connecting them to the places and people that matter.More than 40% of our team works in product &amp; engineering, and both Wheely founders are technical. We are also unapologetically design centric. It's not about A/B testing one hundred shades of blue, but crafting the perfect shade. We also take a privacy-first approach and believe that where people travel, and who they travel with, is at their discretion.We have refused government requests to hand over journey data, and are currently developing bespoke technology to put our clients' movements beyond even our own reach.Backed by leading global investors, Wheely is poised for the next phase of our journey. Over the next 5-10 years, we plan to offer a full portfolio of luxury services and expand into more international cities, building on our success in London, Paris, and Dubai.We at Privacy Squad protect our customer's data by any means necessary. We redesign and shape our system using modern approaches so that sensitive data is secure from the moment it originates. Daily, we think about what data we store, who can access it, whether access is justified.Security is part of our long-term goals. That's why we constantly improve our tools for detecting anomalies, fighting bots, and designing our systems so that the communications of our apps and services are protected from adversaries.We use a product approach and data to ensure the customer experience doesn't suffer during the process.What you will be doingDesign and implement features to improve the security of our systems and protect customer's privacyDevelop tools for monitoring and filtering malicious requestsMake changes to architecture that ensure sensitive data is well protected and access to it restricted and monitoredFoster a culture of writing secure code by helping and educating engineers outside of the Privacy squadRequirements3+ years of experience developing scalable and reliable backend servicesProficiency with Go programming languageIn-depth knowledge of common databases and messaging frameworks like PostgreSQL/MongoDB/Redis/Kafka/RabbitMQ, etc.Basic knowledge of encryption and cryptography is a plusExperience in building and maintaining authentication and authorisation systems is an advantageKnowledge of English at Upper-Intermediate level and aboveOur current stack: Go microservices, shrinking Ruby monorepository, Node.js, MongoDB, PostgreSQL, RabbitMQ, Thrift, Redis, AWS, Terraform, K8S, Jenkins.What we OfferWe expect excellence from our people — both on the road and in the office. In return, we offer flexible working hours, stock options, and a range of exceptional perks and benefits.Office-based role located in NicosiaCompetitive salaryEmployee stock options planMedical insurance, including dentalLife and critical illness insuranceLunch allowanceRelocation allowanceBest-in-class equipmentProfessional development subsidiesWheely is an equal opportunity employer. We celebrate diversity and are committed to creating an inclusive environment for all employees.All of your personal information will be collected stored and processed in accordance with Wheely's Candidate Privacy NoticeWheely is an equal opportunity employer. We celebrate diversity and are committed to creating an inclusive environment for all employees.All of your personal information will be collected stored and processed in accordance with Wheely's Candidate Privacy Notice                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job description We are currently looking for an experienced, proactive and detail-oriented engineer to join our team in a new Orion Innovation office in Vilnius, Lithuania as C++ developer. We are looking for a self-motivated contributor with C++ fundamental knowledge and understanding of mobility, communication and collaboration domains.Overall responsibilities:· Write clean, documented code following best practices· Investigation and resolution of issues and defects· Root cause analysis and documenting the findings.· Work independently and collaboratively with a motivated team· Provide helpful and clear feedback to peers in code reviews· Take part in the entire project lifecycle from requirements development to deployment· Build automation/CI, deployment, and support· Be a part of SCRUM teamRequirements:· 3+ years of experience as C++ engineer· Experience of low-level software development in C/C++ for boot code, drivers and internal data communication over I2C, SPI, etc.· Understanding of DSP software development for audio signal processing.· Understanding of software development for external data communication protocols, USB, etc.· Experience of embedded OS and Bluetooth standard related solutions would be considered as advantage· Work experience in Agile environment· Written and Spoken EnglishWe offer:· Employment in a stable, well recognized international company· Competitive salary and benefits· Tolerant and diverse environment· A friendly team of professionals· Flexible working hours· Medical insurance· Training programs and excellent travel conditions· Variety of recognition opportunities                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our vision is clear. Arming every company with the insight to ensure that every piece of software built or bought is safe. And every threat is detected. An innovative vision requires innovative talent to help forge this transformational journey at ReversingLabs. ReversingLabs is recognized by the cybersecurity industry as a leader in innovation. Investment from Crosspoint capital of $56M will support our growth and innovation efforts to build scalable, automated, and intelligent software security solutions.ReversingLabs is looking for people interested in joining our advanced cyber security team. You will be involved in unraveling the secrets of the most advanced cyber security threats in the world. Daily challenges you will be solving include designing algorithms and methods of content inspection. Your code will analyze millions of files and extract all the hidden information they carry.The team you will be working with develops our advanced file decomposition engine called TitaniumCore.This highly modular static file analysis engine performs the tasks of file type identification, content extraction, validation, and classification. Our solution focuses on a variety of file types. We inspect archives, firmware, installation packages, documents, emails, and desktop, mobile, and web applications.As a member of our team, you will investigate new file formats and extend our engine in order to support the inspection of those files. You will work on improving our engine by integrating new technologies into the processing pipeline. Most crucially, your work will help convey the complexities of static file analysis to teams of security researchers and incident responders.In our work, we utilize the latest C++ compilers (C++17 standard), employ safe coding practices, use static and dynamic code analysis tools, write tests, and perform regular code reviews.Some of the key aspects of our technology are performance and execution on a diverse set of platforms. The team is invested heavily in improving these key aspects while responding to the ever-changing threat landscape.ResponsibilitiesDesign, build, and maintain efficient, reusable, and reliable cross-platform C++ codeIdentify bottlenecks and bugs and devise solutions to these problemsHelp maintain code quality, organization, and automatizationTake responsibility for troubleshooting, researching, diagnosing, documenting, and resolving technical issuesRequirementsKnowledge of C ++Knowledge of STLKnowledge of best secure coding practicesKnowledge of algorithms and data structuresDesired SkillsExperience with Boost C++ librariesExperience with newer C++ standards (C++11/14/17)Experience with parsing file formats or network protocolsExperience with cryptography and compressionBenefitsHybrid or fully remote work options (paid accommodation &amp; transportation to Zagreb during onboarding for remote employees)Flexible working hoursGenerous compensation and a bonus system based on annual performanceHefty personal education budget and possibility to attend leading conferences and seminars in the fieldCompany library and possibility to order books of choice via AmazonPermanent contract in a fast-growing global company with Fortune 500 &amp; governmental agencies as clientsChallenging projects in a dynamic, collaborative teamOpportunity to work on innovative solutions in malware analysis &amp; software assurance, crafted in our very own Croatian R&amp;D centerGreat career advancement opportunities - clear goals &amp; internal promotionsEmployee referral bonus program{{{{:}}}} HRK 8,000 net for junior position, HRK 16,000 net for mid to senior positions, and HRK 20,000 net for principal/managerial positionsMultisport card, newborn child allowance, rent-cost and 3rd pillar pension benefitsFully covered car garage in Radnička for all employees                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your main mission will be to build a back-end system that the Compliance team will use to streamline and automate processes. You will work closely with Compliance, Finance, and the VP of Engineering.Job Description:Develop and maintain a Compliance back-end that satisfies the Compliance and Finance teams' needsTechnically this includes defining the architecture and data model to be implementedFunctionally, this relates to identity verification, transaction monitoring, on-chain analysis, and risk managementEnsure resilient connectivity with third-party applicationsDocument and maintain the technical documentationProvide support to users to fix or resolve unplanned behaviorRequirements3+ years of Senior Engineering experienceGood knowledge of NestJS, JavaScript, TypeScript and Node.js, React and VercelPrevious experience in a regulated financial institution, preferably in cryptoUnderstanding of AML principles from a technical point of viewGood communication skills, both technical and with stakeholdersMust be able to work independentlyProfessional proficiency in EnglishBenefits Work From Home: Enjoy the flexibility of working from the comfort of your own space Flexible Hours: We prioritize results over rigid schedules, allowing you to manage your time effectively Dynamic and Ambitious Multicultural Environment: Thrive in a diverse workplace where innovation and collaboration flourishJoin us and be part of a team that values your independence, creativity, and professional growth.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are looking for Researchers and Engineers to join a 6-month internship with the team based in Bristol that is researching the future of security technologies and techniques to make computing devices and data more secure for users and enterprises alike.This internship is an exciting opportunity to participate in world-class research, to experience how industrial research is conducted to deliver customer value, and of course to do it all within the collaborative culture at HP. As a company HP is dedicated to attracting diverse talent from all backgrounds and ethnicity.During your internship, you will work in the research team exploring novel hardware and software architectures designed to improve cyber-resiliency of the next generation of computer systems. Areas of interest include isolation, intrusion detection and threat mitigation mechanisms rooted in robust hardware components. Practically, the work includes low-level system software (such as hypervisor, OS kernel, and embedded RTOS components) and hardware such as Intel &amp; ARM CPUs along with APUs, MCUs and FPGAs.Security of computing devices such as PCs, laptops and printers, is an important topic for HP, and HP Labs has a long history of driving innovation in this area through the use of hardware, firmware &amp; system software based solutions. Examples of our work in this space includes using monitoring techniques to protect low level firmware and strengthening the security of the Linux kernel.Join us in our new office in the heart of the bustling Bristol city centre, within walking distance from the old town cafes and restaurants, in the middle of the city’s thriving startup and academic tech ecosystem. We are looking for curious and creative research-minded individuals who enjoy teamwork, have an excellent grounding in computer science and engineering, theory and practice, and are relentlessly excited to have impact and lead with innovation to solve real world challenges.A salary shall be paid to interns.Responsibilities For The Computer Systems Security Research InternDevelop understanding of state of the art in the relevant areas of researchNavigate uncertainties in the research while working with the team to identify novel technological pathsWork with the research team to design a solution which addresses the limitations of the existing approaches, and also be able to progress the researchDemonstrate feasibility of solution (e.g., paper, prototype, etc.)Mandatory skills and experience required for the Computer Systems Security Research InternStudying towards a Bachelor’s, Master’s or Doctoral university degree in the relevant topicsKnowledge and practical experience in programming (C, C++, Rust, Go)Theory and practical experience with computer system architectureExcellent written and verbal communication skillsKeen to learn and able to progress on live projectsAdvantageous Skills And ExperienceEmbedded systems, instrumentation, measurement and running experimentsSignal processing, data analyticsLow level software and firmware development (OS kernel, hypervisor, compiler)Trusted computing, code security and forensicsDigital integrated circuit design (SoC, FPGA, VHDL, Verilog, synthesis, emulation)Applied and theoretical cryptography                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL Supply Chain is the leading provider of supply chain management services across the globe, serving the consumer goods, technology and industrial products sectorswith a variety of contract logistic solutions. These include distribution centre management, global inbound management of components to production lines, co-packing, and inventory management.We are looking for aCustomer Service Representativeto join us in our Budapest Command CentreKey responsibilitiesTo professionally and efficiently interact by customer queries: mainly in written form by e-mails, orders, online chats, occasionaly phone calls, logging customer orders and following them up in SAP To provide professional technical support to consumers based on strong product knowledgeTo use customer's and DHL owned systems according to the customers work instructionTo follow up emails, queries/orders/deliveries according to the customers work instructionTo investigate complex cases, shipments, requests, tracking the complaints and claims from the start till completion, facilitating to find a solution for escalations, challengesTo participate in the invoicing, billing process connected to the ordersTo communicate with central/local/satellite warehouses, escalates issues to higher levelTo support warehouses, customers in a professional and friendly mannerRequirementsSecondary educationVery strong customer focusGood communication skillsPC literacy with good working knowledge of Microsoft applicationsSAP system knowledge is not a must, but an advantageTeam work and dynamic approachWhat we offerDetailed training on customers and productsPossibility to improve your knowledge and skills in the field of order handling, reporting, professional customer careDynamic and diverse teamStable multinational company backgroundModern working environmentInternal development opportunitiesExtra benefits (discounted fee to Gilda Max network, All you can move offering, fruit days)DHL is an equal opportunity employerCafeteria system even during probation period                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT TO EXPECT DAY TO DAYWe are looking for a highly skilled and motivated Cyber Security Engineer to join our team. The ideal candidate will be involved in defining and implementing the company's internal and external security policies. She/he will be involved in the software development and operations lifecycle, with a particular focus on ensuring high standards of cyber security. RESPONSIBILITIESDefine and monitor security requirements for applications and infrastructures.Implement DevSecOps strategies to integrate security into the software development lifecycle.Define policies and best practices to ensure high quality standards in terms of IT security and put in place strategies and infrastructures to ensure their enforcement.Provide cyber security training and support to colleagues.Take part in code reviews and static analysis to identify and mitigate security vulnerabilities.Manage and monitor systems and applications to grant secure and reliable operations.Grant high security protection standards of information and technology assets. WHAT YOU WILL NEED TO SUCCEEDThe ideal candidate should have a minimum of 5 years of experience working in certified IT security contexts (e.g. ISO 27001).Proven knowledge of OS security for both Windows and Linux.Proven knowledge of major security systems, including firewalls, data protection controls, and encryption.Experience in vulnerability monitoring and analysis, including reporting.Experience in managing, implementing, and maintaining security infrastructures.Knowledge of relevant laws, best practices, and technologies related to cyber security and data protection.Advanced knowledge of networking, network security and related network hardware (Fortinet, Cisco, and Mikrotik).Experience in scripting and automations using languages like Python, Bash, and PowerShell.Experience with automation systems (e.g. Ansible), container systems (e.g. Docker), virtualisation, and hypervisors (e.g. Proxmox and/or VMware). QUALIFICATIONSMaster's degree in computer science, computer engineering, or related field. DESIDERABLEHands-on experience with Git, code building and CI/CD tools (e.g. Jenkins).Hands-on experience with monitoring and log management tools such as ELK Stack, Loki, etc.Expertise in cloud infrastructure management tools (e.g. AWS, Azure) Knowledge of secret management systems, secret sharing (e.g. Hashicorp Vault). WHAT WE LOOK FORWe seek out individuals who are always looking for new ways to improve or do things differently.We expect you to be proactive and be prepared to share open and honest feedback regularly.We know that working collaboratively will help us reach our shared goals faster, so we always look for similar individuals who will be willing to help others.We like people to ask questions and listen to the answers so we can all learn and improve.We expect individuals to take responsibility for their actions and make decisions based on what is right for people, profit and planet. If you are passionate about the convergence of Finance, Technology and Purpose Driven Investments to create positive societal and environmental impact and you’re looking for a challenging and rewarding career, take the first step toward joining our team. COMPANY DESCRIPTIONPoppi Technologies is purpose driven investing hedge fund operating solely to effect positive change across various sectors and industries. We are proudly at the forefront of the AI revolution in finance with the sole purpose of generating positive impact by improving the way financial decisions are taken, and investments managed.We create and apply new technologies and techniques to push the boundaries of what’s possible. So, we are continuing to build our team of financial experts, AI innovators, and professionals from a range of backgrounds who are united by our passion for creating innovative solutions that make a difference.We believe that success is only so when having a direct impact on the territory. For this reason, we strategically decided to invest in the Southern Italy and place the Metropolitan City of Bari our centre of excellence to entangle the future growth of our company with the growth of this area. BENEFITSAttractive SalaryOn-site parkingFlexible / Hybrid WorkingWellness programmesFood Vouchers EQUAL EMPLOYMENT OPPORTUNITY STATEMENTIndividuals seeking employment at Poppi Technologies are considered without regards to race, colour, religion, national origin, age, sex, marital status, ancestry, physical or mental disability, gender identity, or sexual orientation.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARIAD delivers automotive software across multiple vehicle segments for the Volkswagen Group including high-volume, premium, and luxury vehicles. With our new SDV Hub, we are venturing out and creating software-defined vehicles (SDV) of the future that are transforming the way our Group conceptualizes, designs, and engineers our vehicles. Together with experts from Audi and Volkswagen, the SDV Hub will support the development of an SDV architecture and software platform that will enable the ecosystem in a collaborative and fast-growing environment. For the core of the SDV Hub, we are looking to work with technical experts across all levels that are ready to rethink the way we do software for our future cars.YOUR TEAMThe software security architecture team at CARIAD focuses on providing guidance and frameworks for software development and integration using a security-by-design approach. They shape both vehicle software security architecture and integration collaborating in cross-functional agile teams across various expertise domains. An integral part of their work involves prioritizing cybersecurity to ensure the security of software solutions in the dynamic digital landscape. The team implements cutting-edge security measures, stays informed about emerging threats, and collaborates with experts to fortify software against potential risks. By incorporating security practices, they contribute to creating a secure foundation for software solutions in the automotive domains.As a Security Test Engineer within the Software Architecture team, you would be responsible for conducting comprehensive security testing on software systems to identify and rectify vulnerabilities. You would collaborate closely with development teams, employing advanced testing methodologies to ensure the robustness and resilience of CARIAD's software architecture against potential security threats.WHAT YOU WILL DOConduct comprehensive security testing, including penetration testing, vulnerability assessments, and ethical hacking, to identify and address potential security risks in automotive systems.Develop detailed test plans outlining the scope, approach, resources, and schedule for cybersecurity testing activities, aligning with automotive industry standards.Select and utilize specialized security testing tools to automate and enhance testing processes, ensuring the robustness of the systems from codebase to reference cars.Design automated test systems for security penetration testing through a fuzzing processWork closely with software development and homologation teams to understand system architectures, application designs, and potential security implications.Ensure that automotive applications and systems comply with established security standards, industry best practices, and regulatory requirements.Generate detailed reports highlighting identified vulnerabilities, their potential impact, and provide recommendations for remediation.Document testing procedures, methodologies, and findings to contribute to the cybersecurity knowledge base.WHO YOU AREBachelor's or Master's degree in Cybersecurity, Information Technology, or a related field.Proven experience in cybersecurity testing with a focus on automotive systems.Familiarity with automotive industry standards and regulations related to cybersecurity.Experience with Python and test frameworks (openHTF, Pytest,etc.)Experience in using security testing tools and methodologies.Strong understanding of network security, cryptography, and secure coding practices.Excellent communication and collaboration skills, with the ability to work in a global, cross-functional environment.Industry certifications such as Certified Information Systems Security Professional (CISSP) or Offensive Security Certified Professional (OSCP) are a plus.NICE TO KNOW Remote work optionsTemporary work from abroad in selected countriesFlextime / optional working hoursCompany pension planAnnual professional developmentSabbatical option up to 6 months30 days paid + 10 days unpaid leavePossibility for VW Group car leasingIf you have further questions about the candidate journey at CARIAD, please contact us: careers@cariad.technology                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job DescriptionThe application specialist contributes in the investigations related to the suitability and technical feasibility of future or newly implemented solutions for specific clinical indications by the target customer group. Additionally, the application specialist supports the knowledge dissemination of our products and solutions and follows up on released software products. Furthermore, the application specialist supports the integration and validation of new implants and prosthetics into the various software libraries.Solution Research Given the correct solutions, explore and document the limitations/boundaries of them andpotential improvements with attention to the business impact for the company and the customer Based on prototype algorithms, investigate and document the potential/limitations and therobustness of those with attention to the business impact for the company and the customer Support the integration of new implants and prosthetics into the various software libraries. Run the validation process of the software projects, including software and related catalogsvalidation as well as software integration and system validation.Product Follow Up Support Alpha/beta tests from a point of view of technical suitability and root cause analysis ofthe findings Contribute in root cause analysis of 2nd level support cases and field complaints Facilitate the knowledge dissemination of our products and solutions Monitoring and executing offered services: e.g. data processing and design activitiesProcess development / improvements Understand the project management and software development processes and contribute ideason systems and methods to impropve the efficiency or deliverables of the processes.Job RequirementsCritical Knowledge and Qualifications: Master degree Fluent in English, good oral and written communication skills Any other language is an advantage.Critical Skills/technical Know-how Understanding of the field of Digital Dentistry solutions Quality minded, focused on details Understanding of end-user profiles and behavior in using the software and the integrated products and devices. Pragmatic problem solver with attention for detail and completeness Strong skills in cross-functional thinking Entrepreneurial mindset and out-of-the box thinking to make innovation happenOperating CompanyNobel BiocareEnvista and its family of companies (Envista) will not accept unsolicited resumes from any source other than directly from a candidate. Envista will consider unsolicited referrals and/or resumes submitted by vendors such as search firms, staffing agencies, professional recruiters, fee-based referral services and recruiting agencies (Agency) to have been referred by the Agency free of charge and Envista will not pay a fee for any placement resulting from the receipt such unsolicited resumes. An Agency must obtain advance written approval from Envista's internal Talent Acquisition or Human Resources team to submit resumes, and then only in conjunction with a valid fully-executed contract approved by the Global Talent Acquisition leader and in response to a specific job opening. Envista will not pay a fee to any Agency that does not have such agreement and written approval in place.Envista is a global family of more than 30 trusted dental brands, united by a shared purpose: to partner with professionals to improve lives. Envista helps its customers deliver the best possible patient care through industry-leading dental consumables, solutions, technology, and services. Our comprehensive portfolio, including dental implants and treatment options, orthodontics, and digital imaging technologies, covers an estimated 90% of dentists' clinical needs for diagnosing, treating, and preventing dental conditions as well as improving the aesthetics of the human smile. Envista companies, including DEXIS, Kerr, Nobel Biocare and Ormco, partner with dental professionals to help them deliver the best possible patient care.Envista became an independent company in 2019. We brought with us the proven Envista Business System (EBS) methodology, an experienced leadership team, and a strong culture grounded in continuous improvement, commitment to innovation, and deep customer focus to meet the end-to-end needs of dental professionals worldwide. Envista is now one of the largest global dental products companies, with significant market positions in some of the most attractive segments of the dental products industry. For more information, please visit www.envistaco.com .                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectrum Search is seeking a talented Blockchain Rust Engineer for an instantly recognizable Web3 company.Join a dynamic team of engineers committed to advancing the capabilities of a cutting-edge Wallet Core library. Your work will be pivotal in enabling developers to seamlessly integrate blockchain technologies into their applications, driving broader adoption and improving user experiences.Key Responsibilities:Feature Development: Research, design, and develop new blockchain features in Rust.System Architecture: Create robust architectures ensuring seamless integration with various blockchains and third-party systems.Rust Migration: Transition existing C++ code to Rust for improved security, robustness, and memory safety.Code Quality: Maintain high code quality through thorough testing and high code coverage.Qualifications:2+ years of experience in Crypto/Blockchain development using Rust, GO, or C++.Strong background in software development with knowledge of common algorithms and data structures.Expertise in writing efficient and safe code.Familiarity with modern development practices, including automated testing and continuous integration.Preferred Skills:Experience with cryptography/security.Experience with iOS/Android/Rust/Wasm.Keywords: Blockchain Rust Engineer, Rust Blockchain Developer, Blockchain Developer, Rust Engineer, Crypto Rust Engineer, Rust Software Engineer, Rust Blockchain Specialist, Blockchain Software Developer.                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role : Business Unit Director - BeNeLux M/F/XResponsibilities :  As a Business Unit Director for BeNeLux, you will build a complete new business area and be in charge of its sustainable growth.You will be responsible for all the pillars: strategy and positioning of your scope, commercial development, team recruitment, development of new offers, RFP response processes, financial and administrative management, team management and development   This area is yours, you will develop it autonomously, it is up to you to work and present the business plan to be achieved, we will validate together the means necessary to achieve it  You will be the leader of your area, but you will participate in the strategic, organisational and structural decisions of the Ekkiden Group. You will strive to ensure good practice in terms of values, KPIs and methodology  You will contribute to the group's knowledge management and share your experience, especially with the youngest within the Backpack, our internal training programme   What we are looking for : In terms of experience we are looking for someone who can bring their experience from a business development role in a technology consultancy firm to grow with us We are looking for someone with professional expertise and knowledge of the BeNeLux market A personality! Someone who is self-motivated, tenacious, with a crazy desire to get involved, make a difference and be part of an ambitious entrepreneurial project within a passionate and motivated team Someone with a spirit of conquest, who wants to work in an evolving, dynamic and demanding international environment, who is not afraid to push their limits or share their ideas  Someone who wants to develop in a meritocratic environment, at Ekkiden we have a culture of results!  Someone who can identify with our 6 values, which are very important to us: boldness, intrapreneurship, trust, ownership, entrepreneurial responsibility and resilience Last but not least, we are a consulting group, so it is necessary to have good communication skills, to have a strong team spirit, be able to interact with different people and to be sensitive to the challenges of technology and innovation Fluent in Dutch and English. Business French would be an advantage. We offer :  🤝 Join us at the right time to make your mark in a fast-growing organisation and help us grow even more🚀 Various missions and projects that will allow you to have a real impact on the company👍 The ability to work autonomously and to drive new initiatives✨ Career paths adapted to the personality of our teams, both in terms of role and location💸 A result oriented culture with high performance bonuses❤️ Health insurance (Alan)A question? Let's talk about it!                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are looking for an Antenna &amp; Sub-Millimetre Waves Technician to join our Akkodis Aerospace team, working onsite at the European Space Agency in the Netherlands. Akkodis has proudly supported the Aerospace &amp; Defence industry in the Netherlands for decades. Our partnership with the European Space Agency (ESA) has been one of the many success stories allowing our people to expand their career horizons. Akkodis experts are contributing to some of the most important technical advances in Aerospace and Defence which impact the way we live our lives today, through specialised engineering expertise and other required skillsets. This could be your future. Become part of our successful team!General tasks to be performed: Preparing and monitoring Research and Development activities in the field of Antennas. A diverse range of tasks will have to be carried out by the contractor within the above activity domain, encompassing hardware, software and system aspects.Provide antenna technical support to ESA projects. This includes “in-house” design and tradeoff studies to support both developments and reviews. Tasks will require the analysis and design of reflector antennas and arrays and the calculation of the interference effects between antennas and the spacecraft structure.Note that for these two areas, the work package will support all antenna development stages from design, analysis up to measurements.To successfully perform the above mentioned tasks, the following background / experience is required: Bachelor degree with at least 4 years of proven industrial experience in the field.General background in antenna technologies and experience in antenna testing (preferably in the space domain).Good working knowledge of Near and Far field antenna measurement chambers/systems.Self-capability for all aspects of testing and integration of antenna systems.Experience in maintenance and calibration of general RF antenna laboratory test equipment and instrumentation.Good knowledge of Matlab, CAD software and instrument control software for automated testing (considered as an asset).About ESA-ESTEC The European Space Agency (ESA) has sites in several European countries. The European Space Research and Technology Centre (ESTEC), has grown into ESA’s largest establishment and the technical and organizational hub of Europe’s space sector. Missions designed and tested at ESTEC are circling Earth, have landed on planetary bodies and have probed far into the Solar System.The infrastructure and equipment assembled here, together with the expert knowhow of its 2800 personnel, make ESTEC a unique resource for Europe. The work done here by teams skilled in every aspect of engineering for space has enabled the creation of novel communication, navigation and information services, creating new jobs and growth while improving the lives of European and world citizens.Please send your CV to recruitmentaerospace@akkodisgroup.com as soon as possible                                                                Show more                                                                                      Show less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cyber Security Engineer will be responsible for the management and application of security measures to ensure confidentiality, integrity and availability of Galileo Operated Infrastructures according to applicable security requirements and risk analysis.  This includes in particular:Definition, maintenance and execution of Cyber Security Processes and Procedures to support Security Vulnerability and Patch Management processesContribution to Vulnerabilities Impact AssessmentContribution to the definition of Security Monitoring ProceduresContribution to the definition of Security Awareness Programs for OperatorsProvision of expert advice in the analysis of security events and incidentsManagement and control of the implementation of Functions and Technical Interfaces in compliance to the Cyber Security RequirementsOperational interface to Customer Security Teams and Bodies for Cyber Security activitiesSupport of the Security Accreditation Processes as a consequence of the above activitiesThe Cyber Security Engineer will work as part of an integrated team of security specialists. The working position is in GCC-I, Fucino, Italy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A position for a Data Transport / Data Integration Specialist has just arised within Airbus Defence &amp; Space in Toulouse. The successful candidate will join TDDT Data Transport. As a specialist for Data Transportation you will take responsibility for the transport and transformation of data from multiple data sources including Business Systems, Engineering Systems, Machines, Drones, etc. using Middleware Technologies. The successful candidate will work alongside a multi-disciplinary team of experts working in classical and agile project management methodologies. Depending on the projects the applicant will have an end-to-end accountability for the development and the service. You will make the data fly inside Airbus Defence &amp; Space and also from and to outside partners, customers or governments! Your working environment: Global capital of aeronautics and European capital for space research, Toulouse is a dynamic city of the southwest of France served by an international airport. Ideally located between the Mediterranean sea and the Atlantic ocean and close to the Pyrenees mountains, it offers plenty of options for outdoor activities! How we care for you: Financial rewards: Attractive salary, agreements on success and profit sharing schemes, employee savings plan abounded by Airbus and employee stock purchase plan on a voluntary basis. Work / Life Balance: Extra days-off for special occasions, holiday transfer option, a Staff council offering many social, cultural and sport activities and other services. Wellbeing / Health: Complementary health insurance coverage (disability, invalidity, death). Depending on the site: health services center, concierge services, gym, carpooling application. Individual development: Great upskilling opportunities and development prospects with unlimited access to +10.000 e-learning courses to develop your employability, certifications, expert career path, accelerated development programmes, national and international mobility. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking. A. Responsibilities The jobholder is responsible of all the integration activities related to his/her area/technology of expertise associated to Data Management Use Cases at company level He / she is acting as single point of contact for the project manager who has requested data integration support He / she is taking the lead on the activities related to data integration from design to deployment, including the testing in integration platform of the provided solution as part of the User Acceptance Tests of the Project. He / she is setting-up &amp; engaging close collaboration with associated Operation Manager to guarantee that the new data integration will be properly maintained and is in line with current performance/committed SLA He / she shall ensure close communication &amp; relationship with Digital Project Managers jointly with Product Owner B. Dimensions Interface with Project Managers inside Digital Organization, with data architecture team and with business when is needed for clarification purposes Close collaboration with TDD actors such as Data Governance and Data Engineers. C. Main activities The mission will include the following activities identified at the time of launch but not limited to: Integration activities(design, configure, develop, test and deploy) inside his/her product to accomplish requests from the Product Owner Define the integration tasks associated to new development related to new Use Cases or needs raised by associated Product Owner Supporting UATs and Deployment activities associated to new developments in close alignment with Service Delivery Manager Support Data Integration Platform performance analysis D. Outputs Information Flows up to date with the new data flows developed and deployed inside Project ARD or dedicated document if needed Data Integration Platform SLR up to date Configuration Mgt documentation UATs deliverables in alignment with Project Manager Deployment plan and associated acceptance criteria Data Transport technologies metrics Technical advice on architecture and integrations at task level E. Skills and competences Mandatory Over 5 years of relevant work experience as a Data Integration Engineer Over years of hands on experience in building ESB and/or ETL/ELT solutions/integrations for large scale data pipelines Experience in handling data from a variety of sources like csv, json, xml, relational databases and so on Experience in databases (relational and NoSQL) and Infrastructure management at administration level Deep experience in SQL and NoSQL languages programming Deep experience in programming languages related to data integration (Python, Flask, Node, JavaScript, Express ...) API based services technologies experience would be a plus Experience in developing technical and support documentation, translate business requirements and needs into reporting and models Knowledge on DevOps methods and tools (some experience would be a plus) Languages: English and French at negotiation level Nice to Have Project management with key focus on agile methodologies Basic knowledge about Data Analytics Basic experience in IT Service Management principles Cloud integration experience Not a 100% match? No worries! Airbus supports your personal growth with customized development solutions. Take your career to a new level and apply online now! This job requires an awareness of any potential compliance risks and a commitment to act with integrity, as the foundation for the Company's success, reputation and sustainable growth By submitting your CV or application you are consenting to Airbus using and storing information about you for monitoring purposes relating to your application or future employment. This information will only be used by Airbus. Airbus is committed to achieving workforce diversity and creating an inclusive working environment. We welcome all applications irrespective of social and cultural background, age, gender, disability, sexual orientation or religious belief. At Airbus, we support you to work, connect and collaborate more easily and flexibly. Wherever possible, we foster flexible working arrangements to stimulate innovative thinking.</t>
   </si>
   <si>
     <r>
@@ -372,130 +576,28 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">EMTensor GmbH is developing novel biomedical imaging modality utilizing RF-technologies at frequency band around 1GHz. EMTensor GmbH is privately owned MedTech located in Vienna, Austria (www.emtensor.com). The primary focus of the Company is on human brain imaging and diagnostic of brain disorders.     The Company is seeking to recruit an experienced RF electronics engineer with a proven track record and preferably a PhD in microwave / radiofrequency electronic engineering to work as part of our team in Vienna, Austria. The ideal candidate must have hands-on experience in electronic RF engineering and R&amp;D of modern RF/MW devices and technologies at frequency band around 1GHz is desirable.     Role and responsibilities:        Architect novel RF-based biomedical imaging systems     R&amp;D, testing and optimization of RF electronics for novel biomedical imaging systems     Breadth of RF design experience     Innovation and effectiveness in designs produced     Ability to act as lead engineer for new RF product design     Strong practical RF design skills (ability to design, make and test circuitry)     EM simulations using state of the art EM simulation tools     Support the experimental and test activities in the lab     Take part in FDA/CE certification and commercialization of novel biomedical imaging technology and scanners     Provide output and results according to EMTensor’s Quality Management       Essential Qualifications and experiences:        Experience in design, testing and optimization of RF electronics     Experience in commercial electromagnetic simulation tools such as HFSS, CST.     Experience in RF and/or communication system development     Practical lab experience in RF system verification (VNA, spectrum analyzer, oscilloscope utilization etc).     Experience working with EMC and safety certification test labs is a plus.     A passion for hardware development, including working in a fast-paced environment and hands-on design and development.     Interpersonal skills and abilities to communicate and work in a team environment across all levels of the organisation.     Understanding of quality standards and FDA/CE Quality System Regulations is a plus.       Education:        MS +10 years of experience or PhD + 5 years of experience in EE and/or RF engineering        Please send your CV along with a cover letter to </t>
+      <t xml:space="preserve">GomSpace Luxembourg SARL is looking for a DevOps Engineer. GomSpace Luxembourg is providing intelligent operations and management of satellite constellations. This by introducing a new software platform and service model to disrupt the market for satellite operations in the same manner as GomSpace’s has disrupted the space segment. GomSpace is a nanosatellite specialist established 10 years ago, listed in Stockholm and with a very good track record in the market for nanosatellites.We are looking for a DevOps Engineer to join the growing software innovation team in Luxembourg. You will be responsible for the DevOps infrastructure and processes of the GomSpace Constellation Operations platform, a modern highly scalable cloud-based end-to-end solution to operate the space and ground segment of satellite constellations. You will work in a multinational team, supporting both the development and the operational teams in their Continuous Integration (CI) and Continuous Deployment (CD) lifecycle of GomSpace platform. This role is based in Luxembourg.GomSpace offers employment in a dynamic growing and internationally oriented company with many challenging and exciting activities. We are an agenda-setting player in the nanosatellite business and expect our employees to contribute with dedication, skills and the will to implement our mission. We are ambitious and believe that nanosatellites and our efforts will make a difference to society in the future. We have an informal working culture with transparent communication and an organisation built up by multidisciplinary skills and engineering passion which we believe are essential to help our customers achieve their goals in space. </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">elke.ebner@emtensor.com</t>
+      <t xml:space="preserve">Setting up and maintaining the CI &amp; CD infrastructure and processesDocumenting and enforcing the CI &amp; CD processesWork collaboratively with the development, testing and operational teamsOptimizing the DevOps processes and tools to reduce the operational costs and shortening the development loop.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">As part of its growth and acceleration plan, Kylii Kids is recruiting a Business Developer for the playground and leisure sector to continue promoting its interactive treasure hunt Kylii Quest in Germany, the Netherlands, Belgium and Nordic countries Kylii Kids is the leader in interactive children's play and spaces. We transform physical spaces into places for families to experience. We support our customers in the design and deployment of interactive games for children to attract, entertain and keep families coming back to their establishments. We have deployed more than 1,100 solutions in 20 countries in the leisure, restaurant, retail and petrol station sectors. YOUR PROFILE :   You have a minimum of 2 years' higher education (BAC + 2) with a commercial/sales background.  You speak German, English and French (not mandatory)  You have good listening and negotiating skills  You enjoy BtoB development and sales  You have professional written and spoken skills  You have a good command of office automation tools (CRM, google suite)  You have good interpersonal skills and are a team player  YOUR MISSION :  You will work under the responsibility of the CEO and will be responsible for the following tasks:   To promote and sell the Kylii Quest interactive treasure hunt to the leisure sector in Northern Europe.  Prospect and win new customers in the leisure sector (indoor and outdoor play parks)  Increase sales with existing and prospective customers by organizing on-site demonstrations with management support  Draw up sales proposals, negotiate contracts and renewals  Carry out regular reporting using CRM  Develop and participate in operational marketing initiatives  Job Type: Full-time Schedule:   Monday to Friday  Language:   English (Required)  German (Required)  Work Location: In person Expected Start Date: 09/09/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At Mango we inspire and we unite through our passion for style and culture. We are present in more than 115 countries and our online presence extends to more than 110 countries. Our team is made up of people of 112 nationalities and 78% of them are women.        We are looking for     ASSISTANT STORE MANAGER (35 hours - Anvers)     WHAT WOULD YOUR DAY TO DAY BE LIKE AT MANGO?        You will support the store manager in the effective running of the shop by delivering improved sales performance, ensuring excellent customer service and ensuring the team performs daily tasks in a positive environment.          We are hiring for our Flagship store in Belgium!              Must be eligible to work in Belgium.          Key Responsibilities:        Plan, implement, and monitor measures required to meet and exceed sales targets     To possess a good product knowledge and fashion awareness.     To know and apply the visual merchandising standards of the brand and of the season.     Ensure and collaborate in the implementation of merchandising standards and optimize sales space to maximize profitability     To act as a role model and promote effective communication within the sales team.     To recruit, train and ensure the seamless integration of new employees.          What are we looking for?        Relevant experience in managing and visual merchandiser in a dynamic shop within the fashion retail industry (At least 1 year)     Customer and image-oriented, having product awareness and commercial orientation     Excellent command of English - written and spoken     Motivation and passion for managing people by example     Sales oriented person organized and tenacious, problem solver, able to work well under pressure and adapt to change.          WHAT MAKES US SPECIAL?      Discount on all our lines (Woman, Man, Kids, Teen &amp; Home).    Uniform per season.    Meal vouchers.    Constant development opportunities with varied challenges that generate on-the-job learning.    Close, inspiring, and ambitious work environment.    You will be part of a leading company in the fashion industry, dynamic and in full innovation.     You got it?   We like you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who is Kadonation?        Kadonation was founded in 2016 and is today one of the fastest growing companies in Belgium.  Our scale-up is a dynamic player in the employee and corporate gifts market. Unwrapping the impact of gifting, that’s our motto. And it’s also the reason we built Kadonation Select: an intuitive platform that allows organisations to set up a well-thought-out recognition policy in no time. Our software takes away the administrative burden that comes with employee gift-giving. In short: more appreciation, less hassle!  Want to know more about our story, the core values we strive for and the mission we’re working on with around 40 talented individuals? Read more here.            We’re looking for…        … an Account Executive to approach prospects and convince them of the power of our Kadonation Select platform. You’ll take ownership of the Dutch-speaking market within the Benelux and focus on expanding the pipeline and closing deals.  What are your responsibilities?               You’ll be responsible for lead generation and sales of our B2B platform in Flanders and the Netherlands.       You’ll ensure your own stable flow of outbound leads, follow them up and also be responsible for closing the deals.       Even after the deal is closed, you’ll continue to maintain a relationship with the customers in your portfolio, focusing on up- and cross-selling to increase recurring revenue.  Clear communication and administration in the CRM.  You’ll be an ambassador for Kadonation, which means introducing yourself to the customer with pride!       Focus: B2B sales at companies in Flanders and the Netherlands with 100‑1000+ FTEs.       You’ll work from our office in Ghent (2d/w) and visit customers on site where necessary.                   What is your profile?          You’re a real hunter and get a thrill out of closing deals with new customers.  You’re a go-getter who is not easily discouraged. You know that your strength lies in a consistent approach.  You can tell a story with passion and conviction and have the necessary sales techniques to close a customer.  Strong team spirit, goal-oriented and transparent communication.  You have a proactive attitude and a results-oriented mindset.  You’re a team player and have a positive mindset.  You work independently and use your time efficiently.       You have at least 2 years of experience in B2B sales, preferably with proven successes in cold acquisition. Do you have more experience? That’s certainly something we’re interested in.       Your Dutch is perfect and your English is good.  You have a bachelor’s degree or equivalent experience.       Your experience in sales with HR or marketing as the target group is a big plus.               What can we offer you?             An enthusiastic team and a friendly office environment where even your dog is welcome.              The chance to experience the growth of a scale-up up close and to put your stamp on it.              A 38-hour week with 26 days of leave and, in addition to a competitive salary, a flexible salary package. Including, for example, a company car, meal and eco vouchers, training and workplace budget, plus hospitalisation insurance. And of course, there’s also an extensive gift policy for your professional &amp; personal milestones, but that probably doesn’t come as any surprise!              A good work – life balance, with flexible hours and the option to work from home (up to 3 days a week).               Why join Kadonation?        At Kadonation we connect the energy and ambition of a start-up to the expertise and know-how of a scale-up. You’ll be working in a dynamic tech company with an open feedback culture and space for your own initiative and ideas. And above all: we like to make you feel truly appreciated.  Do you also believe in our product? Apply now to join our sales team!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About AppTweak    AppTweak is the trusted app store acquisition partner for mobile leaders worldwide; we provide innovative solutions that help apps and games optimize their app store presence and increase downloads. For 10+ years, companies including Uber, Adobe, and Zynga have trusted our unique metrics, actionable insights, and expertise to make informed decisions and achieve long-term success in the competitive mobile market.    Driven by data science and a human-centered approach, AppTweak is recognized for its innovative features and rapid growth. We have been awarded “ASO Tool of the Year” and “App Data Platform of the Year” by the App Growth Awards, and have been four times recognized as one of the fastest-growing technology companies by Deloitte Belgium.    Today we are a team of +100 people based in 8 offices around the globe (Brussels, San Francisco, Bengaluru, Tokyo, Seoul, London, Montreal and Beijing) supporting more than +2,000 customers worldwide. We’re gearing up for fast growth and are looking for ambitious individuals to join our team!      About the role      We are looking for a passionate and experienced Account Executive to join our second-stage rocket ship!  You’ll be responsible for helping AppTweak grow its customer base and revenue in EMEA, with a focus on Enterprise prospects. As an experienced AE, you will provide direction and perspective to the regional manager and leadership team to increase the business efficiencies, structure, and strategy to ensure team and individual success. If you have what it takes to help us grow, we’d love to hear from you!      Location: London or Paris. Access to co-working space.        What you will do:      Achieve the company’s sales goals for the EMEA market       Close deals consistently to achieve your individual sales target.    Build and grow your pipeline with accurate forecasting.    Conduct product demos to leads with a focus on value and business needs. You will own the full sales cycle from lead to close.    Prospecting ICP customers to generate opportunities, through inbound and outbound. Assess leads requirements, solve their problems and anticipate future needs to increase revenue.    Establish a deep understanding of AppTweak’s business operations, including App Store Optimization, competitive landscape, and internal tools &amp; processes.       Reinforce AppTweak’s presence and reputation in EMEA         Represent and advocate AppTweak’s brand during major mobile marketing conferences throughout the year in various locations such as Berlin, London, Barcelona, etc. (between 4 and 8 events per year).    Connect with C-level and senior executives in the mobile industry to grow AppTweak’s reputation across various verticals such as Gaming, Retail, Finance, Entertainment, etc.    Organize and host ASO-related networking events to increase brand awareness and reputation.      Actively participate in cross-department cooperation         Lead and contribute to team projects to develop and refine our sales processes.    Work with Marketing to ensure consistency in outreach/emailing campaigns and inbound initiatives.    Collaborate with various teams, including the Product and Customer Solutions Team, to better align client-facing efforts by taking the initiative to identify issues and find solutions.     Must-have       2+ years as an Account Executive selling B2B solutions    Perfectly Fluent in English, French or German is a plus!    Knowledge of the mobile marketing industry is mandatory    Consistent track record of (over) achieving targets    A problem-solving approach to the prospect's challenges    Entrepreneurial spirit: your pipeline is your business, you need to own it and embrace it    Bachelor's or Master’s degree in Business, Communication, Marketing, Sales or any relevant field       What's in it for you?         Onboarding journey in our amazing offices in Brussels, then invitation to join the Global meeting in person once every quarter.    Bi-yearly company-wide team building to connect with all your colleagues.    A diverse team within a flat hierarchy: altogether we speak more than 15 languages.    Opportunity to connect with a variety of exciting mobile businesses cross different verticals.    An exciting and fast-growing company with a people-first culture. “Diversity” and “work-life balance” are not just buzzwords at AppTweak.    Flexibility in your work and opportunities for continuous learning and creative thinking.    Regular general team meetings and demo days to make sure everyone is aligned with AppTweak's growth path    Chance to discover new food recipes, because yes, we love food!     ✨Our recruitment process✨         A first video call with Madeleine from the HR team to get to know each other and tell you more about AppTweak.    A video interview with the manager to deep dive into your past experience and learn more about your aspirations    The Assessment part, to test your skills related to the position    Final call with a C-level or the CEO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVABLE VISION: ENABLE INNOVATION THROUGH STARTUP RELATIONS   Novable is a tech startup active in the corporate innovation space, providing a startup scouting solution made of advanced technology software and dedicated analyst reviews. In particular, Novable develops an advanced AI-based technology to scout and match startups.   Startups have the innovation power - We believe that startup ecosystems (entrepreneurs, startups, scaleups, hubs, accelerators, venture capital funds) are a glimpse of the future, as they crystallize the forefront of technology innovation everywhere in the world. They are the crystal ball to anticipate future industry trends.   Corporations have the industrial power - On the other side, we believe that corporations have the necessary resources to get things done and to put the best ideas at work on a global scale. In that sense, it is critical that they collaborate with startups, not only for themselves, not only for their survival but also for the greater good of humanity on this planet.   Bring the best of those two worlds together - We are technology optimists. We believe that tech innovation can contribute to solving major societal issues and world problems, provided that enough industrial power is injected into the process. We envision a world where innovation and industry powers connect seamlessly and globally, to speed up the world’s transformation.   Novable mission is to enable innovation through startup relations, by connecting the brightest minds from the startup ecosystem with the strong industrial ambitions of the business world. We allow corporations and companies to identify the most suitable, enterprise-ready innovations matching their strategic agenda.     Novable is a fast-growing tech startup working in the field of corporate venturing &amp; innovation scouting. We are now looking for a Growth Hacker Intern who is willing and ready to support the team in daily activities for at least 3 months.   Here are the main tasks that you will be involved with      Execute our growth hacking strategy: feed the sales team by building lists of leads through social engagement, SEO hacks, and HubSpot management    Engage in outbound activities: Design, set up, monitor and refine email and social media outbound campaigns    Use data &amp; analytics to support decision-making and growth strategies.    Creation of landing pages     Your Profile      Keen interest in digital selling, conversion, funnels, measures, with a data-driven mindset.    Knowledge of tools such as HubSpot, Lusha, Apollo, LinkedIn Sales Navigator, Google Analytics, etc. will be a strong plus.    Open-minded, eager to learn and try out new things, while also being autonomous.    Fun to work with! We take the sense of humour very seriously.    Fluent in English (C1), any other language is a plus     We'll only consider candidates located in Belgium who can regularly be in Brussels (2 days at the office is a must).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to build a high-quality data platform that will innovate financial markets? Do you want to work for a company that uses modern techniques to achieve the best results for its clients while empowering and supporting you to realize your full potential?    We are an experienced team of Spring committers, Kafka contributors, ex-Pivotal, and ex-Google engineers. If you want to know more, keep reading or reach out for a chat.    About us    We are a VC-backed fintech with a live product in the regulatory trade reporting space and a growing list of institutional clients (B2B). Our product journey has started in the US with a roadmap into Canada, UK, EU, Australia, and Singapore over the next twelve months. We are a start-up on a fast paced journey to scale-up.    KOR is built on leading edge cloud technology by industry domain experts and world class in-house engineering. We're on a mission to innovate B2B trade servicing starting with regulatory reporting in time for a global wave of mandated changes hitting all segments of market participants across OTC derivatives transactions. We’re solving the most challenging problems around by bringing fresh designs and solutions to data utility, quality, and processing inefficiencies. . . while unlocking insane value for clients.    Teamwork and laser focus are central to everything we do at KOR. With the right support, we believe small independent teams with deep expertises achieve better results and encourage skilled people to take responsibility and grow their careers. We live by the mantra of work humble, work smart, and work together.    About you    You have a passion for high-quality, reliable, and maintainable code. You're comfortable working with product managers, designers, and clients, making decisions to deliver valuable working software to clients and their users quickly. You're agile and retrospective and not afraid to identify what we're doing wrong so we can fix it and what we're doing right to improve on it. Above all, you judge your success by the success of your team and the happiness of our customers.    Responsibilities    As a Back End Engineer at KOR, you get to own parts of the KOR Platform. We value your ideas, and you'll play a key role in developing products that our customers will love using. Of course, we don't expect you to know it all, but your natural desire to learn will help you overcome new challenges and prove yourself as a valuable member of the KOR team.    Day to day, you'll be:&gt;      Designing and implementing the streaming data platform engine and SDK.    Implementing new features for our range of web and streaming applications and data reporting capabilities.    Be an active voice in the platform's build-out in regards to the technical choices and implementations.    Working closely with the broader team to embrace new challenges and adapt requirements as we continue to grow and adjust priorities.    Paired programming with a growing team of Back-end, Data, and Front-end Engineers.     Experience and attributes      A minimum of 5+ years of experience as a Back End Engineer.    Experience with Java and Spring Boot Framework.    Experience with building and running applications on public cloud vendors like AWS.    Experience profiling, debugging, and performance tuning complex distributed systems.    A firm reliance on unit testing and mocking frameworks with a TDD (Test Driven Development) mindset.    Knowledge of OOP principles and modern development practices.     Plus to have      Experience with event data modeling in event store/sourcing systems.    Experience with horizontally scalable and highly available system design and implementation, focusing on performance and resiliency.    Bachelor's Degree or higher in Engineering, Computer Science, or Information Technology.     The main tools and frameworks we use daily      K8s    AWS     OSX (Mac)    IntelliJ    Github (Actions)    DataDog    Confluent Cloud    Argo CD      We're still in the build stage, so introducing new tools and approaches are entirely on the table.    At KOR, the company culture is essential to us. Therefore, we are looking for an open-minded, humble, driven, communicative team player to join us.    What we have to offer    Depending on you and your priorities, we offer the following:       Culture of trust, empowerment, and constructive feedback.    Competitive salary, great IT equipment, and expense allowance.    Flexible working times.    Fully Remote    A span of control that matches your ambitions and skills.      Above and beyond this, we will provide a commitment to a genuine, balanced relationship. We will listen to you, take your needs and wishes seriously, and work to help you grow professionally.    So, if you're a Back-End Engineer who wants the chance to grow, maybe it's time to join a company that values what you do and helps you achieve your goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Developer Intern About Staizen At Staizen, we live and breathe transformation. We support and guide our clients through the toughest and nitty-gritty parts of building, modernizing, and running digital products and platforms. Transformation is not easy and to be the best partners, we challenge ourselves to constantly practice what we preach in the way we do, build and lead. The name Staizen is short for “State of Kaizen”, inspired by the Kaizen philosophy of continuous improvement. We are all about getting 1% better every day because sustainable transformation is not about the big bang but manifests in the daily choices that we commit to do every single day. What we offer   Get the chance to work on transformation at scale missions for complex industries such as banking, e-commerce, insurance  Be part of our internal product development and build the next generation of productivity tools for customers  Be part of exciting communities where you can collaborate, grow and learn across the board  We are remote-first with global operations across Belgium, Luxembourg, France, the Philippines, Singapore, and Cyprus, with optional co-working spaces for the team  The winning recipe Social Chameleon - Active Listener - Timely Delivery - Organizational Skills - Team Player - Solution and data Oriented Responsibilities Working in close collaboration with our Business community and you will have the opportunity to:   Identify account names per industry and build a priority list;  Identify leads (contact names, email address, LinkedIn contact);  Propose action plans;  Schedule prospection meetings;  Contribute to the CRM enrichment and data quality;  Support senior business manager in building customer offers;  participate to client meetings and project delivery sync-up;  Part of the business community and contribute to the business process improvement;  Requirements   A minimum internship duration of 6 months is required, and must be in business school.  On top of everything, you love to think, act smart and understand who you are addressing and why.  Strong ability to listen and accompany customers in the smooth deployment of new tools and teams.  Enthusiastic about using innovative technologies, collaborative tools and their possible applications.  Charismatic communicator, willing to be the driving force in sustainable collaborations.  High-level command of English and Dutch is required as you will collaborate closely with Dutch clients within a diverse team.  Dynamic individual with an interest in IT/Digital Transformation.  Previous internship experience in the IT/Digital industry is advantageous.  Benefit   Attractive internship compensation  Be part of a dynamic and senior Business community  Learn digital and IT industry market  Create a long-term lead portfolio  Potential long-term employment after the internship.  So, what do you think? Are you ready to drive impact and grow with us? We’re looking for forward thinkers who thrive in an international environment. We have openings across our various communities - Frontend, Backend, DevOps, UX/UI, Quality Assurance, Data &amp; Analytics, and Engineering Management. We can’t wait to meet you, drop us a message, and let’s chat! Job Type: InternshipContract length: 6 months Pay: Up to €500,00 per month Benefits:   Work from home  Schedule:   Day shift  Supplemental Pay:   Commission pay  Language:   English (Required)  Dutch (Required)  French (Preferred)  Work Location: Hybrid remote in 1050 Brussels</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Job Title: Business Development &amp; Sales Manager          Location: Belgium          Job Type: Full-time                   Looking for an opportunity to channel your inner Business Development ninja?          Look no further. We are seeking a Business Development Manager who is passionate about the latest high-tech innovations in world leading companies, who can drive new business opportunities and manage the sales funnel end to end. Join our team and help shape the future of Caeleste, and beyond.                   Who We Are          Caeleste is a dynamic team of engineers, scientists and enthusiasts who develop exceptional CMOS image sensor solutions. Our collaborations with top global companies in the space, scientific, medical, industrial and life science industries result in extraordinary and innovative solutions that give them a competitive edge in their respective fields. Our expertise in designing and delivering high-speed, ultra-low noise, ultra-high dynamic range and extreme radiation-hard sensors make us a one-stop solution provider for our customers.          Join our team at Caeleste and experience the direct impact of your ideas and actions, regardless of your role or seniority. Our team is not only proud of their achievements, but also knows how to have fun.          Excitement awaits!                   What We Look For          As a Business Development Manager at Caeleste, you are responsible for generating new business by connecting with potential customers and translating their high-tech needs into successful projects. This includes identifying new leads, creating the business case, and driving qualified leads into signed proposals in collaboration with the engineering team. You will also be responsible for defining the go-to-market strategy and driving marketing activities. You will contribute to Caeleste's imaging offering in close collaboration with the engineering teams by mapping research and solution roadmaps to market needs. You will formulate business recommendations for the management team and report directly to the Business Development &amp; Sales Office Leader.                   You Are The Perfect Candidate If You                    have a technical Bachelor or Master's degree, combined with a strong business acumen,           share a customer-centric focus with the ability to identify and meet customer needs,           bring a track record of success in driving sales and business development in a high-tech B2B sector or have similar experience through managing customer facing projects,           show excellent interpersonal and communication skills to build and expand your professional network and confidently represent the company at conferences and trade shows,           demonstrate proficiency in effectively persuading peers on technical, legal and business-related matters,           enjoy traveling globally, to wherever business opportunities arise (between 10-30%),           are fluent in English.                            We'll be blown away if you also have:                    an understanding in the areas of CMOS technology, digital and analog design, test electronics, electro-optical instrumentation, photonics, etc.,           experience in the imaging technology market,           a good understanding of public funding mechanisms (local and European),           have a relevant network in the image sensor industry and/or in any of our target markets (industry, medical, space, life-science)           have experience with Business with Space Industry, e.g. with ESA or New Space.                            We Offer:                    a mandate to have a long-term impact in the successfully growing semiconductor company           competitive compensation and benefits package           a bonus in line with Caeleste's performance,           the opportunity to work on cutting-edge technology projects with world-leading companies,           a technological playground with a mixed-skilled, multi-cultural team of experts,           a flexible and dynamic work environment,           a continuous focus on learning at Caeleste University                            For application and questions, please contact us at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">jobs@caeleste.be</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">About Oxygen         The insurance industry is gasping for breath. The work environment is becoming increasingly digital, legislation is changing, clients expect more and the call for efficiency is getting more prominent. Our passionate team of experts offers an answer. Bringing oxygen and building the insurance industry of tomorrow : that’s what we’re all about!         We make impact by approaching industry challenges from different angles. We fill in project roles, support in day-to-day administration, provide total solutions and offer an answer to complex challenges by offering end-to-end automations.         At Oxygen, it’s all about people. We believe that passionate people with ambition can make the difference. Growth through the growth of people, that’s how it works.         What will you be doing?         As a business analyst you represent Oxygen at our clients. Together with the team you work on various projects, always with the aim of making the insurance sector more efficient and more customer-oriented.         You review existing processes and structures with a critical eye. You detect bottle necks and think about how these can be eliminated. Besides analyzing you also support in implementing new processes or optimizing existing procedures. To do so you form the bridge between business and IT and involve the different stakeholders throughout the process. In addition, you help facilitate changes in the organization and make sure that everyone embraces the transformation.         What can you expect?                  Building the insurance industry of tomorrow : challenging projects with impact          Growth through the growth of people : extensive training and development opportunities, training budget, personal coaching sessions, space to shape your own growth path,…          Join a scale-up in full development and with a strong personal approach          Broaden your horizons and choose a career full of variety : working for different insurers and brokers with a good reputation          Interesting remuneration package: competitive salary supplemented with company car, hospitalization insurance, pension plan, meal vouchers, bonus plan, expense allowances, …                          Who are you?                  A must: You recognize yourself in the Oxygen core values : Collaborative – Positive – Hands-on – Open-minded – Deliver          You have a first experience in a project role in the insurance industry (business analyst, project manager,…)          Analytical mind combined with strong communication skills          Someone who is flexible and can adapt quickly to new environments          Languages. You have good knowledge of Dutch and French                                                  Does this job appeal to you? Then don’t hesitate to apply and send an e-mail with your motivation and your CV to dieter.kennes@oxygen.be.                                                                             APPLY NOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you know Club Med?   We have nearly 70 Resorts, open year-round in 26 countries. We offer luxury vacations in both mountain and seaside settings. Our clients seek happiness and freedom.   Why are you reading this job posting? Because you want to become a part of that extra something that sets us apart. You possess sought-after human and professional skills. We offer you the opportunity to develop and grow rapidly by joining our brilliant teams. You'll be able to travel the world.      Your Workspace   Welcome to the Alps, where our Exclusive Collection Chalets offer a unique working environment that blends luxury and practicality. Each chalet, with its elegant spaces and warm atmosphere, creates an unforgettable experience for our clients. Like our Chalet-apartments, these exclusive areas strengthen our relationships with our clients. Every detail is carefully thought out, from personalized welcomes to spaces designed by renowned designers, to enrich your daily life.   Your role is essential in providing memorable experiences, whether it's family moments or exclusive Club Med activities. Meanwhile, our kids' clubs take care of the little ones. Our working environment goes beyond conventional standards by combining luxury, well-being, and a unique experience. Additionally, we provide quality professional equipment for optimal working comfort. Our pioneering spirit encourages us to adopt innovations that enhance our teams' working comfort and allow them to focus on the essentials: the relationship with our clients.      You Are        Curious: You can share interests based on what others like. You are open to new ideas and have good general knowledge.   Attentive: You ask questions and listen carefully. You adjust your energy according to the situation, react sensitively, and show empathy.   Elegant: You communicate well and handle conversations with grace. You are authentic in both your communication and demeanor.   Charismatic: You have a natural and sincere presence. You inspire others by being yourself and remaining simple.   Proactive: You anticipate needs, overcome obstacles, and find solutions proactively. Autonomous: You work independently, make sound decisions without constant supervision, thus enhancing your efficiency and self-confidence.   Unifying: You effectively connect departments, mobilizing teams toward common goals, positioning yourself as a powerful driver for task accomplishment.     You Will        Ensure a worry-free stay in the Chalet and the resort by being the preferred point of contact for the client.   Carefully prepare the client's stay by highlighting included and à la carte services, as well as resort activities.   Facilitate the client's stay by coordinating the various services involved, ensuring the follow-up of all specific client requests, whether related to the Chalet or the Resort.   Ensure the quality of services offered to the client by verifying their compliance with established quality standards for Chalets.     By joining Club Med Exclusive Collection, you will experience a new kind of luxury. One that combines refinement, attention to detail, consideration for each of our clients with the kindness, simplicity, authenticity of relationships, and the legendary conviviality of Club Med. Luxury centered, above all, on humanity and experiences.      Club Med Exclusive Collection includes: 100% Club Med Exclusive Collection Resorts, Club Med Exclusive Collection Spaces in our 4 Trident Resorts, Villas, Chalets, and our legendary 5-masted sailboat.      All our positions are open to individuals with disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Accenture     We are a leading partner to the world's major cloud providers, including AWS, Azure, and Google. The formation of Accenture Cloud First, with a $3 billion investment over three years, demonstrates our commitment to deliver greater value to our clients when they need it most. Our Cloud First multi-service group of more than 70,000 cloud professionals delivers a full stack of integrated cloud capabilities across data, edge, integrated infrastructure and applications, deep ecosystem skills, the culture of change along with deep industry expertise to shape, move, build and operate our Client's businesses in the cloud. To accelerate our customer's transformation by leveraging the cloud, we combine world-class learning and talent development expertise; deep experience in cloud change management; and cloud-ready operating models with a commitment to the responsible business by design — with security, data privacy, responsible use of artificial intelligence, sustainability and ethics and compliance built into the fundamental changes Accenture helps companies achieve.     Last year, Accenture acquired Sentia's businesses in the Netherlands, Belgium and Bulgaria to strengthen local infrastructure engineering and public cloud-managed services with 310 cloud specialists. The Sentia group is a leading cloud consulting company that manages private and public cloud migrations and provides digital experience monitoring services.     The Cloud Infrastructure Sales Specialist (Senior Manager) is focused on growing Accenture Cloud First Business in the public and private cloud domain and manages opportunities through all phases, including qualification, sales pursuit and close by applying deep sales process and offering expertise. Develop relationships &amp; engage in content-driven conversation with essential buyers and decision-makers at new and existing clients to solve their problems.     #LI-EU       Your profile      Minimum 5 years selling &amp; closing enterprise deals in the professional services space in one or more of the following areas: Infrastructure Outsourcing, Cloud enablement migration and modernization, Private or Public Cloud managed services    Minimum of 10 years of Sales Pursuit Management experience    Minimum of 5 years experience in direct sales with a quota of $10M+    Experience with C-Level client relationship building and relationship management    Strong understanding of cloud computing technologies and services, as well as the ability to explain complex technical concepts in a clear and straightforward manner to customers    Cloud certification in Azure, AWS or Google    A Degree in Computer Science, Engineering or Technical Science.       Bonus points if you have      Previous experience in conceptualizing, planning, and implementing cloud migration, modernization, cloud-native development, or cloud-managed services.    Industry experience in Banking, Insurance, Utilities, Telecom or Manufacturing.    Proven ability to operate within a team-oriented environment.    High energy level, decisiveness, and ability to work well in demanding environments.    Excellent communication (written and oral) and interpersonal skills.    Strong leadership, problem-solving, and decision-making abilities.       Our offer   At Accenture, we are committed to creating an inclusive and supportive workplace that values diversity and promotes growth for all. As you join our global company with a world-class brand and reputation, we want to assure you that you will be part of a vibrant, diverse workplace culture. We firmly believe in openness and honesty, fairness and equality, and we celebrate the unique contributions of every individual. We are dedicated to getting to know the real you and supporting your personal and professional growth, so you can excel in whatever you're great at. At Accenture, learning is a continuous journey, and we provide numerous learning opportunities, both formal and informal, to enhance your role-specific skills and expertise.   Beyond the impactful work we do for our clients and the nurturing work environment we provide, we offer a range of excellent employee benefits designed to cater to your diverse needs and well-being. These benefits include:      13th month + holiday allowance: Ensuring financial stability and recognition for your hard work.    20 + 12 holidays: Providing ample time to recharge and spend quality moments with loved ones.    Laptop and smartphone: Equipping you with the necessary tools to excel in your role, regardless of location.    Hospitalization insurance and extensive group insurance package: Prioritizing your health and well-being, so you can focus on what matters most.    Bonus program: Recognizing and rewarding your exceptional contributions to the team's success.    Training &amp; learning opportunities: Encouraging continuous growth and skill development to reach your full potential.    Green mobility program: Supporting environmentally-friendly commuting options like e-bikes, public transport, bike 2 work allowance, and more.    Flexrewards: Empowering you to customize your rewards package with our flexible benefits tool to suit your individual needs.    Discount program: Offering discounts at your favorite (online) shops, so you can enjoy life outside of work.    Employee shares purchase plan: Providing an opportunity to become a stakeholder in the company's success.    Eco-cheques: Promoting sustainable living and environmentally-conscious choices.    And many more!       At Accenture, we understand that a diverse and inclusive workplace fosters innovation, creativity, and a sense of belonging. We are committed to building a workforce that reflects the richness of the communities we serve. By offering these inclusive benefits, we aim to attract and retain talent from diverse backgrounds and create an environment where everyone can thrive and succeed together. Your unique experiences, perspectives, and talents are what make Accenture a great place to work, and we look forward to having you join our team and contribute to our shared success.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job ID: 239756   Date posted: 22/07/2024 Who you are      '- You have an interest in interior design and the daily life of people's homes.         You already have several years of professional leadership experience and love working with people.    You have already proven to be a real problem solver and able to make decisions in a rapidly changing retail environment.    You are business-minded, results-oriented and focused on the customer.    You involve your colleagues and create commitment for your plans.    You continuously challenge your colleagues and yourself to exceed our customers' expectations and optimize the way we work.    You are energized by the IKEA values and they are a reflection of your own values.    You speak and write (one of) the store's regional languages and English.    You will gladly come to work on Saturdays in exchange for a day off during the week.      Your responsibilities      You will drive the commercial calendar both online and throughout the store to create vitality, encourage customers to visit us more often and to buy more. You will do all this in close collaboration with your colleagues and the local marketing manager.            You translate the store's business plan into a clear action plan for your department and implement the various actions. In this way you contribute to the positioning of the IKEA store as the leader for interior design in the local market.    You inspire, motivate and engage your team to achieve the goals and thus create long-term growth and profitability.    You motivate your fellow managers to take responsibility in achieving store vitality goals.    You react quickly to commercial opportunities, changes in stock availability and customer feedback.    You will focus on opportunities to drive impulse buying    You analyze the results delivered: identify successful activities, solutions and ideas and use this information in planning future actions.      Our team within IKEA      We are the ones meeting our customers – in our stores, online, in our catalogue and beyond. We have knowledge of the IKEA product range, local markets and customer needs and we constantly find new ways of making real connections with our customers to maximize sales and profitability. Together with thousands of colleagues around the world we’re a diverse team working for the continued global success of the IKEA Concept – a concept that helps millions of customers create a better everyday life!      Apply now!      At IKEA, we like to give you the space to take control of your own development and growth. We believe in entrepreneurship and initiative and want to make it easy for you. In the first few weeks/months, you will be offered a 5-step development plan to get you started, with enough personal space to create the learning moments you need.    We offer this structure and a supportive network of colleagues who will make sure you feel comfortable in this situation and give you time to learn, make mistakes and develop.       In addition to a competitive remuneration, we offer:            Eco-vouchers    End-of-year bonus, holiday pay and sector premiums    A commuting allowance with an additional allowance if you come by bike    Private leasing of an electric bike, we are happy to give you a boost    Comprehensive hospitalization insurance    A private accidents insurance    Pension savings    A leave savings plan: choose how you want your late/early hours (before 7h and as of 19h) to be paid out: a supplement on your salary or in holiday hours    We also offer extralegal holidays, seniority holidays and for full-time colleagues 6 extra days off    A canteen where you can eat delicious food at very democratic prices    IKEA Tack! Loyalty reward, an additional deposit into your retirement savings based on our global results and your loyalty to IKEA    ONE IKEA Bonus: an additional bonus based on your shop's results    IKEA Benefits at work: a portal offer you great discount for well-known stores and brands    IKEA staff discount 15% on all your purchases    Team outings &amp; staff parties, because togetherness is very important to us    A nice extra in case of legal cohabitation/marriage/birth/retirements to celebrate these beautiful moments    We offer you a schedule 6 weeks in advance to better plan your work-life. Our shops close at 8pm (Friday 9pm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Description   Our Mission   At Palo Alto Networks® everything starts and ends with our mission:   Being the cybersecurity partner of choice, protecting our digital way of life.   Our vision is a world where each day is safer and more secure than the one before. We are a company built on the foundation of challenging and disrupting the way things are done, and we’re looking for innovators who are as committed to shaping the future of cybersecurity as we are.   Our Approach to Work   We lead with flexibility and choice in all of our people programs. We have disrupted the traditional view that all employees have the same needs and wants. We offer personalization and offer our employees the opportunity to choose what works best for them as often as possible - from your wellbeing support to your growth and development, and beyond! Job Description   Your Career   Our Commercial Sales Team is an important driver of company revenue and growth. As an experienced and dynamic sales professional, you will be responsible for leading and driving sales engagements into assigned commercial accounts. In this role, you are motivated by the desire to solve critical challenges facing our customer’s secure environment, so you’re prepared to connect them with a solution for every stage of threat prevention.   You will be responsible for meeting and exceeding your quota by crafting and implementing strategic and tactical sales plans targeting deployments of the Palo Alto Networks Next-Generation Security Platform. This is a unique opportunity for a closer with a self-starter mentality to win business and market share by actively displacing competing technologies and further improving the security posture of existing customers. Oh, and did you say you love to sell? Because selling is what gets you out of bed every morning. This is not just a career – it’s a meaningful challenge that impacts our lives in the digital age.   Your Impact      Prospect and sell into assigned commercial accounts, create and execute a robust sales strategy to penetrate into new accounts and expand into existing accounts    Be the primary sales driver, managing a sales pipeline to deliver to quarterly/annual quota    Strong discipline around managing sales stages and SFDC hygiene    Deliver accurate weekly and quarterly forecast    Stay updated on industry news and trends, and how they affect Palo Alto Networks products and services    Communicate value propositions to clients and partners that speak intimately to their needs and requirements    Generate velocity to deliver a predictable book of business and drive forecast accuracy utilizing channel ecosystem    Develop and deploy marketing activities and plans to end users through our channel sales partners    Engage a programmatic approach to demand, to generate, develop, and expand your territory    Work collaboratively with all cross-functional resources to achieve your quota - inside sales, channel systems engineering, field marketing, cybersecurity sales specialists, the services team, sales ops (including deal desk and the response team), and others      Qualifications   Your Experience      Proven track record of success in achieving sales quotas    Experience working with channel partners and understanding of a channel-centric go-to-market strategy    Have and able to lead all aspects of the sales cycle with the ability to uncover, qualify, develop, and close new, white-space territories and accounts    Technical aptitude for understanding how technology products and solutions solve business problems    Excellent time management skills, and work with high levels of autonomy and self-direction    Proficiency in French and/or Dutch language skills      Additional Information   The Team   Our sales team members work hand-in-hand with large organizations around the world to keep their digital environments protected. We educate, inspire, and empower our potential clients in their journey to security.   As part of our sales team, you are empowered with unmatched systems and tools, constantly updated research and sales libraries, and a team built on joint success. You won’t find someone at Palo Alto Networks that isn’t committed to your success – with everyone pitching in to assist when it comes to solutions selling, learning, and development. As a member of our sales team, you are motivated by a solutions-focused sales environment and find fulfillment in working with clients to resolve incredibly complex cyberthreats.   Our Commitment  We’re trailblazers that dream big, take risks, and challenge cybersecurity’s status quo. It’s simple: we can’t accomplish our mission without diverse teams innovating, together.  We are committed to providing reasonable accommodations for all qualified individuals with a disability. If you require assistance or accommodation due to a disability or special need, please contact us at accommodations@paloaltonetworks.com.  Palo Alto Networks is an equal opportunity employer. We celebrate diversity in our workplace, and all qualified applicants will receive consideration for employment without regard to age, ancestry, color, family or medical care leave, gender identity or expression, genetic information, marital status, medical condition, national origin, physical or mental disability, political affiliation, protected veteran status, race, religion, sex (including pregnancy), sexual orientation, or other legally protected characteristics.   All your information will be kept confidential according to EEO guidelines.     Please note that we will not sponsor applicants for work visas for this position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Wintercircus:Wintercircus is a dynamic tech hub and innovation ecosystem located in the iconic building in Ghent. Home to over 300 residents, including early-stage tech startups, Wintercircus offers a vibrant space where work, collaboration, and creativity thrive. With its startup campus, cool bars, cozy eating spaces, and art experiences, Wintercircus is a place to connect, unwind, and recharge. Job description:We are seeking a talented and creative designer to join our team. As a Designer, you will create visually compelling designs that convey our brand's vision and values to different audiences. Your responsibilities include developing graphics for digital, print media, and on-site assets. You'll collaborate with various teams to ensure our visual communications are consistent and engaging. Key responsibilities: Visual design:   Create visually appealing graphics for digital platforms, including websites, social media, and email campaigns.  Design print materials such as brochures, flyers, posters, and event collateral.  Brand identity:   Ensure consistency in Wintercircus' visual identity across all design projects.  Develop and maintain brand guidelines to support a cohesive look and feel.  Collaborative projects:   Work closely with the marketing, events, and startup teams to understand project requirements and deliver high-quality designs.  Participate in brainstorming sessions to generate creative ideas and concepts.  UI design:   Assist our dev team in creating intuitive and user-friendly interfaces for web and mobile applications.  Conduct user research and gather feedback to improve design solutions.  New media and installations:   Create custom illustrations and multimedia content to enhance visual storytelling.  Assist the team in producing &amp; editing videos, animations, and interactive content as needed.  Community engagement:   Create engaging designs to support the social media team in promoting Wintercircus activities.  Develop visual content for music, art, and technology events to enhance community interaction.  Qualifications and skills:   Proven experience as an interactive designer, preferably in a similar setting.  Strong portfolio showcasing a variety of design projects and styles.  Proficiency in design software such as Adobe Creative Suite (Illustrator, Photoshop, InDesign, etc.), Figma, and Canva.  Excellent understanding of typography, color theory, and layout design.  Strong communication and interpersonal skills, with the ability to collaborate effectively with diverse teams.  Creative thinker with a keen eye for detail and a problem-solving mindset.  Ability to manage multiple projects simultaneously and meet deadlines.  Knowledge of print production processes and requirements.  3D design, editing, and film capabilities are nice to have.  An interest in music, art, AI, technology, and urban culture is a big plus.  Why join Wintercircus?Wintercircus provides a unique opportunity to work in an iconic building filled with rich history that triggers inspiration. Backed by top entrepreneurs and renowned knowledge institutions, Wintercircus offers you an exciting network, personal development, and lots of fun. It’s a spot where your creative talents and ambitions are encouraged and nurtured. Join us in our mission to create a vibrant, interdisciplinary community for changemakers. To apply, please submit your resume and a portfolio of your work, and send us a short message detailing how you can contribute to our creative team. Dienstverband: Voltijds Werklocatie: Fysiek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About us    The Interchain Foundation stewards a vast ecosystem of decentralized technologies. We develop and maintain foundational protocols, and fund organizations to create an internet of shared resources, security, and value creation. Through our grants, investments, and ecosystem stewardship, we are shaping a new technological paradigm that is open-source, interoperable, and community-owned.    About the role    As Managing Director of the Interchain Foundation, you will step into the heart of a vibrant and innovative environment, using your influence and vision to guide the strategic direction and culture of our cutting-edge open-source ecosystem.  The Interchain Foundation is a dynamic organization, leveraging a distributed development environment to deliver state-of-the-art open-source software for building blockchains while fostering a thriving community of builders.  Our core mission is to support the development and adoption of the Interchain Stack. You will lead a Board of Management composed (today) of a Chief Product Officer and Chief Marketing Officer, and report to a Board of Directors. You will oversee the operations of the ICF and its subsidiaries, Interchain AG and Interchain GmbH, which together consist of 25 employees across key functions such as Finance, Marketing, Product, Developer Relations, and Operations.  In addition to our internal teams, you will collaborate closely with external development teams responsible for maintaining different components of the Interchain Stack. These teams, which we refer to as stewards, manage specific parts of the software stack such as IBC, CometBFT, the SDK, and CosmWasm, while also operating their own businesses within the crypto space.  The Interchain Foundation has an annual operating budget of approximately $40 million and a total treasury of roughly $300 million. This is an exciting opportunity for a visionary leader who thrives in innovative environments and is eager to take on the challenge of steering an impactful organization at the cutting edge. We are looking for someone with a proven ability to navigate complexity, forge strategies from diverse viewpoints and inputs, and make a significant long-term impact.  This person excels at recognizing opportunities that others may miss and securing buy-in from a wide range of stakeholders. They are committed to maximizing value for the organization and the ecosystem, knowing when to empower others and when to take the lead themselves. They understand that their legacy will be defined by creating sustainable and resilient structures.  This transformative leader will enhance good teams by recognizing and building on their strengths. Ultimately, this person is comfortable being the face of the organization, leading by example and embodying the values that will shape our culture.     Your responsibilities will be:       With guidance and support of the Foundation Council, set the strategic direction for the Interchain Foundation, ensuring alignment with the broader goals of the ecosystem.    Lead and manage the Interchain Foundation, executing on the strategy you set above, fostering a culture of collaboration, innovation, and impact.    Work within the interchain beyond the Interchain Foundation, interfacing and collaborating with diverse, distributed participants in the ecosystem and beyond.    Cultivate and expand the interchain community, attracting developers, builders, and users.    Drive the growth and adoption of the interchain.    Build strong narrative and strategic alignment through public appearances — with a consistent focus on the strategy you’ve set     Ideal but not prerequisite qualifications:       Deep experience in complex environments (dynamism of open source, and coordinating across diverse &amp; distributed stakeholders).    Comfortable with soft influence (not a BDFL type).    Proven experience fostering strategic alignment with a board.      Who you are:       Proven experience in leadership roles at an organization that successfully delivered a product to market, preferably within open-source software, or a similar environment managing multiple engineering projects in parallel with varied, complex dependencies.    Interest (and understanding) of the crypto industry at large.    Embody the values of free and open source software.    Able to see the big picture and deftly understand the interplay of a complex ecosystem.    Strong interpersonal and communication skills, committed to collaboration and community engagement.    Capable of articulating a compelling long-term vision and inspiring others to rally around it.    Capable of making tough decisions, and knowing when and how to decide; capable of disagreeing but committing when compromise is necessary.    Puts the mission and the team first, and oneself second.    Located in or able to relocate to Switzerland.     Is a plus:      Already domiciled in Switzerland, or admission to an EU country via residency.      Not sure if you're a fit? Please feel free to apply anyways, and we'll take it from there.  Interchain believes that great people come from a broad range of backgrounds, and that the diversity of our team is one of our strengths. Discriminatory behavior has no place at Interchain—we do not discriminate on the basis of race, colour, gender, gender identity, national origin, age, religion, disability, or sexual orientation. We are committed to fighting bias in our workplace and our communities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapsch TrafficCom develops smart solutions to make mobility safer, more sustainable and efficient for everybody. We design, build and operate traffic management systems including connected vehicles technology and mobility demand management as well as tolling services for cities, roads, tunnels and bridges around the world. We develop data and video analytics platforms, building on state-of-the-art technologies including AI, machine learning, big data and cloud services to enable the digitalization of mobility.                    Your Responsibilities              You translate complex requirements into functional, secure, reliable, serviceable and cost-effective architectures and designs.        Design a System Architecture for data centers (DC), LAN and WAN for specific projects be it on premises or in the cloud        Support international bids with the elaboration of operational concepts and cost calculation        Interact with our system integrators for ascertaining that your system architecture intention is fully understood, check and release their low level designs        You work closely with supply chain to get optimized commercial offers from vendors, integrators and operational partners        Control the project implementation costs for DC &amp; WAN and interact with our other solution specialists to build a large and complex system        Support the operations teams of production systems with your knowledge of the systems architecture        You build and lead a community of practice by driving active knowledge and best-practice sharing             Your profile              You bring a high sense of commercial awareness, balancing between technological rich and commercially feasible architectures and designs        You know your way around all architecture patterns, be these RPO=0 systems or lambda architectures or cloud implementation (SaaS and PaaS) of current software stacks        You have a profound knowledge of current IT technologies, be this virtualization, heterogenous database landscapes, microservice architectures or SaaS strategies or what else is currently in vogue        You know the existing vendor landscape well and keep monitoring their current and future offerings and products        You have a passion for mentoring and sharing your knowledge and passion with others        You have the ability to talk to C-level and engineers alike.        A structured and independent way of working with excellent communication skills        Willingness to travel (up to 25%) and work in international teams        Fluent in English verbally and writing             Our offer:              You you will be part of an exciting endeavor in an international company with European roots        We have a unique corporate culture, driven by family tradition since 1892. We strive to create a work environment conducive to personal growth, satisfaction and achievement.        A hands-on onboarding with an experienced team to get familiar with the business and domain-related processes        Possibility to participate in regular trainings (technical and personal development)        Space for creating innovative solutions and ideas within a professional team practicing Agile methodologies        Social benefits of a modern company, e.g. Homeoffice, mobile devices, flexible working hours, operating restaurants, meal discount, bridge day regulation etc.        Working in our Global Services ambitioned team, brave to try out new technologies        A market-compatible gross salary of € 70.000 p.a. – which can be adapted according to your qualification and relevant experience             Kapsch is proud to be an equal opportunity employer. We attach great importance to a balance in the diversity of our employees. Therefore we welcome all applications without regard to gender, age, religious beliefs/ideology, sexual orientation, ethnicity or national origin.       Your contact person for this position: Tatiana Rezan-Sirotinskis. T: +43 50 811 1906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terma is a leading provider of mission-critical solutions for the defense and aerospace industry, dedicated to delivering security for nations, allies, and individuals. We operate across various sectors, with security being a central focus. Our advanced technologies are designed to ensure the safety of people during both peaceful and conflict situations. Our systems offer security on land, at sea, and in the air. Terma places a strong emphasis on diversity, fostering an environment that brings together individuals with different cultural and professional backgrounds who are passionate about what they do. Your new Role Join our dynamic team responsible for the Manufacturing, Assembly, Integration, and Test (MAIT) of satellite test equipment. As a Warehouse Operations Specialist, you will play a pivotal role in logistical support and front office reception. Key Responsibilities:   Manage warehouse operations including booking in and out, replenishment, and reorders.  Conduct incoming inspections, verifying ordered components and document scanning.  Handle shipping of packages and containers, including parts list creation and coordinating delivery notes and transport.  Provide reception support, welcoming guests, managing check-ins and check-outs, and maintaining access control.  Requirements:   Apprenticeship qualification in work areas like logistics, warehouse management, office administration, or related fields.  Proficiency in any warehouse management systems is beneficial;  experience in parcel delivery is advantageous.  Excellent problem-solving skills and adaptability to new challenges.    Fluent in both German and English, with good verbal and written communication skills.  Strong team player with excellent communication skills.What We Offer:    A collaborative and innovative work environment that encourages creativity and personal growth.  Opportunities for professional development and continuous learning.  Competitive salary and comprehensive benefits package.  Why Terma? We are an international company representing world class expertise, delivering complex and high-tech products. We value our colleagues and our meaningful contributions to securing people through advanced technology. During your onboarding in Terma you can expect a thorough introduction and training in our systems and processes, as well as a strong focus on teaching you useful new competences and further strengthening current ones, both professionally and personally. Our company culture is autonomous and engaging, and we acknowledge the importance of flexibility in a great working environment. On our different locations, we offer various social activities to bring all our colleagues together. For further information, please contact Mrs. Raluca Moise by telephone [+49 6151 860050] or by email [ta.space@terma.com]. We look forward receiving your application and CV. To ensure that your application reaches us and is properly processed, please upload your application and CV via our recruitment system. Please use the Apply-button below. Based on full employment we offer you a yearly gross salary of 37.000 Euro (collectively agreed minimum salary - overpayment possible) depending on your qualification and experience. The high-tech and innovative Terma Group develops products and systems for defense, non-defense and security applications, including command and control systems, radar systems, self-protection systems for aircraft and vessels, space technology, and aerostructures for the aircraft industry. Terma is headquartered at Aarhus, Denmark. Internationally, Terma has subsidiaries and operations in The Netherlands, Germany, France, United Kingdom, Austria, Czech Republic, Romania United Arab Emirates, India, Singapore, and the U.S. The Space Business Area contributes with mission-customized software and hardware products including power systems and star trackers as well as services to support several in-orbit pioneering European scientific and Earth observation satellite missions. Additionally, Terma is contracted for the development and delivery of software and hardware systems and services for numerous ongoing and future European, and international missions. Terma Space operates out of Denmark, The Netherlands, Germany, France, the UK, Austria, Czech Republic, and Romania. Lager Logistiker (M/W/D), Österreich, Wien Terma ist spezialisiert auf die Bereitstellung missionskritischer Lösungen für die Verteidigungs- und Luft- und Raumfahrtindustrie. Unser Hauptziel ist es, Sicherheit für Länder, Verbündete und Einzelpersonen zu gewährleisten. Wir sind branchenübergreifend tätig, wobei Sicherheit im Mittelpunkt steht. Unsere fortschrittlichen Technologien sind darauf ausgelegt, die Sicherheit der Menschen sowohl in friedlichen als auch in Konfliktsituationen zu gewährleisten. Unsere Systeme bieten Sicherheit an Land, auf See und in der Luft. Terma legt großen Wert auf Vielfalt und fördert ein Umfeld, das Menschen mit unterschiedlichem kulturellen und beruflichen Hintergrund zusammenbringt, die mit Leidenschaft bei der Sache sind. Ihre neue Rolle Sie sind hauptsächlich für logistische Belange und die Unterstützung in unserem Frontoffice/Rezeption zuständig. Sie werden Teil des hochdynamischen Teams, das für MAIT (Herstellung, Montage, Integration und Test) von Satellitentestgeräten verantwortlich ist. Hauptverantwortlichkeiten:   Verwaltung des Lagers (Ein- und Ausbuchungen, Auffüllen des Lagers sowie eventuelle Nachbestellungen etc.)  Eingangskontrolle (Prüfung bestellter Bauteile, Scannen von Dokumenten)  Versand von Paketen und Containern (Erstellen von Stücklisten, Anfordern von Lieferscheinen und Transport)  Rezeptionsunterstützung (Begrüßung, Check-in und Check-out der Gäste, Zugangskontrolle usw.)  Anforderungen:   Lehrabschluss in einem der Bereiche Logistik, Lager, Büro, Verwaltung o. ä.  Kenntnisse in der Lagerverwaltung wären von Vorteil.  Hervorragende Fähigkeiten zur Problemlösung, flexible Herangehensweise an unerwartete Situationen und Herausforderungen.  Fließende Deutsch- und Englischkenntnisse in Wort und Schrift  Starke Kommunikationsfähigkeiten und die Fähigkeit, in einer teamorientierten Umgebung zusammenzuarbeiten  Was wir anbieten:   Ein kollaboratives und innovatives Arbeitsumfeld, das Kreativität und persönliches Wachstum fördert.  Möglichkeiten zur beruflichen Weiterentwicklung und zum kontinuierlichen Lernen.  Wettbewerbsfähiges Gehalt und umfassendes Leistungspaket.  Warum Terma? Wir sind ein internationales Unternehmen, das erstklassiges Fachwissen vertritt und komplexe und hochtechnologische Produkte liefert. Wir schätzen unsere Kollegen und unseren sinnvollen Beitrag zur Sicherheit von Menschen durch fortschrittliche Technologie. Während Ihres Onboardings bei Terma erwartet Sie eine gründliche Einführung und Schulung in unsere Systeme und Prozesse sowie ein starker Fokus darauf, Ihnen nützliche neue Kompetenzen zu vermitteln und bestehende Kompetenzen weiter zu stärken, sowohl beruflich als auch persönlich. Unsere Unternehmenskultur ist autonom und engagiert und wir wissen, wie wichtig Flexibilität in einem großartigen Arbeitsumfeld ist. An unseren verschiedenen Standorten bieten wir verschiedene soziale Aktivitäten an, um alle unsere Kollegen zusammenzubringen. Für weitere Informationen kontaktieren Sie bitte Frau Raluca Moise telefonisch [+49 6151 860050] oder per E-Mail [ta.space@terma.com]. Wir freuen uns auf Ihre Bewerbung und Ihren Lebenslauf. Um sicherzustellen, dass Ihre Bewerbung uns erreicht und ordnungsgemäß bearbeitet wird, laden Sie bitte Ihre Bewerbung und Ihren Lebenslauf über unser Rekrutierungssystem hoch. Bitte nutzen Sie den unten stehenden „Bewerben“-Button. Bei Vollbeschäftigung bieten wir Ihnen abhängig von Ihrer Qualifikation und Erfahrung ein Jahresbruttogehalt von 37.000 Euro (kollektivvertragliches Mindestgehalt – Überzahlung möglich). Die hochtechnologische und innovative Terma-Gruppe entwickelt Produkte und Systeme für Verteidigungs-, Nichtverteidigungs- und Sicherheitsanwendungen, darunter Befehls- und Kontrollsysteme, Radarsysteme, Selbstschutzsysteme für Flugzeuge und Schiffe, Raumfahrttechnik und Flugzeugstrukturen für die Flugzeugindustrie. Terma hat seinen Hauptsitz in Aarhus, Dänemark. International verfügt Terma über Tochtergesellschaften und Niederlassungen in den Niederlanden, Deutschland, Frankreich, Großbritannien, Österreich, der Tschechischen Republik, Rumänien, den Vereinigten Arabischen Emiraten, Indien, Singapur und den USA. Der Geschäftsbereich Raumfahrt trägt mit auf Missionen zugeschnittenen Software- und Hardwareprodukten, einschließlich Stromversorgungssystemen und Sternverfolgungssystemen, sowie Dienstleistungen zur Unterstützung mehrerer wegweisender europäischer wissenschaftlicher und Erdbeobachtungssatellitenmissionen im Orbit bei. Darüber hinaus ist Terma mit der Entwicklung und Lieferung von Software- und Hardwaresystemen und Dienstleistungen für zahlreiche laufende und zukünftige europäische und internationale Missionen beauftragt. Terma Space operiert von Dänemark, den Niederlanden, Deutschland, Frankreich, Großbritannien, Österreich, der Tschechischen Republik und Rumänien aus. Application deadline:As soon as possible Job Type: Full-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your assignment:      You ensure that our space instruments can be assembled, aligned and tested according to the specifications.    You are responsible for the test- &amp; assembly procedures and consult with the design office for the development of tools (hard-&amp; software) for our space projects.    You take care of the Assembly, Integration and Tests of our space projects (ao in the cleanroom).    You support quality reviews and Root Cause Analysis.    You participate in test campaigns, responsible for all assembly related issues during the test campaign.    You document and Report progress with internal and external partners.    You ensure that test instruments and facilities are in accordance to requirements for existing and upcoming projects.    You standardize maintenance and calibration routines and document equipment and facilities.     Your profile:      You have a degree in Industrial Engineering, Aerospace Engineering,… and/or relevant technical experience in aerospace sector.    You are familiar with a high-tech working environment.    You are quality minded and work very accurately.    You fluently speak and write English.     We offer you:      The possibility to take part in the development of high technological products.    Employment in an enthusiastic team driven by new technology.    A competitive salary, supplemented with interesting extra-legal benefits (group and hospitalisation insurance, meal vouchers, internet allowance, and lots of learning possibilities).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our cities are changing. The shift towards sustainable mobility coupled with an ever increasing density is shaping the new urban landscape. Key challenges are arising such as:      How can we free-up space in our streets and give it back to pedestrians and cyclists without ignoring the impact on drivers?    How can we enable the electrification of vehicles with the suitable charging infrastructure?    Where should all the bicycles, cargo bikes, and scooters go at the end of the ride?     BePark aims to provide a better mobility experience to this generation and the next. In short, we hunt for unused private parkings and open them to the crowd for various uses: car park (keeping cars off-street), bicycles, EV charging, Last-mile delivery...   Our goal is ultimately to generate a network of mobility hubs throughout cities in France, Belgium and Luxembourg.   Today we are a team of 25 delivering mobility services across 500 parking lots for our community of 16k active users. Let's grow this network together !   Requirements   As a Sales Development Representative, you will integrate the B2B sales team focused on corporate users. Parking can be a real headache for companies, and your job is to find the right solution fitting their specific challenge. BePark can provide corporates with external parking solutions, flexible contracts and software solutions to better manage their parking usage and implement their own mobility policy at the parking level.   Your main responsibility is to hunt for new prospects in pain, understand their situation and bring them to a discussion with an Account Executive with whom you work in perfect pairs!   About you      You are fluent in French and proficient in Dutch ( mandatory)    You enjoy social contact and meeting new people    You are solution-oriented and proactive, with an entrepreneurial mindset    You are customer-centric, obsessed with your clients’ pains to generate leads    You show resilience in your contacts with prospects and be extremely attentive    You are organized, rigorous and independent in your work     Benefits      Competitive package, in line with your sales performance (we do not cap commissions)    Work with top-tier tools (CRM, Automated prospection, Project Management tools)    Build/Develop a deep knowledge of Mobility and Real Estate sectors    Be a part of a young, innovative and fast growing SME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITO develops technology to facilitate the transition to a more sustainable society and economy. One of the key technologies applied in this context is Remote Sensing. With the increasing number of satellites, drones, processing facilities and technologies like artificial intelligence, the opportunities with remote sensing are larger than ever.             Meanwhile the Remote Sensing team of VITO counts more than 100 motivated scientists, IT engineers and project managers. To facilitate the growth of our ambitions we are looking for an extra colleague, more specifically a Business Developer with focus on the institutional market.             Your tasks:              You will be full time employed as Business Developer in VITO’s Remote Sensing team. This means that you will scout opportunities in the institutional market. The main clients will be European Institutes like the European Commission, EC’s Joint Research Institute, the European Space Agency, the European Centre for Medium-Range Weather Forecasts, the European Environment Agency, etc. While the focus will be on these European clients, also international Clients like the United Nations might be targeted.        You will scout interesting opportunities that fit our strategy and goals and manage the entire bid process.        You don’t have to be an expert in remote sensing, GIS or data science. But a sound understanding of these domains and knowledge of the ecosystem in which we operate is a strong asset.        Outside VITO you will communicate frequently with clients and partners. Hence, excellent writing and presenting skills are key.                                                 You hold a Master or PhD degree related to bioscience engineering, engineering science, or environmental sciences;       You have proven knowledge and expertise in the management of large tenders, involving many partners. Experience in all core bid duties like consortium building, financial negotiation, strategy development, and coordination of the writing;       Knowledge of the European funding landscape is key;       A project management certificate is an asset but not a strict requirement;       You have strong customer focus and you are a born negotiator;       You have the ability to make decisions, act on your own initiative and operate in a pro-active way;       You have excellent writing and presentation skills in English.                Offer            We work 'activity-based', our activities bring us to our location. Our headquarter is in Mol. Hybrid work arrangements and/or working in a satellite office in Antwerp-Berchem, Ghent, Ostend or Genk is possible.       A competitive salary with a range of benefits, including allowances, insurance and a modular package of holidays.       Innovation is our asset, so it goes without saying that we give our employees the opportunity to take additional training courses and stay up-to-date in their field. You will always have the opportunity to broaden your knowledge and discover new technologies.       You will have the opportunity to be part of an organization with an international reputation, known for its cutting-edge technological research and scientific consultancy.       With us, you will contribute directly to sustainable developments at local, national and global level through your innovative applications. You provide answers to contemporary societal challenges.       Moreover, we highly value a good work-life balance at VITO! This is achieved by adopting a flexible attitude depending on your specific needs.            Are you the experienced, highly motivated candidate we are looking for? Don't hesitate and apply now!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About Antwerp Space    Antwerp Space is a leading Belgian space engineering company and an industrial player well-recognized by the European Space Agency and the European Commission. Antwerp Space has an established presence in the European space market and in several cases is taking the lead in technically complex space projects, supported by a consortium of partners from all over Europe.    The company employs around 50 highly skilled engineers and technicians from all over the world, the majority of whom hold an engineering degree, with strong expertise in the areas of digital signal processing, hardware and software design, as well as in project management and technical leadership.    OHB SE Group    Antwerp Space is part of the OHB SE group, one of Europe’s success stories in the field of contemporary space. Today it can call itself the third largest space group in Europe.    The OHB SE group has been growing at a steady pace over the last three decades and its footprint in Europe has continuously expanded. Nowadays, there are subsidiaries in Austria, Germany, Italy, Sweden, Luxembourg, Greece, the Czech Republic and Belgium. Despite its size, OHB SE is still a family business, run by the Fuchs family.    Who are we looking for?   Required technical competences      Master’s degree in Electronics, Space Engineering, or equivalent expertise.    At least 2 years of relevant work experience in the aerospace sector.    Eligible to obtain a National and EU security clearance is mandatory.    Proficiency in LabVIEW and Python development is essential.    Basic understanding and a high interest in digital communications theory and signal processing in the RF communications domain.    Basic understanding and a high interest in Global Navigation Satellite Systems (GNSS).    Basic knowledge of electronics (schematics, EMI, testability)    Ideally some experience with RF test equipment such as a spectrum analyzer, signal generator, power meter, etc.    Your home base location allows working on a regular basis at the Hoboken office and sporadic at the Leuven office.    Occasional business trips mean a welcome change from your daily work.     Expected soft skills      Open-minded towards new ideas and willing to learn    Effective interpersonal and teamwork skills    Strong analysis and problem-solving skills    Good verbal and written communication skills in English (mandatory)     Where do you fit in?    The AIT team is responsible for assembly, integration and verification of the challenging communication and navigation products of Antwerp Space. Within the AIT team, you are mainly responsible for the verification of the RF products. Product testability starts with the requirements definition followed by model philosophy, test bench design, AIV plan and procedures and finally the performance and compatibility verification. You will work closely with all the engineering teams, product assurance, and our international customers. As a member of the Antwerp Space AIT team, you will contribute to the many fascinating international satellite communication and navigation projects.  Your main responsibilities will be:       Developing test benches for RF communication and navigation products    Work closely with all the engineering teams to design an efficient system architecture and bring new products from prototype to production, with a strong focus on testability.    Shape the technical requirements and define the test strategy for our projects.    Take ownership of all test related documents, test execution and post processing of the results.    Conduct environmental compatibility verification (Thermal vacuum, EMC, Vibration, Shock) of the RF products, including testing at external facilities in Europe.    Verify interfaces typical to space products, such as MIL-STD-1533, Space Wire, SPI, RS422.    Engage in hands-on debugging and testing within our labs.    Utilize high-end RF test equipment, such as a spectrum analyzer, signal generator, power meter, and constellation simulator.     What we can offer you?       A multicultural environment. You’ll be working in an international environment with colleagues from all over the world.    A strong corporate culture. Our company is based on strong values: respect, trust, personal development and well-being.    Professional development. You’ll get the chance to learn, to share your expertise, to develop your skills and contribute to high-level, international projects in a high-tech environment.    Salary package. A very attractive salary package including numerous fringe benefits. The main job location is Hoboken, though, short-term missions abroad are part of this challenging job environment.     Come and explore Antwerp Space    At Antwerp Space we treasure our human capital. From the moment you get on board until retirement, we will be at your side to make sure you feel at home and you get the chance to travel all the way through Antwerp Space, developing yourself and growing together.    As a company with a passion for innovation we want to create a dynamic, open and enriching environment for people, where people are passionate about their work and exchange ideas &amp; expertise.    Moreover, we understand the need for a healthy working environment and we focus on the employee’s well-being, offering amongst others fruit@work, ergonomic advice and many other initiatives. We also focus on a good work-life balance, offering flexible working hours and additional holidays. Each year a number of events are organized to emphasize that it is important to have fun, relax and create a good team spirit.    Eager to join us? Get in touch!    Apply now by clicking the Apply button below and send us your motivation letter and CV. We will be get back to you soon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Joint Venture between Thales (67%) and Leonardo (33%), Thales Alenia Space is a global space manufacturer delivering, for more than 40 years, high-tech solutions for telecommunications, navigation, Earth Observation, environmental management, exploration, science and orbital infrastructures. Thanks to our diversity of skills, talents and cultures, our customers (governments, institutions, space agencies, telecommunications operators), therefore have Space to Connect, Secure &amp; Defend, Observe &amp; Protect, Explore, Travel &amp; Navigate.     We say HI* ̶ Welcome to the Thales team!     Human Intelligence     Thales in Switzerland is part of a world-leading technology group in the area of Defense &amp; Security, Training &amp; Simulation, Space and Digital Identity &amp; Security. In a world full of uncertainties, we ensure that our customers, partners and employees can break new ground with confidence and in security. For a future we can all trust.     Say HI* to your career as a   PCB Layouter/Hardware Solution Engineer 80-100% (m/f/d)   in Zürich #LI-HYBRID (Ref. Nr. R0231121)     In Zurich awaits you a center of excellence for optical, quantum-based communications and opto-electronic observation and communication systems used in satellite and space technology. This is the place for you if you don't just dream of space travel, but want to work on the development, operation and deployment of satellite-based systems that help position and connect everything and everyone everywhere, observe our planet and optimize the use of Earth's resources - and of our solar system. Join the team of experts at Thales Alenia Space, a key partner for governments, institutions and businesses. We look forward to meeting you!     Your mission     As PCB Layouter/Hardware Solution Engineer role at Thales Alenia Space, you will:      Layout of printed circuit boards (PCB) including component placement and signal routing for space applications, prototypes and test equipment    Layout of printed circuit board (PCB) for circuit card assemblies (CCA) according to ECSS/MIL/IPC standards    Close collaboration with design engineers    Maintenance of component library    Capture schematics symbols and footprints for EEE components    Documentation of the activities and results    Generation and release of manufacturing files including assembly drawings, Gerber files and parts lists    Participation in internal and external design reviews    Interdisciplinary collaboration with mechanical, thermal and test engineering    Ability to follow internal design guidelines and contribution for continuous improvement       We look forward to that      Technical education (university degree) in electrical engineering or similar    Practical experience in PCB layout for electronics hardware (minimum 5 years industry experience)    Experience with PCB layout of rigid, flex, rigid-flex and similar PCB technologies    Experience in PCB design for analog, digital, mixed-signal and power conversion (applications like control boards, power converters, communication electronics)    Experience in Design for Testing (DfT) and Design for Manufacturing (DfM)    Good knowledge of eCAD design tools like Mentor Graphics Xpedition    Experience with RF design, signal and power integrity simulation is an advantage    Fluent in English, German (spoken) and/or French is an advantage    Experience with SAP is an advantage    Good team player also within interdisciplinary teams    Strong communication and collaboration skills    A structured, methodical working method    Ability to proactively find solutions       What awaits you at our location in Zurich   For our 77,000 employees in 68 countries, we open up forward-looking perspectives, realize individual career paths and enable creative freedom. We achieve this through courage, diversity, and the determination to make the demanding challenges of our time safer and more inclusive. With our sustainable, value-oriented employee management, we actively advocate diversity.     Say HI* – Your way to us   When the writing is on the wall, our international teams are there to tackle today's complexity with tomorrow's industry-leading technologies. Are you in? Your contact Frederic Martin is looking forward to receiving your online application via our career portal.     Frederic Martin   Talent Acquisition Partner   #LI-FM1     Notice for recruitment agencies:   Unfortunately, due to unforeseen circumstances, we regret to inform you that the CVs submitted by recruitment agencies are not processed. We will take into consideration only the CVs submitted by the candidates.   We appreciate your understanding to Thales recruitment processes.   At Thales Alenia Space we provide CAREERS and not only jobs. With Thales Alenia Space employing around 8,900 employees in 10 countries with 17 sites in Europe and a plant in the US, our mobility policy enables employees each year to develop their careers at home and abroad. Thales Alenia Space sees space as a new horizon, helping to build a better, more sustainable life on Earth #SpaceForLife. Great journeys start here, apply now!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLM PROJECT MANAGER (f/m/d)  PLM PROJECT MANAGER (f/m/d) : CAx/ custom engineering tools/ international matrix organization/Stakeholder Management / Communication skills / English/German/French  Project: For our customer based in Zurich we are looking for a highly qualified PLM PROJECT MANAGER (f/m/d).  Background: Our Client, headquartered in Zurich, Switzerland, is the first startup to combine agility, speed and innovation with decades of experience and p ro v e n q u a l i t y . Around 1600 e m p l o y e e s at 12 locations in six countries (Switzerland,Sweden, Austria, Germany, USA and Finland) develop and manufacture products for satellites and launch vehicles with the goal of advancing humankind and enabling the exploration of the world and beyond. Our Client is the preferredsupplier of structures for all types of launch vehicles and a leader in selected satellite products and for constellationsin the New Space sector. Our Client also uses its space knowledge for applications outside of space technology:The high-precision products have already been used in the semiconductor industry for more than 20 years. Job description: We have recently launched a major PLM and engineering transformation initiative, taking the company to the next generation, and are looking for the right person to drive the project. A person with key skills in project management and operations of complex PLM projects including system introduction and support as well as being able to drive change – to bring our colleges along on the journey. Focus of your work is change management and the management of the PLM implementation, external partners collaboration, engineering application landscape simplification, related projects, and introduction/ consolidation of new/existing processes.  The Perfect Candidate: As project manager, you are responsible for the planning, implementation, and documentation of related initiatives. You will guide the project team in the creation of requirements and functional specifications, be responsible for solution design and the implementation. You further ensure that the project targets are achieved within time, budget, and quality.  Tasks &amp; Responsibilities: * Partner to business for successful implementation and organization change management * Lead PLM system (Teamcenter) implementation and participate in end-to-end Digital transformation * Define strategies for Data migration, Design data management, BOM management, Change Management, MES, ERP &amp; downstream system integration * Developing architectural blueprints for PLM, CAD, PLM-ERP interfaces &amp; downstream systems * Further optimization of applications landscape for Multi-PLM, MES, M-CAD, E-CAD, FEM systems and future R&amp;D tools * Evaluating business problems, their financial impacts, proposing solutions and driving change for key results * Own decommissioning strategies for PLM / CAD systems * Manage and train the Power User organization and create, review, and validate work instructions and training materials  Must Haves: * Min. 7-10 years of working experience in a similar role and proven strengths in PLM and CAx technologies * Operational experience in CAx and custom engineering tools e.g. Siemens Teamcenter, NX, CATIA, SAP, IFS, Windchill, 3D experience. * Very good functional understanding and usage of various Teamcenter modules like BMIDE, Structure Manager, Workflow Designer, Change Management, BOM Configuration methodologies, Active Workspace, ERP interfaces ( e.g T4S) , OpsCenter and MES * Ability to work in an international matrix organization and manage stakeholders and facilitate decision making in an international group organization * Strong communications skills in English; French nice to have  Reference Nr.: 923402SDA Role: PLM PROJECT MANAGER (f/m/d) Industrie: Space Research Workplace: Zurich Pensum: 100% Start: ASAP Duration: 3++  Job Type: 100%  Schedule:  8 Hour Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About us:       One team. Global challenges. Infinite opportunities. At Viasat, we’re on a mission to deliver connections with the capacity to change the world. For more than 35 years, Viasat has helped shape how consumers, businesses, governments and militaries around the globe communicate. We’re looking for people who think big, act fearlessly, and create an inclusive environment that drives positive impact to join our team.   What you'll do:    As a Payload Systems Engineer, you will join a team focused on the forefront of technology for innovative satcom architectures. You have hands-on experience in designing sophisticated communication space payloads. This also includes knowledge of communication chains, transponders, onboard processing units for digital regenerative applications, beam forming, distribution units and power management.   You thrive in an R&amp;D framework environment and are passionate about continuous improvements. The ideal candidate will enjoy working on a variety of workflows from system definition to requirements downflow, reviewing subsystem design/co-design. Additionally, experience of manufacturing, integration, testing, and qualification is also a plus! The day-to-day:    Together with the team, you will lead the mission analysis for communication space system requirements and down-flows. You will being responsible for the SWaPC analysis and defining interfaces (digital, electrical, RF, optical, mechanical/thermal, etc.) and help to drive and facilitate discussions with subcontractors/partners as needed.   As the SME, you will work and challenge external contractors on technical matters. Together with the team, you will assist with reliability analysis including simulations and design choices with supporting space qualification activities such as bus selection and components. You will also assist with program management and B&amp;P, including collaborating with customers on programmatic and schedule matters. Finally, you will help to support test procedures, participate in the integration, launch, and in-orbit commissioning, and be involved in preparing presentations and reports for the full development (design reviews, test activities, manufacturing, qualifications, progress review, etc.) What you'll need:       The successful candidate should meet the following requirements:          MS/PhD in Engineering (SatCom system, Telecommunications, Electronics, Digital Systems, Automation, etc.)      8-10 years of proven experience in the following areas:      SatCom and communication Payload architectures for LEO/MEO/GEO/HEO      HW/SW design, development, and integration for space applications      Digital design for space communications and Digital regenerative payloads      Inter-satellite links and digital phased array antennas      Experience with orbital analysis tools, Telemetry, Tracking, and Control (TT&amp;C) platform, and Ansys Systems Tool Kit (STK).      Experience with operations, including satellite TT&amp;C operations, payload operations, users, and network management facilities      Swiss or EU (27) Citizenship or valid Swiss working permit       What will help you on the job:      Previous experience working with ESA/NASA in Telecoms programs is a plus!    A proactive person who enjoys working being challenged and working as part of a diverse international team.     ___________   #LI-EMEA : At Viasat, we consider many factors when it comes to compensation, including the scope of the position as well as your background and experience. Base pay may vary depending on job-related knowledge, skills, and experience. Additional cash or stock incentives may be provided as part of the compensation package, in addition to a range of medical, financial, and/or other benefits, dependent on the position offered. Learn more about Viasat’s comprehensive benefit offerings that are focused on your holistic health and wellness at https://careers.viasat.com/benefits. EEO statement:       Viasat is proud to be an equal opportunity employer, seeking to create a welcoming and diverse environment. All qualified applicants will receive consideration for employment without regard to race, color, religion, gender, gender identity or expression, sexual orientation, national origin, ancestry, physical or mental disability, medical condition, marital status, genetics, age, or veteran status or any other applicable legally protected status or characteristic. If you would like to request an accommodation on the basis of disability for completing this on-line application, please click here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good food, healthy environment    The 'Digital Production' Research Group makes use of information and communication technologies to solve a wide variety of challenges in the agricultural sector. The Group develops new data-based solutions for improving the efficiency and sustainability of production systems. In addition to the understanding of agricultural production processes, our core competencies lie in computer vision, demanding data analyses and modelling.        Nitrogen fertilisation can be made more efficient with site-specific technologies. This project aims to optimise the individual fertiliser applications by taking into account soil mineralisation. Mineralisation models and innovative nitrate sensors will be evaluated for their suitability for practical application.                 Your tasks            Validate and further develop existing mineralisation models with regard to their practical suitability       Analysing data sets from field experiments and linking them with other data sources (e.g. weather data, satellite data).       Planning and conducting field experiments on N-mineralisation in soil       Writing scientific publications       Participation in scientific conferences and earning the required ECTS credits                             Your profile            University degree in agricultural sciences, biology, environmental sciences or equivalent qualification       Interest in mechanistic and statistical modelling of the soil-plant system       Good knowledge of R or Python       Experience in analysing spatial data with ArcGIS or QGIS is an advantage       Knowledge of two official Swiss languages and a very good command of written and spoken English                    Additional information    If this position interests you and you meet the requirements profile, we look forward to receiving your online application.    (English is not an official Swiss language, please choose German, French or Italian as correspondence language).        Additional information can be obtained from Thomas, Anken, in charge of the Group Digital Production by e-mail at or by phone on N° +41 58 480 33 52 (please do not send applications to this e-mail address).        Starting date: 01.10.2024 or by agreement. The position is limited until 30.09.2027.        Reference number: JRQ$540-11538           Apply now           About us    The 'Sustainability Assessment and Agricultural Management' Research Division develops decision-making bases to help policy-makers create optimal framework conditions for a competitive and multifunctional Swiss agricultural sector. The analysis of a wide range of data from the agriculture and food sector enables the identification of promising operating strategies and policy measures. The Research Division deals with issues concerning digitalisation in agriculture.        Agroscope is the Swiss federal centre of excellence for research in the agriculture and food sector. Its researchers work at a number of sites in Switzerland. Headquartered in Bern-Liebefeld (as of 2026: Posieux), Agroscope is attached to the Swiss Federal Department of Economic Affairs, Education and Research EAER.        We offer you a varied job in an interesting work environment as well as thorough training and a modern research infrastructure. Flexible working hours and good employee benefits are additional perks of the job.        + more           The Federal Administration is attentive to the different needs and backgrounds of its employees and promotes diversity. Equal treatment is a top priority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Space Research and Planetology Division at the University of Bern is seeking a highly motivated PhD student to join its esteemed Space Science Group. Our group specializes in studying the composition of tenuous gases near solar system objects using time-of-flight mass spectrometers and determining surface compositions with advanced laser ablation techniques. Notably, we developed and built the mass spectrometer for ESA's JUICE mission and are responsible for the preparation and analysis of the measurements it will conduct once the mission arrives in the Jupiter system in July 2031. To support the missions we are involved in, we have developed a sophisticated computer model for simulating planetary atmospheres, which has been successfully applied to various solar system bodies, including Mercury, the Moon, Venus, Titan, Europa, Callisto, Ganymede, and comet 67P/Churyumov-Gerasimenko.   This research project focuses on preparing measurements by the mass spectrometers on board ESA's JUICE and NASA's Europa Clipper missions to study the plumes tentatively observed on Europa, one of Jupiter's icy moons. Investigating Europa's plumes is particularly exciting because these geysers offer a rare opportunity to sample subsurface liquid reservoirs that might harbor life, without needing to drill through kilometers of ice. Analyzing these plumes could provide unprecedented insights into the moon's oceanic environment, its chemical composition, and its potential habitability.  Research Project: This PhD project will focus on modeling the complete gas phase of Europa's plumes, a critical component in determining the habitability of this ocean world in the Jupiter system. The project involves developing a physical simulation model to quantify changes in the chemical composition of Europa's plumes from their liquid reservoirs to their gas phase. The successful candidate will work with existing Monte Carlo models and newly acquired DSMC models, aiming to provide valuable insights for ESA's JUICE and NASA's Europa Clipper missions. This research is poised to significantly enhance our understanding of Europa's potential to support life and will be an integral part of the science preparation for the measurements conducted by the mass spectrometers on the JUICE mission (JUICE / NIM) and the Europa Clipper mission (Europa Clipper / MASPEX). The selected PhD student will work closely with the JUICE / NIM team and the Europa Clipper / MASPEX team, including the potential for a research visit with our US counterparts to foster collaboration and share expertise.      Key Responsibilities:        Develop and extend existing Monte Carlo and DSMC models to simulate Europa's plumes.   Analyze the chemical modifications occurring within the plume's gas phase.   Work closely with senior geochemists and DSMC modelers to integrate new chemical reaction modules into the models.   Collaborate with the JUICE/NIM and Europa Clipper/MASPEX teams to optimize plume detection and maximize the scientific return of plume measurements.   Prepare and publish at least three scientific papers based on the research findings.   Present research results at international conferences and workshops.     Qualifications:      MSc in Physics, Astrophysics, or a field related to the research project.   Proficient English language skills, both written and spoken; German language skills are a plus.   Experience in programming is highly desirable.   Strong motivation and ability to work independently as well as in a collaborative research environment.     Why Join Us:      The University of Bern offers a vibrant research environment with a rich history of contributions to space missions, including ESA's JUICE, ExoMars, CHEOPS, BepiColombo, Rosetta, Comet Interceptor, and NASA's IBEX and Artemis missions. Our Space Science Group provides an excellent opportunity to work on cutting-edge research projects with a team of experienced scientists and engineers.     Position Details and Application Instructions:      Starting Date: Flexible, but not before September 2024   Location: University of Bern, Switzerland   Salary: In accordance with the personnel regulations of the Canton of Bern   Application Deadline: 31 July 2024     Application Instructions: Submit your application as a single PDF file consisting of: 1. Cover letter describing your motivation and qualifications for the position 2. Curriculum Vitae (CV) 3. List of publications (if applicable) 4. Names and contact information of three references  Please send your application to the contact given below by 31 July 2024. For further information, visit our website: www.space.unibe.ch  Applicants should contact: PD Dr. Audrey Vorburger +41 31 684 44 16 audrey.vorburger@unibe.ch                   www.karriere.unibe.ch              Rechtliche Hinweise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applications are invited for one research assistant position (Postdoctoral fellow) at the University of Bern (Dept. of Space and Planetary Sciences) to work under the supervision of Prof. Jonas Kühn on novel instrumentation techniques for direct imaging of exoplanets. The successful applicant is expected to lead the implementation of new exoplanet imaging techniques using pixelated “Spatial Light Modulators” (SLMs) display panels. The latter can be used as “programmable focal-plane phase mask coronagraphs”, to mask the unwanted light from the host star, in order to reveal faint off-axis astrophysical sources of interest (exoplanets, circumstellar disks).   This position is part of the ERC Consolidator “RACE-GO” project (Rapid Adaptive Coronagraphy of Exoplanets from a Ground-based Observatory), which aims at investigating how SLMs could be used as “active coronagraphs” to adapt to various observing conditions, target types (binary stars, giant stars) or to implement coherent differential imaging (CDI) techniques at high-speed. The RACE-GO project team will be allocated 60 Guaranteed Time Observing (GTO) nights spread over 2 years on the new Turkish 4-m DAG Telescope, to implement, validate and scientifically exploit the approach on-sky, and the applicant is expected to technically prepare and lead the initial phase of the observing campaign.        In particular, the postdoctoral fellow will work both on instrumental aspects of adaptive coronagraphy and CDI in the optical laboratory (high-contrast imaging testbed), and will participate in the installation and on-sky commissioning of the new Programmable Liquid-crystal Active Coronagraphic exoplanet Imager for the 4-m Turkish DAG telescope (PLACID) instrument. In consequence, the applicant is expected to travel to Turkey (Erzurum province) a few times per year, and spend at least a dozen nights observing at the summit (3,100m ASL). The candidate will be able to set up his own observation program towards the end of the position, if conditions allow. Overall, she/he will also play a key role in a small team of four people, notably helping to supervise and mentor two PhD candidates in their 2nd thesis year, but also running a practical lab experiment for Physics MSc students; hence team player and teaching qualities are crucial to this position.     Requirements      A PhD degree in Physics, Astrophysics or Engineering (with specialization in astronomical instrumentation or adaptive optics), obtained within the last 2 years. Prior experience in astronomical instrumentation, observational astronomy, Python programming and/or benchtop optics is a plus.     We offer      This is initially a 1-year position, with a 2nd year extension available upon mutual agreement.        The salary starts at 90'000.- CHF/year gross salary, commensurate with experience and with 5-week paid holidays per year, according to rules of the University and Canton of Bern. Childcare allowance is available.        The University of Bern is an equal opportunity employer committed to diversity in its workplace, and applications from under-represented minorities are strongly encouraged.        The University of Bern is a vibrant center of space and (exo)planetary research. It leads the National Center for Competence in Research PlanetS (www.nccr-planets.ch), a Swiss research network focused on planetary science, which includes more than 130 scientists from the Universities of Bern, Geneva , Zurich and ETH Zurich. The University of Bern also hosts the Center of Space and Habitability (www.csh.unibe.ch), and is the leading house of the ESA exoplanet transit satellite CHEOPS. The city of Bern offers an excellent living environment, with its 12th-century UNESCO world heritage old town within close vicinity of the Swiss Alps, and is consistently ranked as one of the world's best city for quality of living (e.g. Top 15 in Mercer survey).     Applications      The following application materials should be sent as a single pdf file to jonas.kuehn@unibe.ch:               A motivation letter including contact details, information on skills and previous experience, and the names of 2-3 references/referees (max. 3 pages).    Curriculum vitae (max. 2 pages), plus a list of publications (not included in page count).    Academic transcripts of PhD and MSc grades.       Two to three letters of recommendation should be sent directly to Prof. Kuhn by the referees themselves, and it is the responsibility of the applicant to ensure that the letters are sent on due date.        Deadline to apply: August 15, 2024, for full consideration, then until the position is filled.        www.space.unibe.ch                         www.karriere.unibe.ch              Rechtliche Hinweise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGENTEC is a young, dynamic and strongly growing company, headquartered in Lausanne, Switzerland, near EPFL, close to the shore of Lake Geneva. We are developing Photonic Integrated Circuits (PICs) to world-leading performance with our customers for applications in Quantum Technologies, LiDAR, Space, Biosensors and more.    To support our growth, we are looking for a:  Process Engineer  Heterogeneous Integration    Tasks    Within LIGENTEC’s engineering team, our mission is to bring our integrated photonics platform to the next level, building on its world-class passive photonics and extending the functionality with active component integration.    Role and Responsibilities    You are part of an interdisciplinary project team that integrates active functionalities such as modulators, photodiodes and amplifiers onto LIGENTEC’s state-of-the art passives platform.        Develop new processes for new electro-optic modulators, including thin-film lithium niobate integration or other materials on SiN. To this end, you:   Define and execute Design of Experiments at the clean-room facilities.   Contribute to the project technology roadmap from a process development perspective.   Stay up to date with state-of-the art process technology development on active components.   Increase the maturity level of developed processes in order to release them for early customer engagements. To this end, you:   Implement statistical process control and physical model fitting of opto-electrical device properties.   Execute fabrication runs for photonic integrated circuits for internal and external customers.   Documentation of results with strong emphasis on correlations between optical and electrical properties of integrated actives.   Contribute to the R&amp;D and Process teams in all aspects, especially process integration topics.   Requirements        Master’s degree in electrical, chemical, physical or nano engineering.   Min of 3 years experience in relevant environments (MEMS, Semiconductors, Nano-Optics) with hands-on experience on clean room processes such as wafer bonding, lithography, etching, metallization, different material deposition and characterisation techniques.   Experience with heterogeneous integration techniques like wafer bonding, micro-transfer printing or flip-chip assembly is a plus.   Understanding of photonic devices like modulators, photodiodes and lasers is a plus.   Knowledge of python for statistical data analysis is a plus.   Excellent technical problem-solving skills   Open minded, critical, and innovative.   Ability to work independently and with remote teams.   Working proficiency in English.   Benefits        A flexible and dynamic start-up work environment.   Be a member of an international, diverse, customer-focused and highly motivated team.   Personal responsibility in your job and the chance to grow with us   Our passion to bring PICs to everyday life.   We look forward to receiving your full application, including 1) your CV, 2) a statement of interest (relating the position to your skills) and 3) grade or work certificates. Non-complete applications may not be considered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Introduction    Serco has made significant contributions at ESA's European Space Research and Technology Centre (ESTEC) in the Netherlands, supporting a wide range of space missions and projects. Serco has provided essential engineering, technical, and management services, playing a key role in logistics and operational support for missions. Serco's expertise in spacecraft management, ground systems and data processing has earned them recognition, including 'Best in Domain' awards from ESA. Their long-standing partnership with ESA reflects their commitment to excellence and innovation in the space sector.   On behalf of our client, the European Space Agency, we are looking for a Microsoft Software Engineer to join our team in the Netherlands.   We are looking for someone skilled with Microsoft tools such as Power User, Power Pivot and Power Query to provide maintenance support and assist the ESA Cyber Internal Audit team in conducting Cybersecurity for the Galileo Program. Main Responsibilities    As Microsoft Software Engineer you will concentrate your activities on the following:      Upgrade and maintain the current ESA GNSS CAATS (computer-assisted Audit techniques) a set of MS excel based applications using Macros and MS Virtual Basic    Develop a new set of tools to improve the current ESA GNSS CAATS.    Support for the maintenance of the ESA GNSS CIA Evidence Database, currently based on Microsoft Excel.    Integrate the inputs provided by the industry into the ESA GNSS CAATS and develop the associated tools to perform this integration. Note that some of these inputs are classified.    Develop and maintain a database with all the data inputs as the main repository of the Auditor knowledge base.    Develop the tools to validate and verify the data provided by ESA.    Develop the tools to maintain records of software Audit activities (evaluation logs, status reports) provided by ESA.    Support to the ESA GNSS CIA team for the development of specific software and scripts during the execution of the Audits.   Successful Candidate    Do you think you are the person we are looking for? See below what experience or knowledge you should bring:      Minimum a Bachelor´s degree or equivalent, preferably in the field of software engineering.    Expertise, at least, 2 years in software development    Experience in conducting projects reviews (document and SW development processes).    Experience on Generalised Audit software (GAS) or Business Intelligence tools.    Knowledge about add-ins, plugins and apps for Microsoft Office as Power User, Power Pivot, Power Query, ParallelDots, Office Tab, Tableau or other similar tools to increase the productivity of the Microsoft Office products.    Comfortable with working in a diverse and multinational team environment.    Excellent interpersonal skills are needed, together with a high degree organizational and communication abilities.    Proficient in the English language, both written and spoken.    Knowledge of another EU member state language is an asset.    Candidates must be eligible to work in the EU.   About The Company   Why should you join Serco ?   At Serco not only is the nature of the work we do important, everyone has an important role to play.   Meaningful and vital work - You’ll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated.   A world of opportunity - You’ll be wholeheartedly supported with development and career progression   Great people - You’ll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion.   About Serco   Serco Europe has operated in the Netherlands and Spain over the past 30 years, mainly in the field of Space. Serco Netherlands and Spain have a long history of partnership and trust with the European Space Agency (ESA).   In both countries, Serco is proud to deliver the highest calibre of people and services at ESTEC (ESA’s technology and engineering hub) and ESAC (ESA’s Astronomy and Science centre).   At the heart of its business, Serco Netherlands and Spain source, train, care and support employees, enabling them to better pursue their dreams of working in the Space industry in excelling in the delivery of essential public services.        We are diverse and inclusive organisation.   At Serco, we see people first and foremost for their performance and potential and we are committed to supporting the needs of all our colleagues. It’s a mix of people from different backgrounds, experiences and opinion that keeps our culture strong and vibrant.   We believe in equity so we strongly encourage applications from a diverse range of candidates. Disabled applicants who meet the minimum criteria for the job are encouraged to apply and demonstrate their abilities in an interview. We also welcome a conversation about any adjustments that would make the interview process more accessible for you. Wherever possible we are open to discussions around flexible working and we operate a hybrid work structure in many of our business areas.   In the UK we are proud to be a Disability Confident Leader in the government’s scheme and hold the Gold Inclusive Employer Standard; in Belgium we are partner of Diversicom and member of Charter der Vielfalt in Germany.   If you have any questions please do not hesitate to reach out to The Serco Europe Recruitment Team        Important:   Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law.   Applicants are reminded that they will be requested to produce such documentation during the recruitment process.   Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization.   Data Protection:   For more information on how the personal data in your application is process, please see the link Data Protection policy here. Package Description    What we offer if you join our amazing team:      Flexible working policy (hybrid working)    Comprehensive and competitive benefits plan    A range of wellness activities and employee assistance programs    Casual dress code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Description        Fugro Norway AS - Satellite Positioning Service Line is looking for a Senior Project Lead GNSS          Fugro Satellite Positioning manages a global network of reference stations, monitoring signals from GNSS (GPS, GLONASS, BeiDou and Galileo) satellites and generating corrections to significantly improve the accuracy of unaugmented GNSS signals.          Correction messages are transmitted via a robust, fault-tolerant broadcast infrastructure, providing precise, reliable, real-time satellite positioning that is accurate worldwide, 24/7 availability and full redundancy under demanding conditions.        As the leading company in our market, we offers an interesting, international and inspiring career opportunity.          What we offer:                 International work environment                 Flexible work hours                 Subsidized meals in our canteen                 On-site parking                 In-house exercise room                 Company-covered mobile phone and internet expenses                 Secure bike storage and changing/shower facilities                 Great pension and insurance benefits              Essential Duties &amp; Responsibilities:        Contribute with defining scope, goals and deliverables for projects    Manage own projects and coordinate with other project managers to deliver on business roadmap    Take initiative for and contribute to the improvement of existing Fugro Satellite Positioning products and tools    Contribute to research, development and testing of new solutions for precise GNSS applications    Stay oriented about new research and leading-edge developments in GNSS and other relevant technologies    Create and maintain good relations with suppliers, partners and clients          Desired background and preferred skills:        Deep understanding of GNSS principles like Precise Orbit Determination and Precise Point Positioning technology    Have an ability to see new possibilities and solutions and a desire to undertake challenging tasks    Familiar with Agile project management principles and the Scrum methodology    Be able to work independently, as well as being a good team member and have an open personality    Experience in multi-site multinational development organizations with matrix management          Qualifications required:        MSc candidate with education within GNSS / Geodesy    At least 3 years relevant work experience within the GNSS/Space industry    Good communication skills in both written and spoken English          Ready to take your career to the next level? Join us at Fugro Satellite Positioning and be part of something extraordinary! If you're passionate about GNSS technology and want to make a real impact in a dynamic global environment we encourage you to apply!          Disclaimer for recruitment agencies:        Fugro does not accept any unsolicited applications from recruitment agencies. Acquisition to Fugro Recruitment or any Fugro employee is not appreciated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you searching for a Postdoc position at an internationally important geodetic fundamental station and work for the benefit of the scientific community as well as your own research and society at large? At Onsala Space Observatory we are now looking for a highly motivated colleague to work with us as a Postdoctoral researcher on GNSS-related research in geodesy and geodynamics.    Project description Possible GNSS-related research topics can include, e.g., reference frames, crustal motion, glacial isostatic adjustment, atmospheric signal delays, ionospheric research, LEO-augmented GNSS, new space missions, etc. The Postdoc position is in the research group for Space Geodesy and Geodynamics. It is restricted to three years (2+1) with a review after the second year. Together we work to increase knowledge on how to best achieve a long-term sustainable planet. Our main working places are the Onsala Space Observatory, 40 km south of Gothenburg, and Chalmers University of Technology in Gothenburg.    Information about the department At the department of Space, Earth and Environment we search for answers to the really big questions. In a long time perspective, the lifecycles of stars and galaxies provide an insight into the origin and future of the universe, earth and life. We also observe our planet and the interaction between society, technology and nature in order to develop technologies, models and tools that can meet global challenges regarding natural resources, climate impact and energy supply.      Major responsibilities Your major responsibilities as a Postdoc is to perform your own and innovative research in the field of GNSS for geodesy and geodynamics. You are expected to develop and conduct your own research in close collaboration with your colleagues in the Space Geodesy and Geodynamics research group. In addition it might be beneficial for your future career to participate in teaching and outreach activities on a level of 10 per cent.    Qualifications      Relevant PhD degree in Geodesy/Geophysics/Geodynamics/Aerospace/Physics or an equivalent education, including a GNSS-related PhD thesis and experience.        Fluency in both written and spoken English.        Experience in/knowledge of computer programming in e.g. C/C++, Python, Matlab, Fortran        To qualify for the position of postdoc, you must hold a doctoral degree awarded no more than three years prior to the application deadline (according to the current agreement with the Swedish Agency for Government Employers). Exceptions from the 3-year limit can be made for longer periods resulting from parental leave, sick leave or military service. The date shown in your doctoral degree certificate is the date we use, as this is the date you have met all requirements for the doctoral degree.      Meritorious      Educational background in space geodesy, geodynamics, atmospheric sciences, computer sciences, statistics and probability        Experience in/knowledge of data analysis, computer science, parallel programming, statistics         Swedish is not a requirement but Chalmers offers Swedish courses.        Contract terms    This postdoc position is a full-time temporary employment for two/three years.        We offer     Chalmers offers a cultivating and inspiring working environment in the coastal city of Gothenburg.    Read more about working at Chalmers and our benefits for employees.        Chalmers aims to actively improve our gender balance. We work broadly with equality projects, for example the GENIE Initiative on gender equality for excellence. Equality and diversity are substantial foundations in all activities at Chalmers.        Application procedure    The application should be marked with 20240433 and written in English. The application should be sent electronically and be attached as PDF-files, as below. Maximum size for each file is 40 MB. Please note that the system does not support Zip files.        CV: (Please name the document as: CV, Surname, Ref. number) including:           CV, include complete list of publications    Previous teaching and pedagogical experiences    Two references that we can contact.        Personal letter: (Please name the document as: Personal letter, Family name, Ref. number)    1-3 pages where you:           Introduce yourself     Describe your previous research fields and main research results    Describe your future goals and future research focus, including a detailed reserch plan for the Postdoc position        Other documents:           Please provide a digital copy of your PhD thesis, as well as attested copies and transcripts of completed education, grades, etc.       Use the button at the foot of the page to reach the application form.      Please note: The applicant is responsible for ensuring that the application is complete. Incomplete applications and applications sent by email will not be considered.  Application deadline: 2024-09-30   For questions regarding the recruitment process and research, please contact: Prof. Dr. Rüdiger Haas, rudiger.haas@chalmers.se    *** Chalmers declines to consider all offers of further announcement publishing or other types of support for the recruiting process in connection with this position. ***         Chalmers University of Technology in Gothenburg conducts research and education in technology and natural sciences at a high international level. The university has 3100 employees and 10,000 students, and offers education in engineering, science, shipping and architecture. With scientific excellence as a basis, Chalmers promotes knowledge and technical solutions for a sustainable world. Through global commitment and entrepreneurship, we foster an innovative spirit, in close collaboration with wider society. Chalmers was founded in 1829 and has the same motto today as it did then: Avancez – forward.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satellite Navigation      We are looking for a person who is excellent in understanding technical requirements and developing and improving software products, considering the existing technology stack within OHB Digital Solutions.      Your Challenge:          Perform research and development for interdisciplinary projects in the field of satellite navigation and related      Design and implement algorithms for specific problems related to GNSS      Prototype software components and modules for concept demonstration      Define and execute test plans to ensure compliance with the requirements      Document research and development results      Comply with project plans, industry standards and OHB Digital Solutions design principles and workfloww      Work within an interdisciplinary and diverse development team         Your Qualification:          Formal education (graduated or in final semesters) in Geodesy, Telematics, Physics, Software engineering, Informatics, or similar, or equivalent work experience      Experience in research related to the field of positioning, navigation and/or timing      Ability to work with cross-function and geographically distributed teams      Soft skills such as analytic thinking and result orientation      Fluent in German and/or English         …and nice to have:      Good communication skills           Experience in project management and/or working on projects with the European Space Agency      Technically proficient / conversant in GNSS Technologies      Good communication skills         We offer:          A friendly and pleasant working environment in a varied and exciting field of work in the area of precise positioning and navigation      The opportunity to learn new skills and face new challenges every day      A permanent contract in a young, well-coordinated team with flexible working hours and the opportunity to partially work in home-office      Thorough induction phase      For legal reasons, we refer to a minimum salary according to the current Collective Agreement. The actual payment is of course higher and depends on your qualifications and experience          Location: Graz or Vienna      We are looking forward to receive your application (cover letter, resume, references and certificates) including your availability and salary expectations either in German or in English.      office@ohb-digital.at            We are hiring:          Research Engineer (full-stack)      Software Engineer (full-stack)      Software Engineer (C++)      Product Manager (GNSS Signal Simulation)                   TOGETHER AGAINST JAMMING + SPOOFING</t>
+    <t xml:space="preserve">DescriptionGalileo System Control Centre IVQ Engineer in the Galileo System Exploitation Unit in the Galileo System Verification and Deployment Service, Galileo Project Office, Galileo Programme Department, Directorate of Navigation. The Galileo teams at the European Space Agency's Technology Centre in the Netherlands are in charge of the design, development, procurement, integration and qualification of the Galileo system, including the constellation of satellites in medium-Earth orbit and the ground segment for mission, control and security monitoring deployed at remote sites all over the world. As part of these activities, a critical task is to ensure the execution of Galileo infrastructure development, deployment and operations at the Galileo Control Centres. To perform the tasks involved in this onsite role, you will be resident at the Galileo GCC-I Control Centre in Fucino (L'Aquila, Italy).DutiesYou will report to the Head of the Galileo System Exploitation Unit and functionally to the Head of the Galileo Ground Segment Management Service. You will be responsible for the following activities at the Galileo Control Centre in Fucino (L'Aquila, Italy): coordinating the day-to-day ground segment and system IVQ (integration, verification and qualification) and deployment activities; managing the on-site IVQ and deployment planning through participation at the mid term planning Meetings (MTPs) and change control boards (CCBs); ensuring implementation of ground segment interfaces with satellite manufacturing and satellite AIT facilities; coordinating the different reviews (including PSR, TRRs and TRBs) organised by ESA with our industrial contractors to perform the deployment and verification of the ground segment infrastructure to be installed, verified and operated at the control centres; managing the ESA level deployment planning and documentation; managing on-site activities with the ESA industrial contractors, the operations contractor and the hosting entity's responsibles; following up the investigation and correction of incidents and anomalies during the critical deployment phases, through attendance of the relevant boards, either at segment level (internal) or resulting from system/OPS activities (external), ensuring that critical issues are solved as a top priority; supporting the organisation and execution of the galileo system compatibility test campaign to ensure compatibility, before satellite launch, between the Galileo ground sites and the Galileo satellites; ensuring that the system in operations upgrades are evaluated against the system design and qualification scope through active participation at the maintenance release boards, and providing active feedback to the project to ensure that the operability improvements are properly considered in the future system releases; participating, as requested, in Galileo-related reviews (including QRs and CDRs) and technical evaluation boards, in particular contributing to qualification reviews, system and operations reviews; contributing to ESA procurement activities (preparing ITT documents and evaluating proposals) for topics related to IVQ and deployment; taking responsibility (CIC) for any crypto items delivered to the GCC and under ESA custody. In performing these duties, you are expected to interface closely with the various Galileo project teams, the operations teams and the related industrial teams. Your duties may also include supporting other activities within your field of competence and the transfer of knowledge across the AgencyTechnical competencies Knowledge and experience of satellite ground navigation systems and security monitoring systems, including their operations, architecture and implementation Experience in design, development, deployment and IVQ of complex systems Management and monitoring of industrial activities (interfaces with industry, reviews, etc) Knowledge of large scale complex ground and space system architecture, including interfaces, networks and protocols Knowledge of (ESA) space systems development and verification Behavioural competenciesResult Orientation Operational Efficiency Fostering Cooperation Relationship Management Continuous Improvement Forward ThinkingEducationA master's in physics, electrical or aerospace engineering or a related field is required for this post. Additional requirementsYou must have at least five years of technical experience in a field directly related to the position. In particular, you have: knowledge and experience of the Scaled Agile Framework (SAFe) knowledge of Team collaboration tools (JIRA, Confluence, or similar) good knowledge of large-scale distributed ground segment infrastructure. Knowledge of GNSS technology and infrastructure would be considered an asset. You should be able to demonstrate that you can work in a fast-paced environment and handle pressure as may typically occur in a project team. You should be result-oriented, able to set priorities, and capable of presenting practical solutions both verbally and in writing. You should have good interpersonal and communication skills. You should have the ability to work autonomously, effectively and cooperatively in a diverse, international team environment, defining and implementing solutions in line with team and individual objectives and project deadlines. You should also have good technical, analytical, organisational and reporting skills, a proactive attitude to solving problems and an interest in innovative technologies. You must be prepared to travel on a regular basis, as many of the activities will take place on operational sites or at the AIV factories. You must be eligible for security clearance from your national security administration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serco is a leading Space Services Provider with thousands of skilled resources that has supported over 50 space missions on behalf of more than 10 Space or Government agencies around the globe, including the ESA and NASA. Serco offers space capability across the full space lifecycle from satellite testing to Launch services, LEOP to spacecraft operations, space surveillance to data management, and supporting downstream application development. With over 55 years history in the space sector Serco is well placed to contribute to National strategies and New Space ventures who want to scale their businesses/organizations with skilled talent. We are seeking a Mechanical AIV / AIT Engineering to work on our Customers Site (ESA-ESTEC) in the Netherlands. This is a fantastic opportunity to get into one of the most sought-after space agencies in the world. Package DescriptionWhat we offer if you join our amazing team: - Competitive Salary - Corporate Benefits Package - Company events - Access to training - Access to the sport and social recreational facilities at ESTEC Escape Recreation Centre Main ResponsibilitiesAs Mechanical AIV / AIT Engineering you will concentrate your activities on the following: Proactively support Projects with respect to AIT and AIV domains, in particular proactively monitoring and coordinating AIT activities and providing support to Engineering and AIT Manager on Project side with respect to AIT-related aspects, integration, test and launch campaigns preparation and follow-on, assessment of AIT schedule and associated risks, support to project reviews in line with specific AIV and AIT technical competences requested. Support Agency projects on AIV/AIT issues, in particular environmental testing including follow up of industry activities. Support the Customers of the Test Centre through all project phases, taking into account project requirements and performance of facilities. Support Agency projects with respect to model philosophy definition, requirement specification, planning, costing, risk assessment, test execution and verification control. Support Agency project studies and reviews in the Concurrent Design Facility at ESTEC in the domain programmatics and AIV/AIT. Participate in formal project reviews and tender evaluation boards, usually in the AIV panel. Participate in the development of new methods and tools, the preparation and implementation of investments. Successful Candidate Minimum 4 years' experience in space domain, with Environmental test campaigns and Launch Campaigns expertise. Bachelor's degree in aerospace or mechanical engineering. Experience in satellite AIV and satellite testing, and some experience in management. Experience in the development and verification of space hardware. Knowledge and experience with GSE. Experience in management and monitoring of industrial activities. Focus on system level activities and thermo-mechanical domain. Experience with functional testing will be considered an asset. System view and knowledge of other engineering areas on top of AIT/AIV competences will be considered an asset. Sound knowledge of satellite qualification and acceptance testing. Proven experience with satellite system and/or payload AIT activities preparation, implementation and evaluation. Proven experience with test preparation, configuration and execution including relevant procedures and processes. Experience with active monitoring and support to industrial AITactivities, including problems troubleshooting and resolution. Good team spirit and teamwork experience in space related projects is considered key, as coordination with engineering and necessary specialists has to be ensured along AIT activities. Experience with AIT schedules assessment, identifying associated risks and proposing mitigation actions. Experience with NCR process and satellite project reviews. Experience with lessons learned management;. Availability to support regular missions abroad as required by Projects; along limited periods. Comfortable with working in a diverse and multinational team environment. Excellent interpersonal skills are needed, together with a high degree organizational and communication abilities. Proficient in the English language, both written and spoken. Knowledge of another EU member state language is an asset. Candidates must be eligible to work in the EU. About The CompanyWhy should you join Serco ? At Serco not only is the nature of the work we do important, everyone has an important role to play. Meaningful and vital work - You'll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated. A world of opportunity - You'll be wholeheartedly supported with development and career progression Great people - You'll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion. About Serco Serco Europe has operated in the Netherlands and Spain over the past 30 years, mainly in the field of Space. Serco Netherlands and Spain have a long history of partnership and trust with the European Space Agency (ESA). In both countries, Serco is proud to deliver the highest calibre of people and services at ESTEC (ESA's technology and engineering hub) and ESAC (ESA's Astronomy and Science centre). At the heart of its business, Serco Netherlands and Spain source, train, care and support employees, enabling them to better pursue their dreams of working in the Space industry in excelling in the delivery of essential public services. Important: Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law. Applicants are reminded that they will be requested to produce such documentation during the recruitment process. Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization. Data Protection: For more information on how the personal data in your application is process, please see the link Data Protection policy here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have an exciting (and challenging) opening for a Spacecraft Controller in Darmstadt. Dynamic, Energetic, Entrepreneurial, Highly Motivated, Resilient ... If this describes you then we would love to hear from you :) Come and join talented diverse Serco team at the European Organisation for the European Space Operations Centre (ESOC) based in Darmstadt, Germany. European Space Operations Centre (ESOC), Darmstadt, Germany, tracks and controls European spacecraft, and develops and manages ground systems. As Europe's centre of excellence for satellite operations, ESOC is home to the engineering teams that control spacecraft in orbit and build the systems on the ground that support missions in space. More here Discover the offer below and click on 'Apply' if you know that your skillset and talents are a suitable match for this opportunity. Serco - The employer of choice for a career within the Space Sector. Serco are a trusted provider of services to National Space Agencies and the European Space Agency (ESA), we have over 40 years' experience supporting the space sector and providing services for all stages of our customer's space missions. Join our community of space specialists across Europe We are proud to support the European institutional Space landscape: Serco boasts an extensive network of Space professionals located at our offices in Darmstadt, Noordwijk, Frascati, Paris and Madrid, all within close proximity of our two largest space sector customers, European Space Agency/European Space Operations Centre (ESA/ESOC) and European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT). Supporting Women in Aerospace Diversity and Inclusion is extremely important to us. Supporting women's opportunities, development and visibility in the space sector is key and that is why we are proud members and supporters of Women in Aerospace Europe, a dynamic and global network supporting women's careers in Aerospace. Women in Aerospace Europe (WIA-E) - Supporting women in STEM (wia-europe.org) Package DescriptionWhat we offer if you join our amazing team: - Competitive Salary - Corporate Benefits Package - Support provided to EU Nationals requiring relocation - Information available upon request - Company events Main ResponsibilitiesAs Spacecraft Controller you will concentrate your activities on the following: Operate all or part of the mission control system, which may include parts of the ground segment as well as the space segment, as specified for each mission. Interact with parts of the ground segment and perform routine operations on the space segment Depending on the mission assignment, during the pre-launch phase assist in configuring and testing the operational system to support the operations. The successful candidate may be required to develop methods or tools to assist in the execution of the operations. Depending on the mission assignment, On-console involvement in Mission Readiness Tests, System Validation Tests, simulations and Launch and Early Orbits Phase operations following established rules and procedures. In case of ground or space segment anomaly take corrective action as necessary, applying the contingency/emergency procedures approved for the mission to ensure spacecraft safety and the continuity of service provision to users. In the event of a major or critical anomaly escalate the issue in accordance with the established escalation procedures. Participate to other operations-related activities (small system development, procedures development or maintenance etc) upon request of the Team Leader. The working locations: Serco Operations site and ESOC, the dates on the operations site could be arranged in a "hybrid" mode upon Team Leader's approval. Successful CandidateDo you think you are the person we are looking for? See below what experience or knowledge you should bring: A solid technical background or a BSc degree in a related subject such as IT, Telecommunications, Physics, Aerospace Engineering etc. Experience working with computer systems and PC literacy is required Candidates should be ordered, disciplined, and have an efficient thinking mind as the appointed person should feel comfortable in a strictly procedure-driven working environment. Due to the operational nature of the job, candidates shall be able to work in a calm and correct manner under conditions of stress and in almost full autonomy As the successful candidate could be part of a small Ops Team working on a shift rotation pattern, team spirit is also essential to adapt to the sometimes unavoidable short-term changes to the shift plan resulting from sudden sicknesses or other exceptional circumstances Fluency in English is mandatory. About The CompanyWhy should you join Serco ? At Serco not only is the nature of the work we do important, everyone has an important role to play. Meaningful and vital work - You'll contribute to methodologically intercepting challenges whilst achievements will also be recognised and celebrated. A world of opportunity - You'll be wholeheartedly supported with development and career progression Great people - You'll become an integral member of a well-defined and supportive team who believe passionately in the value of our work. We are a company passionate about diversity and inclusion. About Serco Serco is responsible for the Network Operations Centre (NOC) services at the European Space Operations Centre (ESOC).The Network Operations Centre provides the 24h/7 remote operations services of the ESTRACK ground station network. As part of this service, Serco provides the first line Operations Control Centre (OCC) maintenance and operations services at ESOC. We manage the Operational Computer and Communications Infrastructure and ESTRACK ground stations for the European Space Agency at European Space Operations Centre (ESOC). This infrastructure supports operational and support systems including Ground stations, Mission Control, Flight Dynamics, Simulators, Mission analysis, general support, Firewalls, Network and systems management facilities and Operational communications network for data and voice services Important: Any offer of employment is contingent upon you providing documents to verify your identity and employment eligibility, as required by law. Applicants are reminded that they will be requested to produce such documentation during the recruitment process. Please contact a member of the recruitment team if you require further details of acceptable types of documentation required for verification of identity and work authorization. Data Protection: For more information on how the personal data in your application is process, please see the link Data Protection policy here.</t>
   </si>
 </sst>
 </file>
@@ -510,6 +612,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -532,29 +635,33 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -759,10 +866,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D154" activeCellId="0" sqref="D154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A188" activeCellId="0" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,7 +1326,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="n">
@@ -1227,7 +1334,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="n">
@@ -1299,7 +1406,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="n">
@@ -1622,7 +1729,7 @@
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,7 +1737,7 @@
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1638,7 +1745,7 @@
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +1753,7 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1654,7 +1761,7 @@
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1769,7 @@
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,7 +1777,7 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1678,15 +1785,15 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,7 +1801,7 @@
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1702,7 +1809,7 @@
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1817,7 @@
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,7 +1825,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1726,7 +1833,7 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1841,7 @@
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1742,15 +1849,15 @@
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1758,7 +1865,7 @@
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1873,7 @@
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1881,7 @@
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1889,7 @@
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1897,7 @@
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,7 +1905,7 @@
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1913,7 @@
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1921,7 @@
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,7 +1929,7 @@
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,7 +1937,7 @@
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1838,7 +1945,7 @@
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,7 +1953,7 @@
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1961,7 @@
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,7 +1969,7 @@
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,7 +1977,7 @@
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,7 +1985,7 @@
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,7 +1993,7 @@
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,7 +2001,7 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,7 +2009,7 @@
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,7 +2017,7 @@
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,7 +2025,7 @@
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,7 +2033,7 @@
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +2041,7 @@
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,15 +2049,335 @@
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A55" r:id="rId1" display="Business Intelligence Director Ref: BBBH4772              Location. London     Salary. Bonus, Pension     Type. Permanent           Job Description.    Global BI Director:    We are seeking a Global Business Intelligence Director to shape our future strategy and lead the design and development of core data and reporting applications. Collaborating with the Head of Systems and Integration and the Enterprise Architect, you will identify company needs, build fully automated dashboards, create our first Enterprise Data Warehouse, and execute the full strategy. You will oversee data standards and repositories to support business needs.            5 Days a week on-site in Victoria     up to 20% bonus     £7 a day contributory lunch allowance          Key Responsibilities:            Define solution architecture and delivery for data standards across all company applications, systems, and platforms.     Ensure application software aligns with data standards and reporting strategy.     Understand business processes, systems, tools, regulations, and structure to provide valuable intelligence and reporting services.     Oversee information design for application software and continuous improvement initiatives.     Manage design, coding, verification, testing, documentation, amendments, and refactoring of programs/scripts.     Approve database specifications, maintaining standards and data integrity.     Install and test complex databases and products to meet internal and customer requirements.     Design and select critical storage, data center, and client/server environments in line with industry best practices, and provide third-line escalation for global infrastructure solutions.     Redesign complex software applications or components using agreed standards, patterns, and tools.     Produce specifications for cloud-based or on-premise components for detailed design.     Support change programs or projects with technical plans adhering to enterprise and solution architecture standards, including security.     Evaluate alternative architectures for cost, performance, and scalability.     Monitor emerging technologies to assess potential impacts, threats, and opportunities.     Document and present solutions to stakeholders, including business and technical design authorities.     Evaluate potential risks and defects, analyze specifications, and customize applications.     Define and manage technology governance processes for the Information and Data landscape.     Produce documentation for application architecture, design steps, integration processes, and testing procedures.           Technical Experience required:            Strong knowledge of architecture and data methodologies, principles and frameworks.     A strong familiarity working with data platforms especially SQL server and PowerBI are a must have.           Diversity, equity and inclusion are at the heart of what we value as an organisation. Boston Hale is an equal opportunities employer and all qualified applicants will receive consideration for employment without regard to race, religion, sex, sexual orientation, age, disability or any other status protected by law.    If you are able to operate across the top-level of an organisation, have an enthusiastic and positive attitude and can explain the complicated in simple terms whilst driving a Global Organisation's BI environment towards best in class technologies and Best Practices, then please get in touch ASAP                      David Pynor      Head of Data &amp; Technology      +44 (0)20 3587 7905      dpynor@bostonhale.com"/>
-    <hyperlink ref="A115" r:id="rId2" display="elke.ebner@emtensor.com"/>
-    <hyperlink ref="A123" r:id="rId3" display="jobs@caeleste.be"/>
+    <hyperlink ref="A115" r:id="rId2" display="EMTensor GmbH is developing novel biomedical imaging modality utilizing RF-technologies at frequency band around 1GHz. EMTensor GmbH is privately owned MedTech located in Vienna, Austria (www.emtensor.com). The primary focus of the Company is on human brain imaging and diagnostic of brain disorders.     The Company is seeking to recruit an experienced RF electronics engineer with a proven track record and preferably a PhD in microwave / radiofrequency electronic engineering to work as part of our team in Vienna, Austria. The ideal candidate must have hands-on experience in electronic RF engineering and R&amp;D of modern RF/MW devices and technologies at frequency band around 1GHz is desirable.     Role and responsibilities:        Architect novel RF-based biomedical imaging systems     R&amp;D, testing and optimization of RF electronics for novel biomedical imaging systems     Breadth of RF design experience     Innovation and effectiveness in designs produced     Ability to act as lead engineer for new RF product design     Strong practical RF design skills (ability to design, make and test circuitry)     EM simulations using state of the art EM simulation tools     Support the experimental and test activities in the lab     Take part in FDA/CE certification and commercialization of novel biomedical imaging technology and scanners     Provide output and results according to EMTensor’s Quality Management       Essential Qualifications and experiences:        Experience in design, testing and optimization of RF electronics     Experience in commercial electromagnetic simulation tools such as HFSS, CST.     Experience in RF and/or communication system development     Practical lab experience in RF system verification (VNA, spectrum analyzer, oscilloscope utilization etc).     Experience working with EMC and safety certification test labs is a plus.     A passion for hardware development, including working in a fast-paced environment and hands-on design and development.     Interpersonal skills and abilities to communicate and work in a team environment across all levels of the organisation.     Understanding of quality standards and FDA/CE Quality System Regulations is a plus.       Education:        MS +10 years of experience or PhD + 5 years of experience in EE and/or RF engineering        Please send your CV along with a cover letter to elke.ebner@emtensor.com"/>
+    <hyperlink ref="A123" r:id="rId3" display="Job Title: Business Development &amp; Sales Manager          Location: Belgium          Job Type: Full-time                   Looking for an opportunity to channel your inner Business Development ninja?          Look no further. We are seeking a Business Development Manager who is passionate about the latest high-tech innovations in world leading companies, who can drive new business opportunities and manage the sales funnel end to end. Join our team and help shape the future of Caeleste, and beyond.                   Who We Are          Caeleste is a dynamic team of engineers, scientists and enthusiasts who develop exceptional CMOS image sensor solutions. Our collaborations with top global companies in the space, scientific, medical, industrial and life science industries result in extraordinary and innovative solutions that give them a competitive edge in their respective fields. Our expertise in designing and delivering high-speed, ultra-low noise, ultra-high dynamic range and extreme radiation-hard sensors make us a one-stop solution provider for our customers.          Join our team at Caeleste and experience the direct impact of your ideas and actions, regardless of your role or seniority. Our team is not only proud of their achievements, but also knows how to have fun.          Excitement awaits!                   What We Look For          As a Business Development Manager at Caeleste, you are responsible for generating new business by connecting with potential customers and translating their high-tech needs into successful projects. This includes identifying new leads, creating the business case, and driving qualified leads into signed proposals in collaboration with the engineering team. You will also be responsible for defining the go-to-market strategy and driving marketing activities. You will contribute to Caeleste's imaging offering in close collaboration with the engineering teams by mapping research and solution roadmaps to market needs. You will formulate business recommendations for the management team and report directly to the Business Development &amp; Sales Office Leader.                   You Are The Perfect Candidate If You                    have a technical Bachelor or Master's degree, combined with a strong business acumen,           share a customer-centric focus with the ability to identify and meet customer needs,           bring a track record of success in driving sales and business development in a high-tech B2B sector or have similar experience through managing customer facing projects,           show excellent interpersonal and communication skills to build and expand your professional network and confidently represent the company at conferences and trade shows,           demonstrate proficiency in effectively persuading peers on technical, legal and business-related matters,           enjoy traveling globally, to wherever business opportunities arise (between 10-30%),           are fluent in English.                            We'll be blown away if you also have:                    an understanding in the areas of CMOS technology, digital and analog design, test electronics, electro-optical instrumentation, photonics, etc.,           experience in the imaging technology market,           a good understanding of public funding mechanisms (local and European),           have a relevant network in the image sensor industry and/or in any of our target markets (industry, medical, space, life-science)           have experience with Business with Space Industry, e.g. with ESA or New Space.                            We Offer:                    a mandate to have a long-term impact in the successfully growing semiconductor company           competitive compensation and benefits package           a bonus in line with Caeleste's performance,           the opportunity to work on cutting-edge technology projects with world-leading companies,           a technological playground with a mixed-skilled, multi-cultural team of experts,           a flexible and dynamic work environment,           a continuous focus on learning at Caeleste University                            For application and questions, please contact us at jobs@caeleste.be"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
